--- a/Requirments/CAR_RTM .xlsx
+++ b/Requirments/CAR_RTM .xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="240">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -902,6 +902,13 @@
   <si>
     <t>Car_AdminRC_01</t>
   </si>
+  <si>
+    <t>Car_SearchTC_01
+Car_SearchTC_02
+Car_SearchTC_03
+Car_SearchTC_04
+Car_SearchTC_05</t>
+  </si>
 </sst>
 </file>
 
@@ -29740,8 +29747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29990,7 +29997,9 @@
       <c r="G7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="41" t="s">
+        <v>239</v>
+      </c>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>

--- a/Requirments/CAR_RTM .xlsx
+++ b/Requirments/CAR_RTM .xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="247">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -909,6 +909,60 @@
 Car_SearchTC_04
 Car_SearchTC_05</t>
   </si>
+  <si>
+    <t>Car_SearchTC_07
+Car_SearchTC_09
+Car_SearchTC_10
+Car_SearchTC_11</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_06
+Car_SearchTC_12</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_06
+Car_SearchTC_13</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Car_SearchTC_15
+Car_SearchTC_16
+Car_SearchTC_17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Car_SearchTC_18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Car_SearchTC_19</t>
+    </r>
+  </si>
+  <si>
+    <t>Car_SearchTC_21
+Car_SearchTC_22
+Car_SearchTC_23
+Car_SearchTC_24</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_20
+Car_SearchTC_25</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_20
+Car_SearchTC_26</t>
+  </si>
 </sst>
 </file>
 
@@ -917,7 +971,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -993,6 +1047,17 @@
     <font>
       <sz val="7"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1209,7 +1274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1376,6 +1441,12 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29747,8 +29818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30038,7 +30109,9 @@
       <c r="G8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>241</v>
+      </c>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
@@ -30077,7 +30150,9 @@
       <c r="G9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="41" t="s">
+        <v>242</v>
+      </c>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
@@ -30116,7 +30191,9 @@
       <c r="G10" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="H10" s="37"/>
+      <c r="H10" s="37" t="s">
+        <v>240</v>
+      </c>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -30738,7 +30815,9 @@
       <c r="G26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="57" t="s">
+        <v>243</v>
+      </c>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
@@ -30777,7 +30856,9 @@
       <c r="G27" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="41"/>
+      <c r="H27" s="58" t="s">
+        <v>245</v>
+      </c>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
       <c r="K27" s="41"/>
@@ -30816,7 +30897,9 @@
       <c r="G28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="37"/>
+      <c r="H28" s="57" t="s">
+        <v>246</v>
+      </c>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
@@ -30855,7 +30938,9 @@
       <c r="G29" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="41"/>
+      <c r="H29" s="58" t="s">
+        <v>244</v>
+      </c>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
@@ -57350,7 +57435,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LUP Template Version: 11/30/06&amp;RPage &amp;P of</oddFooter>
   </headerFooter>

--- a/Requirments/CAR_RTM .xlsx
+++ b/Requirments/CAR_RTM .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\ITI\CAR_Project\CarPurchasing\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatma\Desktop\CarPurchasing\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="247">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -61,6 +61,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: A unique ID number used to identify the traceability item in the requirements traceability matrix.</t>
     </r>
@@ -79,6 +80,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: This column should contain the ID of any associated utilities used for requirements tracking such as a repository, pipeline document, etc.</t>
     </r>
@@ -97,6 +99,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>:  This column should be populated with a description of the technical assumption or customer need linked to the functional requirement.</t>
     </r>
@@ -109,6 +112,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: This column should be populated with a description of the functional requirement.</t>
     </r>
@@ -121,6 +125,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: This column should be populated with the current status of the functional requirement.</t>
     </r>
@@ -133,6 +138,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>:  This column should be populated with a description of the architectural/design document linked to the functional requirement.</t>
     </r>
@@ -145,6 +151,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: This column should be populated with a description of the technical specification linked to the functional requirement.</t>
     </r>
@@ -157,6 +164,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> This column should be populated with a description of the system component(s) linked to the functional requirement.</t>
     </r>
@@ -172,6 +180,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: This column should be populated with a description of the software module(s) linked to the functional requirement.</t>
     </r>
@@ -184,6 +193,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: This column should be populated with the test case number linked to the functional requirement.</t>
     </r>
@@ -196,6 +206,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: This column should be populated with the module that the functional requirement has been tested in.</t>
     </r>
@@ -208,6 +219,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: This column should be populated with the module that the functional requirement has been implemented in.</t>
     </r>
@@ -220,6 +232,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: This column should be populated with a description of the verification document linked to the functional requirement.</t>
     </r>
@@ -232,6 +245,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: This column should be populated with any additional comments</t>
     </r>
@@ -971,7 +985,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -981,57 +995,68 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1039,18 +1064,15 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1426,6 +1448,12 @@
     <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1441,12 +1469,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1852,10 +1874,10 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -29818,8 +29840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29881,9 +29903,9 @@
       <c r="F2" s="6"/>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
@@ -29912,9 +29934,9 @@
       <c r="F3" s="6"/>
       <c r="G3" s="31"/>
       <c r="H3" s="32"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
@@ -29934,19 +29956,19 @@
       <c r="A4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="31"/>
       <c r="H4" s="32"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -30815,7 +30837,7 @@
       <c r="G26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="51" t="s">
         <v>243</v>
       </c>
       <c r="I26" s="37"/>
@@ -30856,7 +30878,7 @@
       <c r="G27" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="52" t="s">
         <v>245</v>
       </c>
       <c r="I27" s="41"/>
@@ -30897,7 +30919,7 @@
       <c r="G28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="51" t="s">
         <v>246</v>
       </c>
       <c r="I28" s="37"/>
@@ -30938,7 +30960,7 @@
       <c r="G29" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="52" t="s">
         <v>244</v>
       </c>
       <c r="I29" s="41"/>
@@ -31045,9 +31067,7 @@
         <v>139</v>
       </c>
       <c r="E32" s="44"/>
-      <c r="F32" s="36" t="s">
-        <v>140</v>
-      </c>
+      <c r="F32" s="36"/>
       <c r="G32" s="19" t="s">
         <v>44</v>
       </c>

--- a/Requirments/CAR_RTM .xlsx
+++ b/Requirments/CAR_RTM .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\CarPurchasing\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="258">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -903,12 +903,6 @@
     <t>Car_UC_06</t>
   </si>
   <si>
-    <t xml:space="preserve">Car_AdminRC_02
-Car_AdminRC_03
-Car_AdminRC_04
-</t>
-  </si>
-  <si>
     <t>Car_SearchTC_01
 Car_SearchTC_02
 Car_SearchTC_03
@@ -989,14 +983,6 @@
     <t>Car_Admin_02</t>
   </si>
   <si>
-    <t>Car_AdminTC_11
-Car_Admin_03</t>
-  </si>
-  <si>
-    <t>Car_AdminTC_12
-Car_admin_04</t>
-  </si>
-  <si>
     <t>Car_Admin_05</t>
   </si>
   <si>
@@ -1004,6 +990,24 @@
   </si>
   <si>
     <t>Car_Admin_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car_AdminTC_12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car_AdminTC_11
+</t>
+  </si>
+  <si>
+    <t>Car_Admin_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car_AdminRC_02
+Car_AdminRC_03
+Car_AdminRC_04
+Car_Admin_04
+</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1480,12 +1484,6 @@
     <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1502,11 +1500,35 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1912,10 +1934,10 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="54"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -29878,8 +29900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D54" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29890,7 +29912,7 @@
     <col min="4" max="5" width="28.42578125" style="28" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" style="28" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="66" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" style="28" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="28" customWidth="1"/>
     <col min="11" max="11" width="10" style="28" customWidth="1"/>
@@ -29909,7 +29931,7 @@
       <c r="E1" s="24"/>
       <c r="F1" s="3"/>
       <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
@@ -29940,10 +29962,10 @@
       <c r="E2" s="30"/>
       <c r="F2" s="6"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
@@ -29971,10 +29993,10 @@
       <c r="E3" s="30"/>
       <c r="F3" s="6"/>
       <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
@@ -29994,19 +30016,19 @@
       <c r="A4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -30089,7 +30111,7 @@
       <c r="G6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
@@ -30128,8 +30150,8 @@
       <c r="G7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>238</v>
+      <c r="H7" s="59" t="s">
+        <v>237</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
@@ -30169,8 +30191,8 @@
       <c r="G8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="37" t="s">
-        <v>240</v>
+      <c r="H8" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
@@ -30210,8 +30232,8 @@
       <c r="G9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>241</v>
+      <c r="H9" s="59" t="s">
+        <v>240</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
@@ -30251,8 +30273,8 @@
       <c r="G10" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>239</v>
+      <c r="H10" s="58" t="s">
+        <v>238</v>
       </c>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
@@ -30290,7 +30312,7 @@
       <c r="G11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
@@ -30329,7 +30351,7 @@
       <c r="G12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="37"/>
+      <c r="H12" s="58"/>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
@@ -30368,7 +30390,7 @@
       <c r="G13" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="41"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -30407,7 +30429,7 @@
       <c r="G14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="37"/>
+      <c r="H14" s="58"/>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
@@ -30446,7 +30468,7 @@
       <c r="G15" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="H15" s="41"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
@@ -30485,7 +30507,7 @@
       <c r="G16" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="37"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
@@ -30524,7 +30546,7 @@
       <c r="G17" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="41"/>
+      <c r="H17" s="59"/>
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -30565,7 +30587,7 @@
       <c r="G18" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
@@ -30604,7 +30626,7 @@
       <c r="G19" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="41"/>
+      <c r="H19" s="59"/>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
@@ -30643,7 +30665,7 @@
       <c r="G20" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H20" s="58"/>
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
@@ -30682,7 +30704,7 @@
       <c r="G21" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="H21" s="41"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
@@ -30721,7 +30743,7 @@
       <c r="G22" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="58"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
@@ -30760,7 +30782,7 @@
       <c r="G23" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="41"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
       <c r="K23" s="41"/>
@@ -30797,7 +30819,7 @@
       <c r="G24" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="37"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
@@ -30836,7 +30858,7 @@
       <c r="G25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="41"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
@@ -30875,8 +30897,8 @@
       <c r="G26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="51" t="s">
-        <v>242</v>
+      <c r="H26" s="60" t="s">
+        <v>241</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
@@ -30916,8 +30938,8 @@
       <c r="G27" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="52" t="s">
-        <v>244</v>
+      <c r="H27" s="61" t="s">
+        <v>243</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
@@ -30957,8 +30979,8 @@
       <c r="G28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="51" t="s">
-        <v>245</v>
+      <c r="H28" s="60" t="s">
+        <v>244</v>
       </c>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
@@ -30998,8 +31020,8 @@
       <c r="G29" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="52" t="s">
-        <v>243</v>
+      <c r="H29" s="61" t="s">
+        <v>242</v>
       </c>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
@@ -31037,7 +31059,7 @@
       <c r="G30" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="H30" s="58"/>
       <c r="I30" s="37"/>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
@@ -31074,7 +31096,7 @@
       <c r="G31" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H31" s="41"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
       <c r="K31" s="41"/>
@@ -31109,7 +31131,7 @@
       <c r="G32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="37"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -31146,7 +31168,7 @@
       <c r="G33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="41"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
@@ -31183,7 +31205,7 @@
       <c r="G34" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="37"/>
+      <c r="H34" s="58"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
@@ -31220,7 +31242,7 @@
       <c r="G35" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H35" s="41"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="41"/>
       <c r="J35" s="41"/>
       <c r="K35" s="41"/>
@@ -31257,7 +31279,7 @@
       <c r="G36" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="H36" s="37"/>
+      <c r="H36" s="58"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
@@ -31294,8 +31316,8 @@
       <c r="G37" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="41" t="s">
-        <v>246</v>
+      <c r="H37" s="59" t="s">
+        <v>245</v>
       </c>
       <c r="I37" s="41"/>
       <c r="J37" s="41"/>
@@ -31333,8 +31355,8 @@
       <c r="G38" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H38" s="37" t="s">
-        <v>247</v>
+      <c r="H38" s="58" t="s">
+        <v>246</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
@@ -31372,8 +31394,8 @@
       <c r="G39" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="H39" s="41" t="s">
-        <v>249</v>
+      <c r="H39" s="59" t="s">
+        <v>248</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="41"/>
@@ -31411,8 +31433,8 @@
       <c r="G40" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H40" s="20" t="s">
-        <v>248</v>
+      <c r="H40" s="62" t="s">
+        <v>247</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
@@ -31450,8 +31472,8 @@
       <c r="G41" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="H41" s="60" t="s">
-        <v>250</v>
+      <c r="H41" s="63" t="s">
+        <v>249</v>
       </c>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -31489,8 +31511,8 @@
       <c r="G42" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="H42" s="59" t="s">
-        <v>251</v>
+      <c r="H42" s="64" t="s">
+        <v>250</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -31530,8 +31552,8 @@
       <c r="G43" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="H43" s="21" t="s">
-        <v>252</v>
+      <c r="H43" s="65" t="s">
+        <v>255</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -31571,8 +31593,8 @@
       <c r="G44" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="H44" s="20" t="s">
-        <v>253</v>
+      <c r="H44" s="62" t="s">
+        <v>254</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
@@ -31610,7 +31632,9 @@
       <c r="G45" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="H45" s="21"/>
+      <c r="H45" s="65" t="s">
+        <v>256</v>
+      </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
@@ -31647,8 +31671,8 @@
       <c r="G46" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="20" t="s">
-        <v>237</v>
+      <c r="H46" s="62" t="s">
+        <v>257</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -31686,7 +31710,7 @@
       <c r="G47" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="21"/>
+      <c r="H47" s="65"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
@@ -31725,7 +31749,7 @@
       <c r="G48" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="H48" s="20"/>
+      <c r="H48" s="62"/>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
@@ -31762,7 +31786,7 @@
       <c r="G49" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H49" s="21"/>
+      <c r="H49" s="65"/>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
@@ -31797,7 +31821,7 @@
       <c r="G50" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="H50" s="20"/>
+      <c r="H50" s="62"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
@@ -31834,7 +31858,7 @@
       <c r="G51" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="H51" s="21"/>
+      <c r="H51" s="65"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -31873,7 +31897,7 @@
       <c r="G52" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="H52" s="20"/>
+      <c r="H52" s="62"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
@@ -31910,7 +31934,7 @@
       <c r="G53" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="H53" s="21"/>
+      <c r="H53" s="65"/>
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
@@ -31947,8 +31971,8 @@
       <c r="G54" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="59" t="s">
-        <v>254</v>
+      <c r="H54" s="64" t="s">
+        <v>251</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
@@ -31986,8 +32010,8 @@
       <c r="G55" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="60" t="s">
-        <v>255</v>
+      <c r="H55" s="63" t="s">
+        <v>252</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
@@ -32025,8 +32049,8 @@
       <c r="G56" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="H56" s="20" t="s">
-        <v>256</v>
+      <c r="H56" s="62" t="s">
+        <v>253</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
@@ -32064,7 +32088,7 @@
       <c r="G57" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="H57" s="21"/>
+      <c r="H57" s="65"/>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
@@ -32091,7 +32115,7 @@
       <c r="E58" s="35"/>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="20"/>
+      <c r="H58" s="62"/>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
@@ -32118,7 +32142,7 @@
       <c r="E59" s="48"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
-      <c r="H59" s="21"/>
+      <c r="H59" s="65"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
@@ -32145,7 +32169,7 @@
       <c r="E60" s="35"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
+      <c r="H60" s="62"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
@@ -32172,7 +32196,7 @@
       <c r="E61" s="48"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
-      <c r="H61" s="21"/>
+      <c r="H61" s="65"/>
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
@@ -32199,7 +32223,7 @@
       <c r="E62" s="35"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="20"/>
+      <c r="H62" s="62"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
       <c r="K62" s="20"/>
@@ -32226,7 +32250,7 @@
       <c r="E63" s="48"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
-      <c r="H63" s="21"/>
+      <c r="H63" s="65"/>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
@@ -32253,7 +32277,7 @@
       <c r="E64" s="35"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="20"/>
+      <c r="H64" s="62"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
       <c r="K64" s="20"/>
@@ -32280,7 +32304,7 @@
       <c r="E65" s="48"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
-      <c r="H65" s="21"/>
+      <c r="H65" s="65"/>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
@@ -32307,7 +32331,7 @@
       <c r="E66" s="35"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
-      <c r="H66" s="20"/>
+      <c r="H66" s="62"/>
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
       <c r="K66" s="20"/>
@@ -32334,7 +32358,7 @@
       <c r="E67" s="48"/>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
-      <c r="H67" s="21"/>
+      <c r="H67" s="65"/>
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
       <c r="K67" s="21"/>
@@ -32361,7 +32385,7 @@
       <c r="E68" s="35"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
-      <c r="H68" s="20"/>
+      <c r="H68" s="62"/>
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
       <c r="K68" s="20"/>
@@ -32388,7 +32412,7 @@
       <c r="E69" s="48"/>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
-      <c r="H69" s="21"/>
+      <c r="H69" s="65"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
@@ -32415,7 +32439,7 @@
       <c r="E70" s="35"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
-      <c r="H70" s="20"/>
+      <c r="H70" s="62"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
       <c r="K70" s="20"/>
@@ -32442,7 +32466,7 @@
       <c r="E71" s="48"/>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
-      <c r="H71" s="21"/>
+      <c r="H71" s="65"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
@@ -32469,7 +32493,7 @@
       <c r="E72" s="35"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="20"/>
+      <c r="H72" s="62"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
@@ -32496,7 +32520,7 @@
       <c r="E73" s="48"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
-      <c r="H73" s="21"/>
+      <c r="H73" s="65"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
@@ -32523,7 +32547,7 @@
       <c r="E74" s="35"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
-      <c r="H74" s="20"/>
+      <c r="H74" s="62"/>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
       <c r="K74" s="20"/>
@@ -32550,7 +32574,7 @@
       <c r="E75" s="48"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
-      <c r="H75" s="21"/>
+      <c r="H75" s="65"/>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
       <c r="K75" s="21"/>
@@ -32577,7 +32601,7 @@
       <c r="E76" s="35"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
-      <c r="H76" s="20"/>
+      <c r="H76" s="62"/>
       <c r="I76" s="20"/>
       <c r="J76" s="20"/>
       <c r="K76" s="20"/>
@@ -32604,7 +32628,7 @@
       <c r="E77" s="48"/>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="21"/>
+      <c r="H77" s="65"/>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
       <c r="K77" s="21"/>
@@ -32631,7 +32655,7 @@
       <c r="E78" s="35"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
-      <c r="H78" s="20"/>
+      <c r="H78" s="62"/>
       <c r="I78" s="20"/>
       <c r="J78" s="20"/>
       <c r="K78" s="20"/>
@@ -32658,7 +32682,7 @@
       <c r="E79" s="48"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
-      <c r="H79" s="21"/>
+      <c r="H79" s="65"/>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
@@ -32685,7 +32709,7 @@
       <c r="E80" s="35"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="20"/>
+      <c r="H80" s="62"/>
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
       <c r="K80" s="20"/>
@@ -32712,7 +32736,7 @@
       <c r="E81" s="35"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
-      <c r="H81" s="20"/>
+      <c r="H81" s="62"/>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
       <c r="K81" s="20"/>
@@ -32739,7 +32763,7 @@
       <c r="E82" s="35"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
-      <c r="H82" s="20"/>
+      <c r="H82" s="62"/>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
       <c r="K82" s="20"/>
@@ -32766,7 +32790,7 @@
       <c r="E83" s="35"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
-      <c r="H83" s="20"/>
+      <c r="H83" s="62"/>
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
@@ -32793,7 +32817,7 @@
       <c r="E84" s="35"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
-      <c r="H84" s="20"/>
+      <c r="H84" s="62"/>
       <c r="I84" s="20"/>
       <c r="J84" s="20"/>
       <c r="K84" s="20"/>
@@ -32820,7 +32844,7 @@
       <c r="E85" s="35"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
-      <c r="H85" s="20"/>
+      <c r="H85" s="62"/>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
       <c r="K85" s="20"/>
@@ -32847,7 +32871,7 @@
       <c r="E86" s="35"/>
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
-      <c r="H86" s="20"/>
+      <c r="H86" s="62"/>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
       <c r="K86" s="20"/>
@@ -32874,7 +32898,7 @@
       <c r="E87" s="35"/>
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
-      <c r="H87" s="20"/>
+      <c r="H87" s="62"/>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
       <c r="K87" s="20"/>
@@ -32901,7 +32925,7 @@
       <c r="E88" s="35"/>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
-      <c r="H88" s="20"/>
+      <c r="H88" s="62"/>
       <c r="I88" s="20"/>
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
@@ -32928,7 +32952,7 @@
       <c r="E89" s="35"/>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
-      <c r="H89" s="20"/>
+      <c r="H89" s="62"/>
       <c r="I89" s="20"/>
       <c r="J89" s="20"/>
       <c r="K89" s="20"/>
@@ -32955,7 +32979,7 @@
       <c r="E90" s="35"/>
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
-      <c r="H90" s="20"/>
+      <c r="H90" s="62"/>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
@@ -32982,7 +33006,7 @@
       <c r="E91" s="35"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
-      <c r="H91" s="20"/>
+      <c r="H91" s="62"/>
       <c r="I91" s="20"/>
       <c r="J91" s="20"/>
       <c r="K91" s="20"/>
@@ -33009,7 +33033,7 @@
       <c r="E92" s="35"/>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
-      <c r="H92" s="20"/>
+      <c r="H92" s="62"/>
       <c r="I92" s="20"/>
       <c r="J92" s="20"/>
       <c r="K92" s="20"/>
@@ -33036,7 +33060,7 @@
       <c r="E93" s="35"/>
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
-      <c r="H93" s="20"/>
+      <c r="H93" s="62"/>
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
       <c r="K93" s="20"/>
@@ -33063,7 +33087,7 @@
       <c r="E94" s="35"/>
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
-      <c r="H94" s="20"/>
+      <c r="H94" s="62"/>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
       <c r="K94" s="20"/>
@@ -33090,7 +33114,7 @@
       <c r="E95" s="35"/>
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
-      <c r="H95" s="20"/>
+      <c r="H95" s="62"/>
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
       <c r="K95" s="20"/>
@@ -33117,7 +33141,7 @@
       <c r="E96" s="35"/>
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
-      <c r="H96" s="20"/>
+      <c r="H96" s="62"/>
       <c r="I96" s="20"/>
       <c r="J96" s="20"/>
       <c r="K96" s="20"/>
@@ -33144,7 +33168,7 @@
       <c r="E97" s="35"/>
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
-      <c r="H97" s="20"/>
+      <c r="H97" s="62"/>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
       <c r="K97" s="20"/>
@@ -33171,7 +33195,7 @@
       <c r="E98" s="35"/>
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
-      <c r="H98" s="20"/>
+      <c r="H98" s="62"/>
       <c r="I98" s="20"/>
       <c r="J98" s="20"/>
       <c r="K98" s="20"/>
@@ -33198,7 +33222,7 @@
       <c r="E99" s="35"/>
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
-      <c r="H99" s="20"/>
+      <c r="H99" s="62"/>
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
       <c r="K99" s="20"/>
@@ -33225,7 +33249,7 @@
       <c r="E100" s="35"/>
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
-      <c r="H100" s="20"/>
+      <c r="H100" s="62"/>
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
@@ -33252,7 +33276,7 @@
       <c r="E101" s="35"/>
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
-      <c r="H101" s="20"/>
+      <c r="H101" s="62"/>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
@@ -33279,7 +33303,7 @@
       <c r="E102" s="35"/>
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
-      <c r="H102" s="20"/>
+      <c r="H102" s="62"/>
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
@@ -33306,7 +33330,7 @@
       <c r="E103" s="35"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
-      <c r="H103" s="20"/>
+      <c r="H103" s="62"/>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
       <c r="K103" s="20"/>
@@ -33333,7 +33357,7 @@
       <c r="E104" s="35"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
-      <c r="H104" s="20"/>
+      <c r="H104" s="62"/>
       <c r="I104" s="20"/>
       <c r="J104" s="20"/>
       <c r="K104" s="20"/>
@@ -33360,7 +33384,7 @@
       <c r="E105" s="35"/>
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
-      <c r="H105" s="20"/>
+      <c r="H105" s="62"/>
       <c r="I105" s="20"/>
       <c r="J105" s="20"/>
       <c r="K105" s="20"/>
@@ -33387,7 +33411,7 @@
       <c r="E106" s="35"/>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
-      <c r="H106" s="20"/>
+      <c r="H106" s="62"/>
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
       <c r="K106" s="20"/>
@@ -33414,7 +33438,7 @@
       <c r="E107" s="35"/>
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
-      <c r="H107" s="20"/>
+      <c r="H107" s="62"/>
       <c r="I107" s="20"/>
       <c r="J107" s="20"/>
       <c r="K107" s="20"/>
@@ -33441,7 +33465,7 @@
       <c r="E108" s="35"/>
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
-      <c r="H108" s="20"/>
+      <c r="H108" s="62"/>
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
       <c r="K108" s="20"/>
@@ -33468,7 +33492,7 @@
       <c r="E109" s="35"/>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
-      <c r="H109" s="20"/>
+      <c r="H109" s="62"/>
       <c r="I109" s="20"/>
       <c r="J109" s="20"/>
       <c r="K109" s="20"/>
@@ -33495,7 +33519,7 @@
       <c r="E110" s="35"/>
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
-      <c r="H110" s="20"/>
+      <c r="H110" s="62"/>
       <c r="I110" s="20"/>
       <c r="J110" s="20"/>
       <c r="K110" s="20"/>
@@ -33522,7 +33546,7 @@
       <c r="E111" s="35"/>
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
-      <c r="H111" s="20"/>
+      <c r="H111" s="62"/>
       <c r="I111" s="20"/>
       <c r="J111" s="20"/>
       <c r="K111" s="20"/>
@@ -33549,7 +33573,7 @@
       <c r="E112" s="35"/>
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
-      <c r="H112" s="20"/>
+      <c r="H112" s="62"/>
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
@@ -33576,7 +33600,7 @@
       <c r="E113" s="35"/>
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
-      <c r="H113" s="20"/>
+      <c r="H113" s="62"/>
       <c r="I113" s="20"/>
       <c r="J113" s="20"/>
       <c r="K113" s="20"/>
@@ -33603,7 +33627,7 @@
       <c r="E114" s="35"/>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
-      <c r="H114" s="20"/>
+      <c r="H114" s="62"/>
       <c r="I114" s="20"/>
       <c r="J114" s="20"/>
       <c r="K114" s="20"/>
@@ -33630,7 +33654,7 @@
       <c r="E115" s="35"/>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
-      <c r="H115" s="20"/>
+      <c r="H115" s="62"/>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
       <c r="K115" s="20"/>
@@ -33657,7 +33681,7 @@
       <c r="E116" s="35"/>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
-      <c r="H116" s="20"/>
+      <c r="H116" s="62"/>
       <c r="I116" s="20"/>
       <c r="J116" s="20"/>
       <c r="K116" s="20"/>
@@ -33684,7 +33708,7 @@
       <c r="E117" s="35"/>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
-      <c r="H117" s="20"/>
+      <c r="H117" s="62"/>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
       <c r="K117" s="20"/>
@@ -33711,7 +33735,7 @@
       <c r="E118" s="35"/>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
-      <c r="H118" s="20"/>
+      <c r="H118" s="62"/>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
       <c r="K118" s="20"/>
@@ -33738,7 +33762,7 @@
       <c r="E119" s="35"/>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
-      <c r="H119" s="20"/>
+      <c r="H119" s="62"/>
       <c r="I119" s="20"/>
       <c r="J119" s="20"/>
       <c r="K119" s="20"/>
@@ -33765,7 +33789,7 @@
       <c r="E120" s="35"/>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
-      <c r="H120" s="20"/>
+      <c r="H120" s="62"/>
       <c r="I120" s="20"/>
       <c r="J120" s="20"/>
       <c r="K120" s="20"/>
@@ -33792,7 +33816,7 @@
       <c r="E121" s="35"/>
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
-      <c r="H121" s="20"/>
+      <c r="H121" s="62"/>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
@@ -33819,7 +33843,7 @@
       <c r="E122" s="35"/>
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
-      <c r="H122" s="20"/>
+      <c r="H122" s="62"/>
       <c r="I122" s="20"/>
       <c r="J122" s="20"/>
       <c r="K122" s="20"/>
@@ -33846,7 +33870,7 @@
       <c r="E123" s="35"/>
       <c r="F123" s="19"/>
       <c r="G123" s="19"/>
-      <c r="H123" s="20"/>
+      <c r="H123" s="62"/>
       <c r="I123" s="20"/>
       <c r="J123" s="20"/>
       <c r="K123" s="20"/>
@@ -33873,7 +33897,7 @@
       <c r="E124" s="35"/>
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
-      <c r="H124" s="20"/>
+      <c r="H124" s="62"/>
       <c r="I124" s="20"/>
       <c r="J124" s="20"/>
       <c r="K124" s="20"/>
@@ -33900,7 +33924,7 @@
       <c r="E125" s="35"/>
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
-      <c r="H125" s="20"/>
+      <c r="H125" s="62"/>
       <c r="I125" s="20"/>
       <c r="J125" s="20"/>
       <c r="K125" s="20"/>
@@ -33927,7 +33951,7 @@
       <c r="E126" s="35"/>
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
-      <c r="H126" s="20"/>
+      <c r="H126" s="62"/>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
       <c r="K126" s="20"/>
@@ -33954,7 +33978,7 @@
       <c r="E127" s="35"/>
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
-      <c r="H127" s="20"/>
+      <c r="H127" s="62"/>
       <c r="I127" s="20"/>
       <c r="J127" s="20"/>
       <c r="K127" s="20"/>
@@ -33981,7 +34005,7 @@
       <c r="E128" s="35"/>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
-      <c r="H128" s="20"/>
+      <c r="H128" s="62"/>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
       <c r="K128" s="20"/>
@@ -34008,7 +34032,7 @@
       <c r="E129" s="35"/>
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
-      <c r="H129" s="20"/>
+      <c r="H129" s="62"/>
       <c r="I129" s="20"/>
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
@@ -34035,7 +34059,7 @@
       <c r="E130" s="35"/>
       <c r="F130" s="19"/>
       <c r="G130" s="19"/>
-      <c r="H130" s="20"/>
+      <c r="H130" s="62"/>
       <c r="I130" s="20"/>
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
@@ -34062,7 +34086,7 @@
       <c r="E131" s="35"/>
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
-      <c r="H131" s="20"/>
+      <c r="H131" s="62"/>
       <c r="I131" s="20"/>
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
@@ -34089,7 +34113,7 @@
       <c r="E132" s="35"/>
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
-      <c r="H132" s="20"/>
+      <c r="H132" s="62"/>
       <c r="I132" s="20"/>
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
@@ -34116,7 +34140,7 @@
       <c r="E133" s="35"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
-      <c r="H133" s="20"/>
+      <c r="H133" s="62"/>
       <c r="I133" s="20"/>
       <c r="J133" s="20"/>
       <c r="K133" s="20"/>
@@ -34143,7 +34167,7 @@
       <c r="E134" s="35"/>
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
-      <c r="H134" s="20"/>
+      <c r="H134" s="62"/>
       <c r="I134" s="20"/>
       <c r="J134" s="20"/>
       <c r="K134" s="20"/>
@@ -34170,7 +34194,7 @@
       <c r="E135" s="35"/>
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
-      <c r="H135" s="20"/>
+      <c r="H135" s="62"/>
       <c r="I135" s="20"/>
       <c r="J135" s="20"/>
       <c r="K135" s="20"/>
@@ -34197,7 +34221,7 @@
       <c r="E136" s="35"/>
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
-      <c r="H136" s="20"/>
+      <c r="H136" s="62"/>
       <c r="I136" s="20"/>
       <c r="J136" s="20"/>
       <c r="K136" s="20"/>
@@ -34224,7 +34248,7 @@
       <c r="E137" s="35"/>
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
-      <c r="H137" s="20"/>
+      <c r="H137" s="62"/>
       <c r="I137" s="20"/>
       <c r="J137" s="20"/>
       <c r="K137" s="20"/>
@@ -34251,7 +34275,7 @@
       <c r="E138" s="35"/>
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
-      <c r="H138" s="20"/>
+      <c r="H138" s="62"/>
       <c r="I138" s="20"/>
       <c r="J138" s="20"/>
       <c r="K138" s="20"/>
@@ -34278,7 +34302,7 @@
       <c r="E139" s="35"/>
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
-      <c r="H139" s="20"/>
+      <c r="H139" s="62"/>
       <c r="I139" s="20"/>
       <c r="J139" s="20"/>
       <c r="K139" s="20"/>
@@ -34305,7 +34329,7 @@
       <c r="E140" s="35"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
-      <c r="H140" s="20"/>
+      <c r="H140" s="62"/>
       <c r="I140" s="20"/>
       <c r="J140" s="20"/>
       <c r="K140" s="20"/>
@@ -34332,7 +34356,7 @@
       <c r="E141" s="35"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
-      <c r="H141" s="20"/>
+      <c r="H141" s="62"/>
       <c r="I141" s="20"/>
       <c r="J141" s="20"/>
       <c r="K141" s="20"/>
@@ -34359,7 +34383,7 @@
       <c r="E142" s="35"/>
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
-      <c r="H142" s="20"/>
+      <c r="H142" s="62"/>
       <c r="I142" s="20"/>
       <c r="J142" s="20"/>
       <c r="K142" s="20"/>
@@ -34386,7 +34410,7 @@
       <c r="E143" s="35"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
-      <c r="H143" s="20"/>
+      <c r="H143" s="62"/>
       <c r="I143" s="20"/>
       <c r="J143" s="20"/>
       <c r="K143" s="20"/>
@@ -34413,7 +34437,7 @@
       <c r="E144" s="35"/>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
-      <c r="H144" s="20"/>
+      <c r="H144" s="62"/>
       <c r="I144" s="20"/>
       <c r="J144" s="20"/>
       <c r="K144" s="20"/>
@@ -34440,7 +34464,7 @@
       <c r="E145" s="35"/>
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
-      <c r="H145" s="20"/>
+      <c r="H145" s="62"/>
       <c r="I145" s="20"/>
       <c r="J145" s="20"/>
       <c r="K145" s="20"/>
@@ -34467,7 +34491,7 @@
       <c r="E146" s="35"/>
       <c r="F146" s="19"/>
       <c r="G146" s="19"/>
-      <c r="H146" s="20"/>
+      <c r="H146" s="62"/>
       <c r="I146" s="20"/>
       <c r="J146" s="20"/>
       <c r="K146" s="20"/>
@@ -34494,7 +34518,7 @@
       <c r="E147" s="35"/>
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
-      <c r="H147" s="20"/>
+      <c r="H147" s="62"/>
       <c r="I147" s="20"/>
       <c r="J147" s="20"/>
       <c r="K147" s="20"/>
@@ -34521,7 +34545,7 @@
       <c r="E148" s="35"/>
       <c r="F148" s="19"/>
       <c r="G148" s="19"/>
-      <c r="H148" s="20"/>
+      <c r="H148" s="62"/>
       <c r="I148" s="20"/>
       <c r="J148" s="20"/>
       <c r="K148" s="20"/>
@@ -34548,7 +34572,7 @@
       <c r="E149" s="35"/>
       <c r="F149" s="19"/>
       <c r="G149" s="19"/>
-      <c r="H149" s="20"/>
+      <c r="H149" s="62"/>
       <c r="I149" s="20"/>
       <c r="J149" s="20"/>
       <c r="K149" s="20"/>
@@ -34575,7 +34599,7 @@
       <c r="E150" s="35"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
-      <c r="H150" s="20"/>
+      <c r="H150" s="62"/>
       <c r="I150" s="20"/>
       <c r="J150" s="20"/>
       <c r="K150" s="20"/>
@@ -34602,7 +34626,7 @@
       <c r="E151" s="35"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
-      <c r="H151" s="20"/>
+      <c r="H151" s="62"/>
       <c r="I151" s="20"/>
       <c r="J151" s="20"/>
       <c r="K151" s="20"/>
@@ -34629,7 +34653,7 @@
       <c r="E152" s="35"/>
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
-      <c r="H152" s="20"/>
+      <c r="H152" s="62"/>
       <c r="I152" s="20"/>
       <c r="J152" s="20"/>
       <c r="K152" s="20"/>
@@ -34656,7 +34680,7 @@
       <c r="E153" s="35"/>
       <c r="F153" s="19"/>
       <c r="G153" s="19"/>
-      <c r="H153" s="20"/>
+      <c r="H153" s="62"/>
       <c r="I153" s="20"/>
       <c r="J153" s="20"/>
       <c r="K153" s="20"/>
@@ -34683,7 +34707,7 @@
       <c r="E154" s="35"/>
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
-      <c r="H154" s="20"/>
+      <c r="H154" s="62"/>
       <c r="I154" s="20"/>
       <c r="J154" s="20"/>
       <c r="K154" s="20"/>
@@ -34710,7 +34734,7 @@
       <c r="E155" s="35"/>
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
-      <c r="H155" s="20"/>
+      <c r="H155" s="62"/>
       <c r="I155" s="20"/>
       <c r="J155" s="20"/>
       <c r="K155" s="20"/>
@@ -34737,7 +34761,7 @@
       <c r="E156" s="35"/>
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
-      <c r="H156" s="20"/>
+      <c r="H156" s="62"/>
       <c r="I156" s="20"/>
       <c r="J156" s="20"/>
       <c r="K156" s="20"/>
@@ -34764,7 +34788,7 @@
       <c r="E157" s="35"/>
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
-      <c r="H157" s="20"/>
+      <c r="H157" s="62"/>
       <c r="I157" s="20"/>
       <c r="J157" s="20"/>
       <c r="K157" s="20"/>
@@ -34791,7 +34815,7 @@
       <c r="E158" s="35"/>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
-      <c r="H158" s="20"/>
+      <c r="H158" s="62"/>
       <c r="I158" s="20"/>
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
@@ -34818,7 +34842,7 @@
       <c r="E159" s="35"/>
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
-      <c r="H159" s="20"/>
+      <c r="H159" s="62"/>
       <c r="I159" s="20"/>
       <c r="J159" s="20"/>
       <c r="K159" s="20"/>
@@ -34845,7 +34869,7 @@
       <c r="E160" s="35"/>
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
-      <c r="H160" s="20"/>
+      <c r="H160" s="62"/>
       <c r="I160" s="20"/>
       <c r="J160" s="20"/>
       <c r="K160" s="20"/>
@@ -34872,7 +34896,7 @@
       <c r="E161" s="35"/>
       <c r="F161" s="19"/>
       <c r="G161" s="19"/>
-      <c r="H161" s="20"/>
+      <c r="H161" s="62"/>
       <c r="I161" s="20"/>
       <c r="J161" s="20"/>
       <c r="K161" s="20"/>
@@ -34899,7 +34923,7 @@
       <c r="E162" s="35"/>
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
-      <c r="H162" s="20"/>
+      <c r="H162" s="62"/>
       <c r="I162" s="20"/>
       <c r="J162" s="20"/>
       <c r="K162" s="20"/>
@@ -34926,7 +34950,7 @@
       <c r="E163" s="35"/>
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
-      <c r="H163" s="20"/>
+      <c r="H163" s="62"/>
       <c r="I163" s="20"/>
       <c r="J163" s="20"/>
       <c r="K163" s="20"/>
@@ -34953,7 +34977,7 @@
       <c r="E164" s="35"/>
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
-      <c r="H164" s="20"/>
+      <c r="H164" s="62"/>
       <c r="I164" s="20"/>
       <c r="J164" s="20"/>
       <c r="K164" s="20"/>
@@ -34980,7 +35004,7 @@
       <c r="E165" s="35"/>
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
-      <c r="H165" s="20"/>
+      <c r="H165" s="62"/>
       <c r="I165" s="20"/>
       <c r="J165" s="20"/>
       <c r="K165" s="20"/>
@@ -35007,7 +35031,7 @@
       <c r="E166" s="35"/>
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
-      <c r="H166" s="20"/>
+      <c r="H166" s="62"/>
       <c r="I166" s="20"/>
       <c r="J166" s="20"/>
       <c r="K166" s="20"/>
@@ -35034,7 +35058,7 @@
       <c r="E167" s="35"/>
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
-      <c r="H167" s="20"/>
+      <c r="H167" s="62"/>
       <c r="I167" s="20"/>
       <c r="J167" s="20"/>
       <c r="K167" s="20"/>
@@ -35061,7 +35085,7 @@
       <c r="E168" s="35"/>
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
-      <c r="H168" s="20"/>
+      <c r="H168" s="62"/>
       <c r="I168" s="20"/>
       <c r="J168" s="20"/>
       <c r="K168" s="20"/>
@@ -35088,7 +35112,7 @@
       <c r="E169" s="35"/>
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
-      <c r="H169" s="20"/>
+      <c r="H169" s="62"/>
       <c r="I169" s="20"/>
       <c r="J169" s="20"/>
       <c r="K169" s="20"/>
@@ -35115,7 +35139,7 @@
       <c r="E170" s="35"/>
       <c r="F170" s="19"/>
       <c r="G170" s="19"/>
-      <c r="H170" s="20"/>
+      <c r="H170" s="62"/>
       <c r="I170" s="20"/>
       <c r="J170" s="20"/>
       <c r="K170" s="20"/>
@@ -35142,7 +35166,7 @@
       <c r="E171" s="35"/>
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
-      <c r="H171" s="20"/>
+      <c r="H171" s="62"/>
       <c r="I171" s="20"/>
       <c r="J171" s="20"/>
       <c r="K171" s="20"/>
@@ -35169,7 +35193,7 @@
       <c r="E172" s="35"/>
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
-      <c r="H172" s="20"/>
+      <c r="H172" s="62"/>
       <c r="I172" s="20"/>
       <c r="J172" s="20"/>
       <c r="K172" s="20"/>
@@ -35196,7 +35220,7 @@
       <c r="E173" s="35"/>
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
-      <c r="H173" s="20"/>
+      <c r="H173" s="62"/>
       <c r="I173" s="20"/>
       <c r="J173" s="20"/>
       <c r="K173" s="20"/>
@@ -35223,7 +35247,7 @@
       <c r="E174" s="35"/>
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
-      <c r="H174" s="20"/>
+      <c r="H174" s="62"/>
       <c r="I174" s="20"/>
       <c r="J174" s="20"/>
       <c r="K174" s="20"/>
@@ -35250,7 +35274,7 @@
       <c r="E175" s="35"/>
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
-      <c r="H175" s="20"/>
+      <c r="H175" s="62"/>
       <c r="I175" s="20"/>
       <c r="J175" s="20"/>
       <c r="K175" s="20"/>
@@ -35277,7 +35301,7 @@
       <c r="E176" s="35"/>
       <c r="F176" s="19"/>
       <c r="G176" s="19"/>
-      <c r="H176" s="20"/>
+      <c r="H176" s="62"/>
       <c r="I176" s="20"/>
       <c r="J176" s="20"/>
       <c r="K176" s="20"/>
@@ -35304,7 +35328,7 @@
       <c r="E177" s="35"/>
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
-      <c r="H177" s="20"/>
+      <c r="H177" s="62"/>
       <c r="I177" s="20"/>
       <c r="J177" s="20"/>
       <c r="K177" s="20"/>
@@ -35331,7 +35355,7 @@
       <c r="E178" s="35"/>
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
-      <c r="H178" s="20"/>
+      <c r="H178" s="62"/>
       <c r="I178" s="20"/>
       <c r="J178" s="20"/>
       <c r="K178" s="20"/>
@@ -35358,7 +35382,7 @@
       <c r="E179" s="35"/>
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
-      <c r="H179" s="20"/>
+      <c r="H179" s="62"/>
       <c r="I179" s="20"/>
       <c r="J179" s="20"/>
       <c r="K179" s="20"/>
@@ -35385,7 +35409,7 @@
       <c r="E180" s="35"/>
       <c r="F180" s="19"/>
       <c r="G180" s="19"/>
-      <c r="H180" s="20"/>
+      <c r="H180" s="62"/>
       <c r="I180" s="20"/>
       <c r="J180" s="20"/>
       <c r="K180" s="20"/>
@@ -35412,7 +35436,7 @@
       <c r="E181" s="35"/>
       <c r="F181" s="19"/>
       <c r="G181" s="19"/>
-      <c r="H181" s="20"/>
+      <c r="H181" s="62"/>
       <c r="I181" s="20"/>
       <c r="J181" s="20"/>
       <c r="K181" s="20"/>
@@ -35439,7 +35463,7 @@
       <c r="E182" s="35"/>
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
-      <c r="H182" s="20"/>
+      <c r="H182" s="62"/>
       <c r="I182" s="20"/>
       <c r="J182" s="20"/>
       <c r="K182" s="20"/>
@@ -35466,7 +35490,7 @@
       <c r="E183" s="35"/>
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
-      <c r="H183" s="20"/>
+      <c r="H183" s="62"/>
       <c r="I183" s="20"/>
       <c r="J183" s="20"/>
       <c r="K183" s="20"/>
@@ -35493,7 +35517,7 @@
       <c r="E184" s="35"/>
       <c r="F184" s="19"/>
       <c r="G184" s="19"/>
-      <c r="H184" s="20"/>
+      <c r="H184" s="62"/>
       <c r="I184" s="20"/>
       <c r="J184" s="20"/>
       <c r="K184" s="20"/>
@@ -35520,7 +35544,7 @@
       <c r="E185" s="35"/>
       <c r="F185" s="19"/>
       <c r="G185" s="19"/>
-      <c r="H185" s="20"/>
+      <c r="H185" s="62"/>
       <c r="I185" s="20"/>
       <c r="J185" s="20"/>
       <c r="K185" s="20"/>
@@ -35547,7 +35571,7 @@
       <c r="E186" s="35"/>
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
-      <c r="H186" s="20"/>
+      <c r="H186" s="62"/>
       <c r="I186" s="20"/>
       <c r="J186" s="20"/>
       <c r="K186" s="20"/>
@@ -35574,7 +35598,7 @@
       <c r="E187" s="35"/>
       <c r="F187" s="19"/>
       <c r="G187" s="19"/>
-      <c r="H187" s="20"/>
+      <c r="H187" s="62"/>
       <c r="I187" s="20"/>
       <c r="J187" s="20"/>
       <c r="K187" s="20"/>
@@ -35601,7 +35625,7 @@
       <c r="E188" s="35"/>
       <c r="F188" s="19"/>
       <c r="G188" s="19"/>
-      <c r="H188" s="20"/>
+      <c r="H188" s="62"/>
       <c r="I188" s="20"/>
       <c r="J188" s="20"/>
       <c r="K188" s="20"/>
@@ -35628,7 +35652,7 @@
       <c r="E189" s="35"/>
       <c r="F189" s="19"/>
       <c r="G189" s="19"/>
-      <c r="H189" s="20"/>
+      <c r="H189" s="62"/>
       <c r="I189" s="20"/>
       <c r="J189" s="20"/>
       <c r="K189" s="20"/>
@@ -35655,7 +35679,7 @@
       <c r="E190" s="35"/>
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
-      <c r="H190" s="20"/>
+      <c r="H190" s="62"/>
       <c r="I190" s="20"/>
       <c r="J190" s="20"/>
       <c r="K190" s="20"/>
@@ -35682,7 +35706,7 @@
       <c r="E191" s="35"/>
       <c r="F191" s="19"/>
       <c r="G191" s="19"/>
-      <c r="H191" s="20"/>
+      <c r="H191" s="62"/>
       <c r="I191" s="20"/>
       <c r="J191" s="20"/>
       <c r="K191" s="20"/>
@@ -35709,7 +35733,7 @@
       <c r="E192" s="35"/>
       <c r="F192" s="19"/>
       <c r="G192" s="19"/>
-      <c r="H192" s="20"/>
+      <c r="H192" s="62"/>
       <c r="I192" s="20"/>
       <c r="J192" s="20"/>
       <c r="K192" s="20"/>
@@ -35736,7 +35760,7 @@
       <c r="E193" s="35"/>
       <c r="F193" s="19"/>
       <c r="G193" s="19"/>
-      <c r="H193" s="20"/>
+      <c r="H193" s="62"/>
       <c r="I193" s="20"/>
       <c r="J193" s="20"/>
       <c r="K193" s="20"/>
@@ -35763,7 +35787,7 @@
       <c r="E194" s="35"/>
       <c r="F194" s="19"/>
       <c r="G194" s="19"/>
-      <c r="H194" s="20"/>
+      <c r="H194" s="62"/>
       <c r="I194" s="20"/>
       <c r="J194" s="20"/>
       <c r="K194" s="20"/>
@@ -35790,7 +35814,7 @@
       <c r="E195" s="35"/>
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
-      <c r="H195" s="20"/>
+      <c r="H195" s="62"/>
       <c r="I195" s="20"/>
       <c r="J195" s="20"/>
       <c r="K195" s="20"/>
@@ -35817,7 +35841,7 @@
       <c r="E196" s="35"/>
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
-      <c r="H196" s="20"/>
+      <c r="H196" s="62"/>
       <c r="I196" s="20"/>
       <c r="J196" s="20"/>
       <c r="K196" s="20"/>
@@ -35844,7 +35868,7 @@
       <c r="E197" s="35"/>
       <c r="F197" s="19"/>
       <c r="G197" s="19"/>
-      <c r="H197" s="20"/>
+      <c r="H197" s="62"/>
       <c r="I197" s="20"/>
       <c r="J197" s="20"/>
       <c r="K197" s="20"/>
@@ -35871,7 +35895,7 @@
       <c r="E198" s="35"/>
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
-      <c r="H198" s="20"/>
+      <c r="H198" s="62"/>
       <c r="I198" s="20"/>
       <c r="J198" s="20"/>
       <c r="K198" s="20"/>
@@ -35898,7 +35922,7 @@
       <c r="E199" s="35"/>
       <c r="F199" s="19"/>
       <c r="G199" s="19"/>
-      <c r="H199" s="20"/>
+      <c r="H199" s="62"/>
       <c r="I199" s="20"/>
       <c r="J199" s="20"/>
       <c r="K199" s="20"/>
@@ -35925,7 +35949,7 @@
       <c r="E200" s="35"/>
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
-      <c r="H200" s="20"/>
+      <c r="H200" s="62"/>
       <c r="I200" s="20"/>
       <c r="J200" s="20"/>
       <c r="K200" s="20"/>
@@ -35952,7 +35976,7 @@
       <c r="E201" s="35"/>
       <c r="F201" s="19"/>
       <c r="G201" s="19"/>
-      <c r="H201" s="20"/>
+      <c r="H201" s="62"/>
       <c r="I201" s="20"/>
       <c r="J201" s="20"/>
       <c r="K201" s="20"/>
@@ -35979,7 +36003,7 @@
       <c r="E202" s="35"/>
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
-      <c r="H202" s="20"/>
+      <c r="H202" s="62"/>
       <c r="I202" s="20"/>
       <c r="J202" s="20"/>
       <c r="K202" s="20"/>
@@ -36006,7 +36030,7 @@
       <c r="E203" s="35"/>
       <c r="F203" s="19"/>
       <c r="G203" s="19"/>
-      <c r="H203" s="20"/>
+      <c r="H203" s="62"/>
       <c r="I203" s="20"/>
       <c r="J203" s="20"/>
       <c r="K203" s="20"/>
@@ -36033,7 +36057,7 @@
       <c r="E204" s="35"/>
       <c r="F204" s="19"/>
       <c r="G204" s="19"/>
-      <c r="H204" s="20"/>
+      <c r="H204" s="62"/>
       <c r="I204" s="20"/>
       <c r="J204" s="20"/>
       <c r="K204" s="20"/>
@@ -36060,7 +36084,7 @@
       <c r="E205" s="35"/>
       <c r="F205" s="19"/>
       <c r="G205" s="19"/>
-      <c r="H205" s="20"/>
+      <c r="H205" s="62"/>
       <c r="I205" s="20"/>
       <c r="J205" s="20"/>
       <c r="K205" s="20"/>
@@ -36087,7 +36111,7 @@
       <c r="E206" s="35"/>
       <c r="F206" s="19"/>
       <c r="G206" s="19"/>
-      <c r="H206" s="20"/>
+      <c r="H206" s="62"/>
       <c r="I206" s="20"/>
       <c r="J206" s="20"/>
       <c r="K206" s="20"/>
@@ -36114,7 +36138,7 @@
       <c r="E207" s="35"/>
       <c r="F207" s="19"/>
       <c r="G207" s="19"/>
-      <c r="H207" s="20"/>
+      <c r="H207" s="62"/>
       <c r="I207" s="20"/>
       <c r="J207" s="20"/>
       <c r="K207" s="20"/>
@@ -36141,7 +36165,7 @@
       <c r="E208" s="35"/>
       <c r="F208" s="19"/>
       <c r="G208" s="19"/>
-      <c r="H208" s="20"/>
+      <c r="H208" s="62"/>
       <c r="I208" s="20"/>
       <c r="J208" s="20"/>
       <c r="K208" s="20"/>
@@ -36168,7 +36192,7 @@
       <c r="E209" s="35"/>
       <c r="F209" s="19"/>
       <c r="G209" s="19"/>
-      <c r="H209" s="20"/>
+      <c r="H209" s="62"/>
       <c r="I209" s="20"/>
       <c r="J209" s="20"/>
       <c r="K209" s="20"/>
@@ -36195,7 +36219,7 @@
       <c r="E210" s="35"/>
       <c r="F210" s="19"/>
       <c r="G210" s="19"/>
-      <c r="H210" s="20"/>
+      <c r="H210" s="62"/>
       <c r="I210" s="20"/>
       <c r="J210" s="20"/>
       <c r="K210" s="20"/>
@@ -36222,7 +36246,7 @@
       <c r="E211" s="35"/>
       <c r="F211" s="19"/>
       <c r="G211" s="19"/>
-      <c r="H211" s="20"/>
+      <c r="H211" s="62"/>
       <c r="I211" s="20"/>
       <c r="J211" s="20"/>
       <c r="K211" s="20"/>
@@ -36249,7 +36273,7 @@
       <c r="E212" s="35"/>
       <c r="F212" s="19"/>
       <c r="G212" s="19"/>
-      <c r="H212" s="20"/>
+      <c r="H212" s="62"/>
       <c r="I212" s="20"/>
       <c r="J212" s="20"/>
       <c r="K212" s="20"/>
@@ -36276,7 +36300,7 @@
       <c r="E213" s="35"/>
       <c r="F213" s="19"/>
       <c r="G213" s="19"/>
-      <c r="H213" s="20"/>
+      <c r="H213" s="62"/>
       <c r="I213" s="20"/>
       <c r="J213" s="20"/>
       <c r="K213" s="20"/>
@@ -36303,7 +36327,7 @@
       <c r="E214" s="35"/>
       <c r="F214" s="19"/>
       <c r="G214" s="19"/>
-      <c r="H214" s="20"/>
+      <c r="H214" s="62"/>
       <c r="I214" s="20"/>
       <c r="J214" s="20"/>
       <c r="K214" s="20"/>
@@ -36330,7 +36354,7 @@
       <c r="E215" s="35"/>
       <c r="F215" s="19"/>
       <c r="G215" s="19"/>
-      <c r="H215" s="20"/>
+      <c r="H215" s="62"/>
       <c r="I215" s="20"/>
       <c r="J215" s="20"/>
       <c r="K215" s="20"/>
@@ -36357,7 +36381,7 @@
       <c r="E216" s="35"/>
       <c r="F216" s="19"/>
       <c r="G216" s="19"/>
-      <c r="H216" s="20"/>
+      <c r="H216" s="62"/>
       <c r="I216" s="20"/>
       <c r="J216" s="20"/>
       <c r="K216" s="20"/>
@@ -36384,7 +36408,7 @@
       <c r="E217" s="35"/>
       <c r="F217" s="19"/>
       <c r="G217" s="19"/>
-      <c r="H217" s="20"/>
+      <c r="H217" s="62"/>
       <c r="I217" s="20"/>
       <c r="J217" s="20"/>
       <c r="K217" s="20"/>
@@ -36411,7 +36435,7 @@
       <c r="E218" s="35"/>
       <c r="F218" s="19"/>
       <c r="G218" s="19"/>
-      <c r="H218" s="20"/>
+      <c r="H218" s="62"/>
       <c r="I218" s="20"/>
       <c r="J218" s="20"/>
       <c r="K218" s="20"/>
@@ -36438,7 +36462,7 @@
       <c r="E219" s="35"/>
       <c r="F219" s="19"/>
       <c r="G219" s="19"/>
-      <c r="H219" s="20"/>
+      <c r="H219" s="62"/>
       <c r="I219" s="20"/>
       <c r="J219" s="20"/>
       <c r="K219" s="20"/>
@@ -36465,7 +36489,7 @@
       <c r="E220" s="35"/>
       <c r="F220" s="19"/>
       <c r="G220" s="19"/>
-      <c r="H220" s="20"/>
+      <c r="H220" s="62"/>
       <c r="I220" s="20"/>
       <c r="J220" s="20"/>
       <c r="K220" s="20"/>
@@ -36492,7 +36516,7 @@
       <c r="E221" s="35"/>
       <c r="F221" s="19"/>
       <c r="G221" s="19"/>
-      <c r="H221" s="20"/>
+      <c r="H221" s="62"/>
       <c r="I221" s="20"/>
       <c r="J221" s="20"/>
       <c r="K221" s="20"/>
@@ -36519,7 +36543,7 @@
       <c r="E222" s="35"/>
       <c r="F222" s="19"/>
       <c r="G222" s="19"/>
-      <c r="H222" s="20"/>
+      <c r="H222" s="62"/>
       <c r="I222" s="20"/>
       <c r="J222" s="20"/>
       <c r="K222" s="20"/>
@@ -36546,7 +36570,7 @@
       <c r="E223" s="35"/>
       <c r="F223" s="19"/>
       <c r="G223" s="19"/>
-      <c r="H223" s="20"/>
+      <c r="H223" s="62"/>
       <c r="I223" s="20"/>
       <c r="J223" s="20"/>
       <c r="K223" s="20"/>
@@ -36573,7 +36597,7 @@
       <c r="E224" s="35"/>
       <c r="F224" s="19"/>
       <c r="G224" s="19"/>
-      <c r="H224" s="20"/>
+      <c r="H224" s="62"/>
       <c r="I224" s="20"/>
       <c r="J224" s="20"/>
       <c r="K224" s="20"/>
@@ -36600,7 +36624,7 @@
       <c r="E225" s="35"/>
       <c r="F225" s="19"/>
       <c r="G225" s="19"/>
-      <c r="H225" s="20"/>
+      <c r="H225" s="62"/>
       <c r="I225" s="20"/>
       <c r="J225" s="20"/>
       <c r="K225" s="20"/>
@@ -36627,7 +36651,7 @@
       <c r="E226" s="35"/>
       <c r="F226" s="19"/>
       <c r="G226" s="19"/>
-      <c r="H226" s="20"/>
+      <c r="H226" s="62"/>
       <c r="I226" s="20"/>
       <c r="J226" s="20"/>
       <c r="K226" s="20"/>
@@ -36654,7 +36678,7 @@
       <c r="E227" s="35"/>
       <c r="F227" s="19"/>
       <c r="G227" s="19"/>
-      <c r="H227" s="20"/>
+      <c r="H227" s="62"/>
       <c r="I227" s="20"/>
       <c r="J227" s="20"/>
       <c r="K227" s="20"/>
@@ -36681,7 +36705,7 @@
       <c r="E228" s="35"/>
       <c r="F228" s="19"/>
       <c r="G228" s="19"/>
-      <c r="H228" s="20"/>
+      <c r="H228" s="62"/>
       <c r="I228" s="20"/>
       <c r="J228" s="20"/>
       <c r="K228" s="20"/>
@@ -36708,7 +36732,7 @@
       <c r="E229" s="35"/>
       <c r="F229" s="19"/>
       <c r="G229" s="19"/>
-      <c r="H229" s="20"/>
+      <c r="H229" s="62"/>
       <c r="I229" s="20"/>
       <c r="J229" s="20"/>
       <c r="K229" s="20"/>
@@ -36735,7 +36759,7 @@
       <c r="E230" s="35"/>
       <c r="F230" s="19"/>
       <c r="G230" s="19"/>
-      <c r="H230" s="20"/>
+      <c r="H230" s="62"/>
       <c r="I230" s="20"/>
       <c r="J230" s="20"/>
       <c r="K230" s="20"/>
@@ -36762,7 +36786,7 @@
       <c r="E231" s="35"/>
       <c r="F231" s="19"/>
       <c r="G231" s="19"/>
-      <c r="H231" s="20"/>
+      <c r="H231" s="62"/>
       <c r="I231" s="20"/>
       <c r="J231" s="20"/>
       <c r="K231" s="20"/>
@@ -36789,7 +36813,7 @@
       <c r="E232" s="35"/>
       <c r="F232" s="19"/>
       <c r="G232" s="19"/>
-      <c r="H232" s="20"/>
+      <c r="H232" s="62"/>
       <c r="I232" s="20"/>
       <c r="J232" s="20"/>
       <c r="K232" s="20"/>
@@ -36816,7 +36840,7 @@
       <c r="E233" s="35"/>
       <c r="F233" s="19"/>
       <c r="G233" s="19"/>
-      <c r="H233" s="20"/>
+      <c r="H233" s="62"/>
       <c r="I233" s="20"/>
       <c r="J233" s="20"/>
       <c r="K233" s="20"/>
@@ -36843,7 +36867,7 @@
       <c r="E234" s="35"/>
       <c r="F234" s="19"/>
       <c r="G234" s="19"/>
-      <c r="H234" s="20"/>
+      <c r="H234" s="62"/>
       <c r="I234" s="20"/>
       <c r="J234" s="20"/>
       <c r="K234" s="20"/>
@@ -36870,7 +36894,7 @@
       <c r="E235" s="35"/>
       <c r="F235" s="19"/>
       <c r="G235" s="19"/>
-      <c r="H235" s="20"/>
+      <c r="H235" s="62"/>
       <c r="I235" s="20"/>
       <c r="J235" s="20"/>
       <c r="K235" s="20"/>
@@ -36897,7 +36921,7 @@
       <c r="E236" s="35"/>
       <c r="F236" s="19"/>
       <c r="G236" s="19"/>
-      <c r="H236" s="20"/>
+      <c r="H236" s="62"/>
       <c r="I236" s="20"/>
       <c r="J236" s="20"/>
       <c r="K236" s="20"/>
@@ -36924,7 +36948,7 @@
       <c r="E237" s="35"/>
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
-      <c r="H237" s="20"/>
+      <c r="H237" s="62"/>
       <c r="I237" s="20"/>
       <c r="J237" s="20"/>
       <c r="K237" s="20"/>
@@ -36951,7 +36975,7 @@
       <c r="E238" s="35"/>
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
-      <c r="H238" s="20"/>
+      <c r="H238" s="62"/>
       <c r="I238" s="20"/>
       <c r="J238" s="20"/>
       <c r="K238" s="20"/>
@@ -36978,7 +37002,7 @@
       <c r="E239" s="35"/>
       <c r="F239" s="19"/>
       <c r="G239" s="19"/>
-      <c r="H239" s="20"/>
+      <c r="H239" s="62"/>
       <c r="I239" s="20"/>
       <c r="J239" s="20"/>
       <c r="K239" s="20"/>
@@ -37005,7 +37029,7 @@
       <c r="E240" s="35"/>
       <c r="F240" s="19"/>
       <c r="G240" s="19"/>
-      <c r="H240" s="20"/>
+      <c r="H240" s="62"/>
       <c r="I240" s="20"/>
       <c r="J240" s="20"/>
       <c r="K240" s="20"/>
@@ -37032,7 +37056,7 @@
       <c r="E241" s="35"/>
       <c r="F241" s="19"/>
       <c r="G241" s="19"/>
-      <c r="H241" s="20"/>
+      <c r="H241" s="62"/>
       <c r="I241" s="20"/>
       <c r="J241" s="20"/>
       <c r="K241" s="20"/>
@@ -37059,7 +37083,7 @@
       <c r="E242" s="35"/>
       <c r="F242" s="19"/>
       <c r="G242" s="19"/>
-      <c r="H242" s="20"/>
+      <c r="H242" s="62"/>
       <c r="I242" s="20"/>
       <c r="J242" s="20"/>
       <c r="K242" s="20"/>
@@ -37086,7 +37110,7 @@
       <c r="E243" s="35"/>
       <c r="F243" s="19"/>
       <c r="G243" s="19"/>
-      <c r="H243" s="20"/>
+      <c r="H243" s="62"/>
       <c r="I243" s="20"/>
       <c r="J243" s="20"/>
       <c r="K243" s="20"/>
@@ -37113,7 +37137,7 @@
       <c r="E244" s="35"/>
       <c r="F244" s="19"/>
       <c r="G244" s="19"/>
-      <c r="H244" s="20"/>
+      <c r="H244" s="62"/>
       <c r="I244" s="20"/>
       <c r="J244" s="20"/>
       <c r="K244" s="20"/>
@@ -37140,7 +37164,7 @@
       <c r="E245" s="35"/>
       <c r="F245" s="19"/>
       <c r="G245" s="19"/>
-      <c r="H245" s="20"/>
+      <c r="H245" s="62"/>
       <c r="I245" s="20"/>
       <c r="J245" s="20"/>
       <c r="K245" s="20"/>
@@ -37167,7 +37191,7 @@
       <c r="E246" s="35"/>
       <c r="F246" s="19"/>
       <c r="G246" s="19"/>
-      <c r="H246" s="20"/>
+      <c r="H246" s="62"/>
       <c r="I246" s="20"/>
       <c r="J246" s="20"/>
       <c r="K246" s="20"/>
@@ -37194,7 +37218,7 @@
       <c r="E247" s="35"/>
       <c r="F247" s="19"/>
       <c r="G247" s="19"/>
-      <c r="H247" s="20"/>
+      <c r="H247" s="62"/>
       <c r="I247" s="20"/>
       <c r="J247" s="20"/>
       <c r="K247" s="20"/>
@@ -37221,7 +37245,7 @@
       <c r="E248" s="35"/>
       <c r="F248" s="19"/>
       <c r="G248" s="19"/>
-      <c r="H248" s="20"/>
+      <c r="H248" s="62"/>
       <c r="I248" s="20"/>
       <c r="J248" s="20"/>
       <c r="K248" s="20"/>
@@ -37248,7 +37272,7 @@
       <c r="E249" s="35"/>
       <c r="F249" s="19"/>
       <c r="G249" s="19"/>
-      <c r="H249" s="20"/>
+      <c r="H249" s="62"/>
       <c r="I249" s="20"/>
       <c r="J249" s="20"/>
       <c r="K249" s="20"/>
@@ -37275,7 +37299,7 @@
       <c r="E250" s="35"/>
       <c r="F250" s="19"/>
       <c r="G250" s="19"/>
-      <c r="H250" s="20"/>
+      <c r="H250" s="62"/>
       <c r="I250" s="20"/>
       <c r="J250" s="20"/>
       <c r="K250" s="20"/>
@@ -37302,7 +37326,7 @@
       <c r="E251" s="35"/>
       <c r="F251" s="19"/>
       <c r="G251" s="19"/>
-      <c r="H251" s="20"/>
+      <c r="H251" s="62"/>
       <c r="I251" s="20"/>
       <c r="J251" s="20"/>
       <c r="K251" s="20"/>
@@ -37329,7 +37353,7 @@
       <c r="E252" s="35"/>
       <c r="F252" s="19"/>
       <c r="G252" s="19"/>
-      <c r="H252" s="20"/>
+      <c r="H252" s="62"/>
       <c r="I252" s="20"/>
       <c r="J252" s="20"/>
       <c r="K252" s="20"/>
@@ -37356,7 +37380,7 @@
       <c r="E253" s="35"/>
       <c r="F253" s="19"/>
       <c r="G253" s="19"/>
-      <c r="H253" s="20"/>
+      <c r="H253" s="62"/>
       <c r="I253" s="20"/>
       <c r="J253" s="20"/>
       <c r="K253" s="20"/>
@@ -37383,7 +37407,7 @@
       <c r="E254" s="35"/>
       <c r="F254" s="19"/>
       <c r="G254" s="19"/>
-      <c r="H254" s="20"/>
+      <c r="H254" s="62"/>
       <c r="I254" s="20"/>
       <c r="J254" s="20"/>
       <c r="K254" s="20"/>
@@ -37410,7 +37434,7 @@
       <c r="E255" s="35"/>
       <c r="F255" s="19"/>
       <c r="G255" s="19"/>
-      <c r="H255" s="20"/>
+      <c r="H255" s="62"/>
       <c r="I255" s="20"/>
       <c r="J255" s="20"/>
       <c r="K255" s="20"/>
@@ -37437,7 +37461,7 @@
       <c r="E256" s="35"/>
       <c r="F256" s="19"/>
       <c r="G256" s="19"/>
-      <c r="H256" s="20"/>
+      <c r="H256" s="62"/>
       <c r="I256" s="20"/>
       <c r="J256" s="20"/>
       <c r="K256" s="20"/>
@@ -37464,7 +37488,7 @@
       <c r="E257" s="35"/>
       <c r="F257" s="19"/>
       <c r="G257" s="19"/>
-      <c r="H257" s="20"/>
+      <c r="H257" s="62"/>
       <c r="I257" s="20"/>
       <c r="J257" s="20"/>
       <c r="K257" s="20"/>
@@ -37491,7 +37515,7 @@
       <c r="E258" s="35"/>
       <c r="F258" s="19"/>
       <c r="G258" s="19"/>
-      <c r="H258" s="20"/>
+      <c r="H258" s="62"/>
       <c r="I258" s="20"/>
       <c r="J258" s="20"/>
       <c r="K258" s="20"/>
@@ -37518,7 +37542,7 @@
       <c r="E259" s="35"/>
       <c r="F259" s="19"/>
       <c r="G259" s="19"/>
-      <c r="H259" s="20"/>
+      <c r="H259" s="62"/>
       <c r="I259" s="20"/>
       <c r="J259" s="20"/>
       <c r="K259" s="20"/>
@@ -37545,7 +37569,7 @@
       <c r="E260" s="35"/>
       <c r="F260" s="19"/>
       <c r="G260" s="19"/>
-      <c r="H260" s="20"/>
+      <c r="H260" s="62"/>
       <c r="I260" s="20"/>
       <c r="J260" s="20"/>
       <c r="K260" s="20"/>
@@ -37572,7 +37596,7 @@
       <c r="E261" s="35"/>
       <c r="F261" s="19"/>
       <c r="G261" s="19"/>
-      <c r="H261" s="20"/>
+      <c r="H261" s="62"/>
       <c r="I261" s="20"/>
       <c r="J261" s="20"/>
       <c r="K261" s="20"/>
@@ -37599,7 +37623,7 @@
       <c r="E262" s="35"/>
       <c r="F262" s="19"/>
       <c r="G262" s="19"/>
-      <c r="H262" s="20"/>
+      <c r="H262" s="62"/>
       <c r="I262" s="20"/>
       <c r="J262" s="20"/>
       <c r="K262" s="20"/>
@@ -37626,7 +37650,7 @@
       <c r="E263" s="35"/>
       <c r="F263" s="19"/>
       <c r="G263" s="19"/>
-      <c r="H263" s="20"/>
+      <c r="H263" s="62"/>
       <c r="I263" s="20"/>
       <c r="J263" s="20"/>
       <c r="K263" s="20"/>
@@ -37653,7 +37677,7 @@
       <c r="E264" s="35"/>
       <c r="F264" s="19"/>
       <c r="G264" s="19"/>
-      <c r="H264" s="20"/>
+      <c r="H264" s="62"/>
       <c r="I264" s="20"/>
       <c r="J264" s="20"/>
       <c r="K264" s="20"/>
@@ -37680,7 +37704,7 @@
       <c r="E265" s="35"/>
       <c r="F265" s="19"/>
       <c r="G265" s="19"/>
-      <c r="H265" s="20"/>
+      <c r="H265" s="62"/>
       <c r="I265" s="20"/>
       <c r="J265" s="20"/>
       <c r="K265" s="20"/>
@@ -37707,7 +37731,7 @@
       <c r="E266" s="35"/>
       <c r="F266" s="19"/>
       <c r="G266" s="19"/>
-      <c r="H266" s="20"/>
+      <c r="H266" s="62"/>
       <c r="I266" s="20"/>
       <c r="J266" s="20"/>
       <c r="K266" s="20"/>
@@ -37734,7 +37758,7 @@
       <c r="E267" s="35"/>
       <c r="F267" s="19"/>
       <c r="G267" s="19"/>
-      <c r="H267" s="20"/>
+      <c r="H267" s="62"/>
       <c r="I267" s="20"/>
       <c r="J267" s="20"/>
       <c r="K267" s="20"/>
@@ -37761,7 +37785,7 @@
       <c r="E268" s="35"/>
       <c r="F268" s="19"/>
       <c r="G268" s="19"/>
-      <c r="H268" s="20"/>
+      <c r="H268" s="62"/>
       <c r="I268" s="20"/>
       <c r="J268" s="20"/>
       <c r="K268" s="20"/>
@@ -37788,7 +37812,7 @@
       <c r="E269" s="35"/>
       <c r="F269" s="19"/>
       <c r="G269" s="19"/>
-      <c r="H269" s="20"/>
+      <c r="H269" s="62"/>
       <c r="I269" s="20"/>
       <c r="J269" s="20"/>
       <c r="K269" s="20"/>
@@ -37815,7 +37839,7 @@
       <c r="E270" s="35"/>
       <c r="F270" s="19"/>
       <c r="G270" s="19"/>
-      <c r="H270" s="20"/>
+      <c r="H270" s="62"/>
       <c r="I270" s="20"/>
       <c r="J270" s="20"/>
       <c r="K270" s="20"/>
@@ -37842,7 +37866,7 @@
       <c r="E271" s="35"/>
       <c r="F271" s="19"/>
       <c r="G271" s="19"/>
-      <c r="H271" s="20"/>
+      <c r="H271" s="62"/>
       <c r="I271" s="20"/>
       <c r="J271" s="20"/>
       <c r="K271" s="20"/>
@@ -37869,7 +37893,7 @@
       <c r="E272" s="35"/>
       <c r="F272" s="19"/>
       <c r="G272" s="19"/>
-      <c r="H272" s="20"/>
+      <c r="H272" s="62"/>
       <c r="I272" s="20"/>
       <c r="J272" s="20"/>
       <c r="K272" s="20"/>
@@ -37896,7 +37920,7 @@
       <c r="E273" s="35"/>
       <c r="F273" s="19"/>
       <c r="G273" s="19"/>
-      <c r="H273" s="20"/>
+      <c r="H273" s="62"/>
       <c r="I273" s="20"/>
       <c r="J273" s="20"/>
       <c r="K273" s="20"/>
@@ -37923,7 +37947,7 @@
       <c r="E274" s="35"/>
       <c r="F274" s="19"/>
       <c r="G274" s="19"/>
-      <c r="H274" s="20"/>
+      <c r="H274" s="62"/>
       <c r="I274" s="20"/>
       <c r="J274" s="20"/>
       <c r="K274" s="20"/>
@@ -37950,7 +37974,7 @@
       <c r="E275" s="35"/>
       <c r="F275" s="19"/>
       <c r="G275" s="19"/>
-      <c r="H275" s="20"/>
+      <c r="H275" s="62"/>
       <c r="I275" s="20"/>
       <c r="J275" s="20"/>
       <c r="K275" s="20"/>
@@ -37977,7 +38001,7 @@
       <c r="E276" s="35"/>
       <c r="F276" s="19"/>
       <c r="G276" s="19"/>
-      <c r="H276" s="20"/>
+      <c r="H276" s="62"/>
       <c r="I276" s="20"/>
       <c r="J276" s="20"/>
       <c r="K276" s="20"/>
@@ -38004,7 +38028,7 @@
       <c r="E277" s="35"/>
       <c r="F277" s="19"/>
       <c r="G277" s="19"/>
-      <c r="H277" s="20"/>
+      <c r="H277" s="62"/>
       <c r="I277" s="20"/>
       <c r="J277" s="20"/>
       <c r="K277" s="20"/>
@@ -38031,7 +38055,7 @@
       <c r="E278" s="35"/>
       <c r="F278" s="19"/>
       <c r="G278" s="19"/>
-      <c r="H278" s="20"/>
+      <c r="H278" s="62"/>
       <c r="I278" s="20"/>
       <c r="J278" s="20"/>
       <c r="K278" s="20"/>
@@ -38058,7 +38082,7 @@
       <c r="E279" s="35"/>
       <c r="F279" s="19"/>
       <c r="G279" s="19"/>
-      <c r="H279" s="20"/>
+      <c r="H279" s="62"/>
       <c r="I279" s="20"/>
       <c r="J279" s="20"/>
       <c r="K279" s="20"/>
@@ -38085,7 +38109,7 @@
       <c r="E280" s="35"/>
       <c r="F280" s="19"/>
       <c r="G280" s="19"/>
-      <c r="H280" s="20"/>
+      <c r="H280" s="62"/>
       <c r="I280" s="20"/>
       <c r="J280" s="20"/>
       <c r="K280" s="20"/>
@@ -38112,7 +38136,7 @@
       <c r="E281" s="35"/>
       <c r="F281" s="19"/>
       <c r="G281" s="19"/>
-      <c r="H281" s="20"/>
+      <c r="H281" s="62"/>
       <c r="I281" s="20"/>
       <c r="J281" s="20"/>
       <c r="K281" s="20"/>
@@ -38139,7 +38163,7 @@
       <c r="E282" s="35"/>
       <c r="F282" s="19"/>
       <c r="G282" s="19"/>
-      <c r="H282" s="20"/>
+      <c r="H282" s="62"/>
       <c r="I282" s="20"/>
       <c r="J282" s="20"/>
       <c r="K282" s="20"/>
@@ -38166,7 +38190,7 @@
       <c r="E283" s="35"/>
       <c r="F283" s="19"/>
       <c r="G283" s="19"/>
-      <c r="H283" s="20"/>
+      <c r="H283" s="62"/>
       <c r="I283" s="20"/>
       <c r="J283" s="20"/>
       <c r="K283" s="20"/>
@@ -38193,7 +38217,7 @@
       <c r="E284" s="35"/>
       <c r="F284" s="19"/>
       <c r="G284" s="19"/>
-      <c r="H284" s="20"/>
+      <c r="H284" s="62"/>
       <c r="I284" s="20"/>
       <c r="J284" s="20"/>
       <c r="K284" s="20"/>
@@ -38220,7 +38244,7 @@
       <c r="E285" s="35"/>
       <c r="F285" s="19"/>
       <c r="G285" s="19"/>
-      <c r="H285" s="20"/>
+      <c r="H285" s="62"/>
       <c r="I285" s="20"/>
       <c r="J285" s="20"/>
       <c r="K285" s="20"/>
@@ -38247,7 +38271,7 @@
       <c r="E286" s="35"/>
       <c r="F286" s="19"/>
       <c r="G286" s="19"/>
-      <c r="H286" s="20"/>
+      <c r="H286" s="62"/>
       <c r="I286" s="20"/>
       <c r="J286" s="20"/>
       <c r="K286" s="20"/>
@@ -38274,7 +38298,7 @@
       <c r="E287" s="35"/>
       <c r="F287" s="19"/>
       <c r="G287" s="19"/>
-      <c r="H287" s="20"/>
+      <c r="H287" s="62"/>
       <c r="I287" s="20"/>
       <c r="J287" s="20"/>
       <c r="K287" s="20"/>
@@ -38301,7 +38325,7 @@
       <c r="E288" s="35"/>
       <c r="F288" s="19"/>
       <c r="G288" s="19"/>
-      <c r="H288" s="20"/>
+      <c r="H288" s="62"/>
       <c r="I288" s="20"/>
       <c r="J288" s="20"/>
       <c r="K288" s="20"/>
@@ -38328,7 +38352,7 @@
       <c r="E289" s="35"/>
       <c r="F289" s="19"/>
       <c r="G289" s="19"/>
-      <c r="H289" s="20"/>
+      <c r="H289" s="62"/>
       <c r="I289" s="20"/>
       <c r="J289" s="20"/>
       <c r="K289" s="20"/>
@@ -38355,7 +38379,7 @@
       <c r="E290" s="35"/>
       <c r="F290" s="19"/>
       <c r="G290" s="19"/>
-      <c r="H290" s="20"/>
+      <c r="H290" s="62"/>
       <c r="I290" s="20"/>
       <c r="J290" s="20"/>
       <c r="K290" s="20"/>
@@ -38382,7 +38406,7 @@
       <c r="E291" s="35"/>
       <c r="F291" s="19"/>
       <c r="G291" s="19"/>
-      <c r="H291" s="20"/>
+      <c r="H291" s="62"/>
       <c r="I291" s="20"/>
       <c r="J291" s="20"/>
       <c r="K291" s="20"/>
@@ -38409,7 +38433,7 @@
       <c r="E292" s="35"/>
       <c r="F292" s="19"/>
       <c r="G292" s="19"/>
-      <c r="H292" s="20"/>
+      <c r="H292" s="62"/>
       <c r="I292" s="20"/>
       <c r="J292" s="20"/>
       <c r="K292" s="20"/>
@@ -38436,7 +38460,7 @@
       <c r="E293" s="35"/>
       <c r="F293" s="19"/>
       <c r="G293" s="19"/>
-      <c r="H293" s="20"/>
+      <c r="H293" s="62"/>
       <c r="I293" s="20"/>
       <c r="J293" s="20"/>
       <c r="K293" s="20"/>
@@ -38463,7 +38487,7 @@
       <c r="E294" s="35"/>
       <c r="F294" s="19"/>
       <c r="G294" s="19"/>
-      <c r="H294" s="20"/>
+      <c r="H294" s="62"/>
       <c r="I294" s="20"/>
       <c r="J294" s="20"/>
       <c r="K294" s="20"/>
@@ -38490,7 +38514,7 @@
       <c r="E295" s="35"/>
       <c r="F295" s="19"/>
       <c r="G295" s="19"/>
-      <c r="H295" s="20"/>
+      <c r="H295" s="62"/>
       <c r="I295" s="20"/>
       <c r="J295" s="20"/>
       <c r="K295" s="20"/>
@@ -38517,7 +38541,7 @@
       <c r="E296" s="35"/>
       <c r="F296" s="19"/>
       <c r="G296" s="19"/>
-      <c r="H296" s="20"/>
+      <c r="H296" s="62"/>
       <c r="I296" s="20"/>
       <c r="J296" s="20"/>
       <c r="K296" s="20"/>
@@ -38544,7 +38568,7 @@
       <c r="E297" s="35"/>
       <c r="F297" s="19"/>
       <c r="G297" s="19"/>
-      <c r="H297" s="20"/>
+      <c r="H297" s="62"/>
       <c r="I297" s="20"/>
       <c r="J297" s="20"/>
       <c r="K297" s="20"/>
@@ -38571,7 +38595,7 @@
       <c r="E298" s="35"/>
       <c r="F298" s="19"/>
       <c r="G298" s="19"/>
-      <c r="H298" s="20"/>
+      <c r="H298" s="62"/>
       <c r="I298" s="20"/>
       <c r="J298" s="20"/>
       <c r="K298" s="20"/>
@@ -38598,7 +38622,7 @@
       <c r="E299" s="35"/>
       <c r="F299" s="19"/>
       <c r="G299" s="19"/>
-      <c r="H299" s="20"/>
+      <c r="H299" s="62"/>
       <c r="I299" s="20"/>
       <c r="J299" s="20"/>
       <c r="K299" s="20"/>
@@ -38625,7 +38649,7 @@
       <c r="E300" s="35"/>
       <c r="F300" s="19"/>
       <c r="G300" s="19"/>
-      <c r="H300" s="20"/>
+      <c r="H300" s="62"/>
       <c r="I300" s="20"/>
       <c r="J300" s="20"/>
       <c r="K300" s="20"/>
@@ -38652,7 +38676,7 @@
       <c r="E301" s="35"/>
       <c r="F301" s="19"/>
       <c r="G301" s="19"/>
-      <c r="H301" s="20"/>
+      <c r="H301" s="62"/>
       <c r="I301" s="20"/>
       <c r="J301" s="20"/>
       <c r="K301" s="20"/>
@@ -38679,7 +38703,7 @@
       <c r="E302" s="35"/>
       <c r="F302" s="19"/>
       <c r="G302" s="19"/>
-      <c r="H302" s="20"/>
+      <c r="H302" s="62"/>
       <c r="I302" s="20"/>
       <c r="J302" s="20"/>
       <c r="K302" s="20"/>
@@ -38706,7 +38730,7 @@
       <c r="E303" s="35"/>
       <c r="F303" s="19"/>
       <c r="G303" s="19"/>
-      <c r="H303" s="20"/>
+      <c r="H303" s="62"/>
       <c r="I303" s="20"/>
       <c r="J303" s="20"/>
       <c r="K303" s="20"/>
@@ -38733,7 +38757,7 @@
       <c r="E304" s="35"/>
       <c r="F304" s="19"/>
       <c r="G304" s="19"/>
-      <c r="H304" s="20"/>
+      <c r="H304" s="62"/>
       <c r="I304" s="20"/>
       <c r="J304" s="20"/>
       <c r="K304" s="20"/>
@@ -38760,7 +38784,7 @@
       <c r="E305" s="35"/>
       <c r="F305" s="19"/>
       <c r="G305" s="19"/>
-      <c r="H305" s="20"/>
+      <c r="H305" s="62"/>
       <c r="I305" s="20"/>
       <c r="J305" s="20"/>
       <c r="K305" s="20"/>
@@ -38787,7 +38811,7 @@
       <c r="E306" s="35"/>
       <c r="F306" s="19"/>
       <c r="G306" s="19"/>
-      <c r="H306" s="20"/>
+      <c r="H306" s="62"/>
       <c r="I306" s="20"/>
       <c r="J306" s="20"/>
       <c r="K306" s="20"/>
@@ -38814,7 +38838,7 @@
       <c r="E307" s="35"/>
       <c r="F307" s="19"/>
       <c r="G307" s="19"/>
-      <c r="H307" s="20"/>
+      <c r="H307" s="62"/>
       <c r="I307" s="20"/>
       <c r="J307" s="20"/>
       <c r="K307" s="20"/>
@@ -38841,7 +38865,7 @@
       <c r="E308" s="35"/>
       <c r="F308" s="19"/>
       <c r="G308" s="19"/>
-      <c r="H308" s="20"/>
+      <c r="H308" s="62"/>
       <c r="I308" s="20"/>
       <c r="J308" s="20"/>
       <c r="K308" s="20"/>
@@ -38868,7 +38892,7 @@
       <c r="E309" s="35"/>
       <c r="F309" s="19"/>
       <c r="G309" s="19"/>
-      <c r="H309" s="20"/>
+      <c r="H309" s="62"/>
       <c r="I309" s="20"/>
       <c r="J309" s="20"/>
       <c r="K309" s="20"/>
@@ -38895,7 +38919,7 @@
       <c r="E310" s="35"/>
       <c r="F310" s="19"/>
       <c r="G310" s="19"/>
-      <c r="H310" s="20"/>
+      <c r="H310" s="62"/>
       <c r="I310" s="20"/>
       <c r="J310" s="20"/>
       <c r="K310" s="20"/>
@@ -38922,7 +38946,7 @@
       <c r="E311" s="35"/>
       <c r="F311" s="19"/>
       <c r="G311" s="19"/>
-      <c r="H311" s="20"/>
+      <c r="H311" s="62"/>
       <c r="I311" s="20"/>
       <c r="J311" s="20"/>
       <c r="K311" s="20"/>
@@ -38949,7 +38973,7 @@
       <c r="E312" s="35"/>
       <c r="F312" s="19"/>
       <c r="G312" s="19"/>
-      <c r="H312" s="20"/>
+      <c r="H312" s="62"/>
       <c r="I312" s="20"/>
       <c r="J312" s="20"/>
       <c r="K312" s="20"/>
@@ -38976,7 +39000,7 @@
       <c r="E313" s="35"/>
       <c r="F313" s="19"/>
       <c r="G313" s="19"/>
-      <c r="H313" s="20"/>
+      <c r="H313" s="62"/>
       <c r="I313" s="20"/>
       <c r="J313" s="20"/>
       <c r="K313" s="20"/>
@@ -39003,7 +39027,7 @@
       <c r="E314" s="35"/>
       <c r="F314" s="19"/>
       <c r="G314" s="19"/>
-      <c r="H314" s="20"/>
+      <c r="H314" s="62"/>
       <c r="I314" s="20"/>
       <c r="J314" s="20"/>
       <c r="K314" s="20"/>
@@ -39030,7 +39054,7 @@
       <c r="E315" s="35"/>
       <c r="F315" s="19"/>
       <c r="G315" s="19"/>
-      <c r="H315" s="20"/>
+      <c r="H315" s="62"/>
       <c r="I315" s="20"/>
       <c r="J315" s="20"/>
       <c r="K315" s="20"/>
@@ -39057,7 +39081,7 @@
       <c r="E316" s="35"/>
       <c r="F316" s="19"/>
       <c r="G316" s="19"/>
-      <c r="H316" s="20"/>
+      <c r="H316" s="62"/>
       <c r="I316" s="20"/>
       <c r="J316" s="20"/>
       <c r="K316" s="20"/>
@@ -39084,7 +39108,7 @@
       <c r="E317" s="35"/>
       <c r="F317" s="19"/>
       <c r="G317" s="19"/>
-      <c r="H317" s="20"/>
+      <c r="H317" s="62"/>
       <c r="I317" s="20"/>
       <c r="J317" s="20"/>
       <c r="K317" s="20"/>
@@ -39111,7 +39135,7 @@
       <c r="E318" s="35"/>
       <c r="F318" s="19"/>
       <c r="G318" s="19"/>
-      <c r="H318" s="20"/>
+      <c r="H318" s="62"/>
       <c r="I318" s="20"/>
       <c r="J318" s="20"/>
       <c r="K318" s="20"/>
@@ -39138,7 +39162,7 @@
       <c r="E319" s="35"/>
       <c r="F319" s="19"/>
       <c r="G319" s="19"/>
-      <c r="H319" s="20"/>
+      <c r="H319" s="62"/>
       <c r="I319" s="20"/>
       <c r="J319" s="20"/>
       <c r="K319" s="20"/>
@@ -39165,7 +39189,7 @@
       <c r="E320" s="35"/>
       <c r="F320" s="19"/>
       <c r="G320" s="19"/>
-      <c r="H320" s="20"/>
+      <c r="H320" s="62"/>
       <c r="I320" s="20"/>
       <c r="J320" s="20"/>
       <c r="K320" s="20"/>
@@ -39192,7 +39216,7 @@
       <c r="E321" s="35"/>
       <c r="F321" s="19"/>
       <c r="G321" s="19"/>
-      <c r="H321" s="20"/>
+      <c r="H321" s="62"/>
       <c r="I321" s="20"/>
       <c r="J321" s="20"/>
       <c r="K321" s="20"/>
@@ -39219,7 +39243,7 @@
       <c r="E322" s="35"/>
       <c r="F322" s="19"/>
       <c r="G322" s="19"/>
-      <c r="H322" s="20"/>
+      <c r="H322" s="62"/>
       <c r="I322" s="20"/>
       <c r="J322" s="20"/>
       <c r="K322" s="20"/>
@@ -39246,7 +39270,7 @@
       <c r="E323" s="35"/>
       <c r="F323" s="19"/>
       <c r="G323" s="19"/>
-      <c r="H323" s="20"/>
+      <c r="H323" s="62"/>
       <c r="I323" s="20"/>
       <c r="J323" s="20"/>
       <c r="K323" s="20"/>
@@ -39273,7 +39297,7 @@
       <c r="E324" s="35"/>
       <c r="F324" s="19"/>
       <c r="G324" s="19"/>
-      <c r="H324" s="20"/>
+      <c r="H324" s="62"/>
       <c r="I324" s="20"/>
       <c r="J324" s="20"/>
       <c r="K324" s="20"/>
@@ -39300,7 +39324,7 @@
       <c r="E325" s="35"/>
       <c r="F325" s="19"/>
       <c r="G325" s="19"/>
-      <c r="H325" s="20"/>
+      <c r="H325" s="62"/>
       <c r="I325" s="20"/>
       <c r="J325" s="20"/>
       <c r="K325" s="20"/>
@@ -39327,7 +39351,7 @@
       <c r="E326" s="35"/>
       <c r="F326" s="19"/>
       <c r="G326" s="19"/>
-      <c r="H326" s="20"/>
+      <c r="H326" s="62"/>
       <c r="I326" s="20"/>
       <c r="J326" s="20"/>
       <c r="K326" s="20"/>
@@ -39354,7 +39378,7 @@
       <c r="E327" s="35"/>
       <c r="F327" s="19"/>
       <c r="G327" s="19"/>
-      <c r="H327" s="20"/>
+      <c r="H327" s="62"/>
       <c r="I327" s="20"/>
       <c r="J327" s="20"/>
       <c r="K327" s="20"/>
@@ -39381,7 +39405,7 @@
       <c r="E328" s="35"/>
       <c r="F328" s="19"/>
       <c r="G328" s="19"/>
-      <c r="H328" s="20"/>
+      <c r="H328" s="62"/>
       <c r="I328" s="20"/>
       <c r="J328" s="20"/>
       <c r="K328" s="20"/>
@@ -39408,7 +39432,7 @@
       <c r="E329" s="35"/>
       <c r="F329" s="19"/>
       <c r="G329" s="19"/>
-      <c r="H329" s="20"/>
+      <c r="H329" s="62"/>
       <c r="I329" s="20"/>
       <c r="J329" s="20"/>
       <c r="K329" s="20"/>
@@ -39435,7 +39459,7 @@
       <c r="E330" s="35"/>
       <c r="F330" s="19"/>
       <c r="G330" s="19"/>
-      <c r="H330" s="20"/>
+      <c r="H330" s="62"/>
       <c r="I330" s="20"/>
       <c r="J330" s="20"/>
       <c r="K330" s="20"/>
@@ -39462,7 +39486,7 @@
       <c r="E331" s="35"/>
       <c r="F331" s="19"/>
       <c r="G331" s="19"/>
-      <c r="H331" s="20"/>
+      <c r="H331" s="62"/>
       <c r="I331" s="20"/>
       <c r="J331" s="20"/>
       <c r="K331" s="20"/>
@@ -39489,7 +39513,7 @@
       <c r="E332" s="35"/>
       <c r="F332" s="19"/>
       <c r="G332" s="19"/>
-      <c r="H332" s="20"/>
+      <c r="H332" s="62"/>
       <c r="I332" s="20"/>
       <c r="J332" s="20"/>
       <c r="K332" s="20"/>
@@ -39516,7 +39540,7 @@
       <c r="E333" s="35"/>
       <c r="F333" s="19"/>
       <c r="G333" s="19"/>
-      <c r="H333" s="20"/>
+      <c r="H333" s="62"/>
       <c r="I333" s="20"/>
       <c r="J333" s="20"/>
       <c r="K333" s="20"/>
@@ -39543,7 +39567,7 @@
       <c r="E334" s="35"/>
       <c r="F334" s="19"/>
       <c r="G334" s="19"/>
-      <c r="H334" s="20"/>
+      <c r="H334" s="62"/>
       <c r="I334" s="20"/>
       <c r="J334" s="20"/>
       <c r="K334" s="20"/>
@@ -39570,7 +39594,7 @@
       <c r="E335" s="35"/>
       <c r="F335" s="19"/>
       <c r="G335" s="19"/>
-      <c r="H335" s="20"/>
+      <c r="H335" s="62"/>
       <c r="I335" s="20"/>
       <c r="J335" s="20"/>
       <c r="K335" s="20"/>
@@ -39597,7 +39621,7 @@
       <c r="E336" s="35"/>
       <c r="F336" s="19"/>
       <c r="G336" s="19"/>
-      <c r="H336" s="20"/>
+      <c r="H336" s="62"/>
       <c r="I336" s="20"/>
       <c r="J336" s="20"/>
       <c r="K336" s="20"/>
@@ -39624,7 +39648,7 @@
       <c r="E337" s="35"/>
       <c r="F337" s="19"/>
       <c r="G337" s="19"/>
-      <c r="H337" s="20"/>
+      <c r="H337" s="62"/>
       <c r="I337" s="20"/>
       <c r="J337" s="20"/>
       <c r="K337" s="20"/>
@@ -39651,7 +39675,7 @@
       <c r="E338" s="35"/>
       <c r="F338" s="19"/>
       <c r="G338" s="19"/>
-      <c r="H338" s="20"/>
+      <c r="H338" s="62"/>
       <c r="I338" s="20"/>
       <c r="J338" s="20"/>
       <c r="K338" s="20"/>
@@ -39678,7 +39702,7 @@
       <c r="E339" s="35"/>
       <c r="F339" s="19"/>
       <c r="G339" s="19"/>
-      <c r="H339" s="20"/>
+      <c r="H339" s="62"/>
       <c r="I339" s="20"/>
       <c r="J339" s="20"/>
       <c r="K339" s="20"/>
@@ -39705,7 +39729,7 @@
       <c r="E340" s="35"/>
       <c r="F340" s="19"/>
       <c r="G340" s="19"/>
-      <c r="H340" s="20"/>
+      <c r="H340" s="62"/>
       <c r="I340" s="20"/>
       <c r="J340" s="20"/>
       <c r="K340" s="20"/>
@@ -39732,7 +39756,7 @@
       <c r="E341" s="35"/>
       <c r="F341" s="19"/>
       <c r="G341" s="19"/>
-      <c r="H341" s="20"/>
+      <c r="H341" s="62"/>
       <c r="I341" s="20"/>
       <c r="J341" s="20"/>
       <c r="K341" s="20"/>
@@ -39759,7 +39783,7 @@
       <c r="E342" s="35"/>
       <c r="F342" s="19"/>
       <c r="G342" s="19"/>
-      <c r="H342" s="20"/>
+      <c r="H342" s="62"/>
       <c r="I342" s="20"/>
       <c r="J342" s="20"/>
       <c r="K342" s="20"/>
@@ -39786,7 +39810,7 @@
       <c r="E343" s="35"/>
       <c r="F343" s="19"/>
       <c r="G343" s="19"/>
-      <c r="H343" s="20"/>
+      <c r="H343" s="62"/>
       <c r="I343" s="20"/>
       <c r="J343" s="20"/>
       <c r="K343" s="20"/>
@@ -39813,7 +39837,7 @@
       <c r="E344" s="35"/>
       <c r="F344" s="19"/>
       <c r="G344" s="19"/>
-      <c r="H344" s="20"/>
+      <c r="H344" s="62"/>
       <c r="I344" s="20"/>
       <c r="J344" s="20"/>
       <c r="K344" s="20"/>
@@ -39840,7 +39864,7 @@
       <c r="E345" s="35"/>
       <c r="F345" s="19"/>
       <c r="G345" s="19"/>
-      <c r="H345" s="20"/>
+      <c r="H345" s="62"/>
       <c r="I345" s="20"/>
       <c r="J345" s="20"/>
       <c r="K345" s="20"/>
@@ -39867,7 +39891,7 @@
       <c r="E346" s="35"/>
       <c r="F346" s="19"/>
       <c r="G346" s="19"/>
-      <c r="H346" s="20"/>
+      <c r="H346" s="62"/>
       <c r="I346" s="20"/>
       <c r="J346" s="20"/>
       <c r="K346" s="20"/>
@@ -39894,7 +39918,7 @@
       <c r="E347" s="35"/>
       <c r="F347" s="19"/>
       <c r="G347" s="19"/>
-      <c r="H347" s="20"/>
+      <c r="H347" s="62"/>
       <c r="I347" s="20"/>
       <c r="J347" s="20"/>
       <c r="K347" s="20"/>
@@ -39921,7 +39945,7 @@
       <c r="E348" s="35"/>
       <c r="F348" s="19"/>
       <c r="G348" s="19"/>
-      <c r="H348" s="20"/>
+      <c r="H348" s="62"/>
       <c r="I348" s="20"/>
       <c r="J348" s="20"/>
       <c r="K348" s="20"/>
@@ -39948,7 +39972,7 @@
       <c r="E349" s="35"/>
       <c r="F349" s="19"/>
       <c r="G349" s="19"/>
-      <c r="H349" s="20"/>
+      <c r="H349" s="62"/>
       <c r="I349" s="20"/>
       <c r="J349" s="20"/>
       <c r="K349" s="20"/>
@@ -39975,7 +39999,7 @@
       <c r="E350" s="35"/>
       <c r="F350" s="19"/>
       <c r="G350" s="19"/>
-      <c r="H350" s="20"/>
+      <c r="H350" s="62"/>
       <c r="I350" s="20"/>
       <c r="J350" s="20"/>
       <c r="K350" s="20"/>
@@ -40002,7 +40026,7 @@
       <c r="E351" s="35"/>
       <c r="F351" s="19"/>
       <c r="G351" s="19"/>
-      <c r="H351" s="20"/>
+      <c r="H351" s="62"/>
       <c r="I351" s="20"/>
       <c r="J351" s="20"/>
       <c r="K351" s="20"/>
@@ -40029,7 +40053,7 @@
       <c r="E352" s="35"/>
       <c r="F352" s="19"/>
       <c r="G352" s="19"/>
-      <c r="H352" s="20"/>
+      <c r="H352" s="62"/>
       <c r="I352" s="20"/>
       <c r="J352" s="20"/>
       <c r="K352" s="20"/>
@@ -40056,7 +40080,7 @@
       <c r="E353" s="35"/>
       <c r="F353" s="19"/>
       <c r="G353" s="19"/>
-      <c r="H353" s="20"/>
+      <c r="H353" s="62"/>
       <c r="I353" s="20"/>
       <c r="J353" s="20"/>
       <c r="K353" s="20"/>
@@ -40083,7 +40107,7 @@
       <c r="E354" s="35"/>
       <c r="F354" s="19"/>
       <c r="G354" s="19"/>
-      <c r="H354" s="20"/>
+      <c r="H354" s="62"/>
       <c r="I354" s="20"/>
       <c r="J354" s="20"/>
       <c r="K354" s="20"/>
@@ -40110,7 +40134,7 @@
       <c r="E355" s="35"/>
       <c r="F355" s="19"/>
       <c r="G355" s="19"/>
-      <c r="H355" s="20"/>
+      <c r="H355" s="62"/>
       <c r="I355" s="20"/>
       <c r="J355" s="20"/>
       <c r="K355" s="20"/>
@@ -40137,7 +40161,7 @@
       <c r="E356" s="35"/>
       <c r="F356" s="19"/>
       <c r="G356" s="19"/>
-      <c r="H356" s="20"/>
+      <c r="H356" s="62"/>
       <c r="I356" s="20"/>
       <c r="J356" s="20"/>
       <c r="K356" s="20"/>
@@ -40164,7 +40188,7 @@
       <c r="E357" s="35"/>
       <c r="F357" s="19"/>
       <c r="G357" s="19"/>
-      <c r="H357" s="20"/>
+      <c r="H357" s="62"/>
       <c r="I357" s="20"/>
       <c r="J357" s="20"/>
       <c r="K357" s="20"/>
@@ -40191,7 +40215,7 @@
       <c r="E358" s="35"/>
       <c r="F358" s="19"/>
       <c r="G358" s="19"/>
-      <c r="H358" s="20"/>
+      <c r="H358" s="62"/>
       <c r="I358" s="20"/>
       <c r="J358" s="20"/>
       <c r="K358" s="20"/>
@@ -40218,7 +40242,7 @@
       <c r="E359" s="35"/>
       <c r="F359" s="19"/>
       <c r="G359" s="19"/>
-      <c r="H359" s="20"/>
+      <c r="H359" s="62"/>
       <c r="I359" s="20"/>
       <c r="J359" s="20"/>
       <c r="K359" s="20"/>
@@ -40245,7 +40269,7 @@
       <c r="E360" s="35"/>
       <c r="F360" s="19"/>
       <c r="G360" s="19"/>
-      <c r="H360" s="20"/>
+      <c r="H360" s="62"/>
       <c r="I360" s="20"/>
       <c r="J360" s="20"/>
       <c r="K360" s="20"/>
@@ -40272,7 +40296,7 @@
       <c r="E361" s="35"/>
       <c r="F361" s="19"/>
       <c r="G361" s="19"/>
-      <c r="H361" s="20"/>
+      <c r="H361" s="62"/>
       <c r="I361" s="20"/>
       <c r="J361" s="20"/>
       <c r="K361" s="20"/>
@@ -40299,7 +40323,7 @@
       <c r="E362" s="35"/>
       <c r="F362" s="19"/>
       <c r="G362" s="19"/>
-      <c r="H362" s="20"/>
+      <c r="H362" s="62"/>
       <c r="I362" s="20"/>
       <c r="J362" s="20"/>
       <c r="K362" s="20"/>
@@ -40326,7 +40350,7 @@
       <c r="E363" s="35"/>
       <c r="F363" s="19"/>
       <c r="G363" s="19"/>
-      <c r="H363" s="20"/>
+      <c r="H363" s="62"/>
       <c r="I363" s="20"/>
       <c r="J363" s="20"/>
       <c r="K363" s="20"/>
@@ -40353,7 +40377,7 @@
       <c r="E364" s="35"/>
       <c r="F364" s="19"/>
       <c r="G364" s="19"/>
-      <c r="H364" s="20"/>
+      <c r="H364" s="62"/>
       <c r="I364" s="20"/>
       <c r="J364" s="20"/>
       <c r="K364" s="20"/>
@@ -40380,7 +40404,7 @@
       <c r="E365" s="35"/>
       <c r="F365" s="19"/>
       <c r="G365" s="19"/>
-      <c r="H365" s="20"/>
+      <c r="H365" s="62"/>
       <c r="I365" s="20"/>
       <c r="J365" s="20"/>
       <c r="K365" s="20"/>
@@ -40407,7 +40431,7 @@
       <c r="E366" s="35"/>
       <c r="F366" s="19"/>
       <c r="G366" s="19"/>
-      <c r="H366" s="20"/>
+      <c r="H366" s="62"/>
       <c r="I366" s="20"/>
       <c r="J366" s="20"/>
       <c r="K366" s="20"/>
@@ -40434,7 +40458,7 @@
       <c r="E367" s="35"/>
       <c r="F367" s="19"/>
       <c r="G367" s="19"/>
-      <c r="H367" s="20"/>
+      <c r="H367" s="62"/>
       <c r="I367" s="20"/>
       <c r="J367" s="20"/>
       <c r="K367" s="20"/>
@@ -40461,7 +40485,7 @@
       <c r="E368" s="35"/>
       <c r="F368" s="19"/>
       <c r="G368" s="19"/>
-      <c r="H368" s="20"/>
+      <c r="H368" s="62"/>
       <c r="I368" s="20"/>
       <c r="J368" s="20"/>
       <c r="K368" s="20"/>
@@ -40488,7 +40512,7 @@
       <c r="E369" s="35"/>
       <c r="F369" s="19"/>
       <c r="G369" s="19"/>
-      <c r="H369" s="20"/>
+      <c r="H369" s="62"/>
       <c r="I369" s="20"/>
       <c r="J369" s="20"/>
       <c r="K369" s="20"/>
@@ -40515,7 +40539,7 @@
       <c r="E370" s="35"/>
       <c r="F370" s="19"/>
       <c r="G370" s="19"/>
-      <c r="H370" s="20"/>
+      <c r="H370" s="62"/>
       <c r="I370" s="20"/>
       <c r="J370" s="20"/>
       <c r="K370" s="20"/>
@@ -40542,7 +40566,7 @@
       <c r="E371" s="35"/>
       <c r="F371" s="19"/>
       <c r="G371" s="19"/>
-      <c r="H371" s="20"/>
+      <c r="H371" s="62"/>
       <c r="I371" s="20"/>
       <c r="J371" s="20"/>
       <c r="K371" s="20"/>
@@ -40569,7 +40593,7 @@
       <c r="E372" s="35"/>
       <c r="F372" s="19"/>
       <c r="G372" s="19"/>
-      <c r="H372" s="20"/>
+      <c r="H372" s="62"/>
       <c r="I372" s="20"/>
       <c r="J372" s="20"/>
       <c r="K372" s="20"/>
@@ -40596,7 +40620,7 @@
       <c r="E373" s="35"/>
       <c r="F373" s="19"/>
       <c r="G373" s="19"/>
-      <c r="H373" s="20"/>
+      <c r="H373" s="62"/>
       <c r="I373" s="20"/>
       <c r="J373" s="20"/>
       <c r="K373" s="20"/>
@@ -40623,7 +40647,7 @@
       <c r="E374" s="35"/>
       <c r="F374" s="19"/>
       <c r="G374" s="19"/>
-      <c r="H374" s="20"/>
+      <c r="H374" s="62"/>
       <c r="I374" s="20"/>
       <c r="J374" s="20"/>
       <c r="K374" s="20"/>
@@ -40650,7 +40674,7 @@
       <c r="E375" s="35"/>
       <c r="F375" s="19"/>
       <c r="G375" s="19"/>
-      <c r="H375" s="20"/>
+      <c r="H375" s="62"/>
       <c r="I375" s="20"/>
       <c r="J375" s="20"/>
       <c r="K375" s="20"/>
@@ -40677,7 +40701,7 @@
       <c r="E376" s="35"/>
       <c r="F376" s="19"/>
       <c r="G376" s="19"/>
-      <c r="H376" s="20"/>
+      <c r="H376" s="62"/>
       <c r="I376" s="20"/>
       <c r="J376" s="20"/>
       <c r="K376" s="20"/>
@@ -40704,7 +40728,7 @@
       <c r="E377" s="35"/>
       <c r="F377" s="19"/>
       <c r="G377" s="19"/>
-      <c r="H377" s="20"/>
+      <c r="H377" s="62"/>
       <c r="I377" s="20"/>
       <c r="J377" s="20"/>
       <c r="K377" s="20"/>
@@ -40731,7 +40755,7 @@
       <c r="E378" s="35"/>
       <c r="F378" s="19"/>
       <c r="G378" s="19"/>
-      <c r="H378" s="20"/>
+      <c r="H378" s="62"/>
       <c r="I378" s="20"/>
       <c r="J378" s="20"/>
       <c r="K378" s="20"/>
@@ -40758,7 +40782,7 @@
       <c r="E379" s="35"/>
       <c r="F379" s="19"/>
       <c r="G379" s="19"/>
-      <c r="H379" s="20"/>
+      <c r="H379" s="62"/>
       <c r="I379" s="20"/>
       <c r="J379" s="20"/>
       <c r="K379" s="20"/>
@@ -40785,7 +40809,7 @@
       <c r="E380" s="35"/>
       <c r="F380" s="19"/>
       <c r="G380" s="19"/>
-      <c r="H380" s="20"/>
+      <c r="H380" s="62"/>
       <c r="I380" s="20"/>
       <c r="J380" s="20"/>
       <c r="K380" s="20"/>
@@ -40812,7 +40836,7 @@
       <c r="E381" s="35"/>
       <c r="F381" s="19"/>
       <c r="G381" s="19"/>
-      <c r="H381" s="20"/>
+      <c r="H381" s="62"/>
       <c r="I381" s="20"/>
       <c r="J381" s="20"/>
       <c r="K381" s="20"/>
@@ -40839,7 +40863,7 @@
       <c r="E382" s="35"/>
       <c r="F382" s="19"/>
       <c r="G382" s="19"/>
-      <c r="H382" s="20"/>
+      <c r="H382" s="62"/>
       <c r="I382" s="20"/>
       <c r="J382" s="20"/>
       <c r="K382" s="20"/>
@@ -40866,7 +40890,7 @@
       <c r="E383" s="35"/>
       <c r="F383" s="19"/>
       <c r="G383" s="19"/>
-      <c r="H383" s="20"/>
+      <c r="H383" s="62"/>
       <c r="I383" s="20"/>
       <c r="J383" s="20"/>
       <c r="K383" s="20"/>
@@ -40893,7 +40917,7 @@
       <c r="E384" s="35"/>
       <c r="F384" s="19"/>
       <c r="G384" s="19"/>
-      <c r="H384" s="20"/>
+      <c r="H384" s="62"/>
       <c r="I384" s="20"/>
       <c r="J384" s="20"/>
       <c r="K384" s="20"/>
@@ -40920,7 +40944,7 @@
       <c r="E385" s="35"/>
       <c r="F385" s="19"/>
       <c r="G385" s="19"/>
-      <c r="H385" s="20"/>
+      <c r="H385" s="62"/>
       <c r="I385" s="20"/>
       <c r="J385" s="20"/>
       <c r="K385" s="20"/>
@@ -40947,7 +40971,7 @@
       <c r="E386" s="35"/>
       <c r="F386" s="19"/>
       <c r="G386" s="19"/>
-      <c r="H386" s="20"/>
+      <c r="H386" s="62"/>
       <c r="I386" s="20"/>
       <c r="J386" s="20"/>
       <c r="K386" s="20"/>
@@ -40974,7 +40998,7 @@
       <c r="E387" s="35"/>
       <c r="F387" s="19"/>
       <c r="G387" s="19"/>
-      <c r="H387" s="20"/>
+      <c r="H387" s="62"/>
       <c r="I387" s="20"/>
       <c r="J387" s="20"/>
       <c r="K387" s="20"/>
@@ -41001,7 +41025,7 @@
       <c r="E388" s="35"/>
       <c r="F388" s="19"/>
       <c r="G388" s="19"/>
-      <c r="H388" s="20"/>
+      <c r="H388" s="62"/>
       <c r="I388" s="20"/>
       <c r="J388" s="20"/>
       <c r="K388" s="20"/>
@@ -41028,7 +41052,7 @@
       <c r="E389" s="35"/>
       <c r="F389" s="19"/>
       <c r="G389" s="19"/>
-      <c r="H389" s="20"/>
+      <c r="H389" s="62"/>
       <c r="I389" s="20"/>
       <c r="J389" s="20"/>
       <c r="K389" s="20"/>
@@ -41055,7 +41079,7 @@
       <c r="E390" s="35"/>
       <c r="F390" s="19"/>
       <c r="G390" s="19"/>
-      <c r="H390" s="20"/>
+      <c r="H390" s="62"/>
       <c r="I390" s="20"/>
       <c r="J390" s="20"/>
       <c r="K390" s="20"/>
@@ -41082,7 +41106,7 @@
       <c r="E391" s="35"/>
       <c r="F391" s="19"/>
       <c r="G391" s="19"/>
-      <c r="H391" s="20"/>
+      <c r="H391" s="62"/>
       <c r="I391" s="20"/>
       <c r="J391" s="20"/>
       <c r="K391" s="20"/>
@@ -41109,7 +41133,7 @@
       <c r="E392" s="35"/>
       <c r="F392" s="19"/>
       <c r="G392" s="19"/>
-      <c r="H392" s="20"/>
+      <c r="H392" s="62"/>
       <c r="I392" s="20"/>
       <c r="J392" s="20"/>
       <c r="K392" s="20"/>
@@ -41136,7 +41160,7 @@
       <c r="E393" s="35"/>
       <c r="F393" s="19"/>
       <c r="G393" s="19"/>
-      <c r="H393" s="20"/>
+      <c r="H393" s="62"/>
       <c r="I393" s="20"/>
       <c r="J393" s="20"/>
       <c r="K393" s="20"/>
@@ -41163,7 +41187,7 @@
       <c r="E394" s="35"/>
       <c r="F394" s="19"/>
       <c r="G394" s="19"/>
-      <c r="H394" s="20"/>
+      <c r="H394" s="62"/>
       <c r="I394" s="20"/>
       <c r="J394" s="20"/>
       <c r="K394" s="20"/>
@@ -41190,7 +41214,7 @@
       <c r="E395" s="35"/>
       <c r="F395" s="19"/>
       <c r="G395" s="19"/>
-      <c r="H395" s="20"/>
+      <c r="H395" s="62"/>
       <c r="I395" s="20"/>
       <c r="J395" s="20"/>
       <c r="K395" s="20"/>
@@ -41217,7 +41241,7 @@
       <c r="E396" s="35"/>
       <c r="F396" s="19"/>
       <c r="G396" s="19"/>
-      <c r="H396" s="20"/>
+      <c r="H396" s="62"/>
       <c r="I396" s="20"/>
       <c r="J396" s="20"/>
       <c r="K396" s="20"/>
@@ -41244,7 +41268,7 @@
       <c r="E397" s="35"/>
       <c r="F397" s="19"/>
       <c r="G397" s="19"/>
-      <c r="H397" s="20"/>
+      <c r="H397" s="62"/>
       <c r="I397" s="20"/>
       <c r="J397" s="20"/>
       <c r="K397" s="20"/>
@@ -41271,7 +41295,7 @@
       <c r="E398" s="35"/>
       <c r="F398" s="19"/>
       <c r="G398" s="19"/>
-      <c r="H398" s="20"/>
+      <c r="H398" s="62"/>
       <c r="I398" s="20"/>
       <c r="J398" s="20"/>
       <c r="K398" s="20"/>
@@ -41298,7 +41322,7 @@
       <c r="E399" s="35"/>
       <c r="F399" s="19"/>
       <c r="G399" s="19"/>
-      <c r="H399" s="20"/>
+      <c r="H399" s="62"/>
       <c r="I399" s="20"/>
       <c r="J399" s="20"/>
       <c r="K399" s="20"/>
@@ -41325,7 +41349,7 @@
       <c r="E400" s="35"/>
       <c r="F400" s="19"/>
       <c r="G400" s="19"/>
-      <c r="H400" s="20"/>
+      <c r="H400" s="62"/>
       <c r="I400" s="20"/>
       <c r="J400" s="20"/>
       <c r="K400" s="20"/>
@@ -41352,7 +41376,7 @@
       <c r="E401" s="35"/>
       <c r="F401" s="19"/>
       <c r="G401" s="19"/>
-      <c r="H401" s="20"/>
+      <c r="H401" s="62"/>
       <c r="I401" s="20"/>
       <c r="J401" s="20"/>
       <c r="K401" s="20"/>
@@ -41379,7 +41403,7 @@
       <c r="E402" s="35"/>
       <c r="F402" s="19"/>
       <c r="G402" s="19"/>
-      <c r="H402" s="20"/>
+      <c r="H402" s="62"/>
       <c r="I402" s="20"/>
       <c r="J402" s="20"/>
       <c r="K402" s="20"/>
@@ -41406,7 +41430,7 @@
       <c r="E403" s="35"/>
       <c r="F403" s="19"/>
       <c r="G403" s="19"/>
-      <c r="H403" s="20"/>
+      <c r="H403" s="62"/>
       <c r="I403" s="20"/>
       <c r="J403" s="20"/>
       <c r="K403" s="20"/>
@@ -41433,7 +41457,7 @@
       <c r="E404" s="35"/>
       <c r="F404" s="19"/>
       <c r="G404" s="19"/>
-      <c r="H404" s="20"/>
+      <c r="H404" s="62"/>
       <c r="I404" s="20"/>
       <c r="J404" s="20"/>
       <c r="K404" s="20"/>
@@ -41460,7 +41484,7 @@
       <c r="E405" s="35"/>
       <c r="F405" s="19"/>
       <c r="G405" s="19"/>
-      <c r="H405" s="20"/>
+      <c r="H405" s="62"/>
       <c r="I405" s="20"/>
       <c r="J405" s="20"/>
       <c r="K405" s="20"/>
@@ -41487,7 +41511,7 @@
       <c r="E406" s="35"/>
       <c r="F406" s="19"/>
       <c r="G406" s="19"/>
-      <c r="H406" s="20"/>
+      <c r="H406" s="62"/>
       <c r="I406" s="20"/>
       <c r="J406" s="20"/>
       <c r="K406" s="20"/>
@@ -41514,7 +41538,7 @@
       <c r="E407" s="35"/>
       <c r="F407" s="19"/>
       <c r="G407" s="19"/>
-      <c r="H407" s="20"/>
+      <c r="H407" s="62"/>
       <c r="I407" s="20"/>
       <c r="J407" s="20"/>
       <c r="K407" s="20"/>
@@ -41541,7 +41565,7 @@
       <c r="E408" s="35"/>
       <c r="F408" s="19"/>
       <c r="G408" s="19"/>
-      <c r="H408" s="20"/>
+      <c r="H408" s="62"/>
       <c r="I408" s="20"/>
       <c r="J408" s="20"/>
       <c r="K408" s="20"/>
@@ -41568,7 +41592,7 @@
       <c r="E409" s="35"/>
       <c r="F409" s="19"/>
       <c r="G409" s="19"/>
-      <c r="H409" s="20"/>
+      <c r="H409" s="62"/>
       <c r="I409" s="20"/>
       <c r="J409" s="20"/>
       <c r="K409" s="20"/>
@@ -41595,7 +41619,7 @@
       <c r="E410" s="35"/>
       <c r="F410" s="19"/>
       <c r="G410" s="19"/>
-      <c r="H410" s="20"/>
+      <c r="H410" s="62"/>
       <c r="I410" s="20"/>
       <c r="J410" s="20"/>
       <c r="K410" s="20"/>
@@ -41622,7 +41646,7 @@
       <c r="E411" s="35"/>
       <c r="F411" s="19"/>
       <c r="G411" s="19"/>
-      <c r="H411" s="20"/>
+      <c r="H411" s="62"/>
       <c r="I411" s="20"/>
       <c r="J411" s="20"/>
       <c r="K411" s="20"/>
@@ -41649,7 +41673,7 @@
       <c r="E412" s="35"/>
       <c r="F412" s="19"/>
       <c r="G412" s="19"/>
-      <c r="H412" s="20"/>
+      <c r="H412" s="62"/>
       <c r="I412" s="20"/>
       <c r="J412" s="20"/>
       <c r="K412" s="20"/>
@@ -41676,7 +41700,7 @@
       <c r="E413" s="35"/>
       <c r="F413" s="19"/>
       <c r="G413" s="19"/>
-      <c r="H413" s="20"/>
+      <c r="H413" s="62"/>
       <c r="I413" s="20"/>
       <c r="J413" s="20"/>
       <c r="K413" s="20"/>
@@ -41703,7 +41727,7 @@
       <c r="E414" s="35"/>
       <c r="F414" s="19"/>
       <c r="G414" s="19"/>
-      <c r="H414" s="20"/>
+      <c r="H414" s="62"/>
       <c r="I414" s="20"/>
       <c r="J414" s="20"/>
       <c r="K414" s="20"/>
@@ -41730,7 +41754,7 @@
       <c r="E415" s="35"/>
       <c r="F415" s="19"/>
       <c r="G415" s="19"/>
-      <c r="H415" s="20"/>
+      <c r="H415" s="62"/>
       <c r="I415" s="20"/>
       <c r="J415" s="20"/>
       <c r="K415" s="20"/>
@@ -41757,7 +41781,7 @@
       <c r="E416" s="35"/>
       <c r="F416" s="19"/>
       <c r="G416" s="19"/>
-      <c r="H416" s="20"/>
+      <c r="H416" s="62"/>
       <c r="I416" s="20"/>
       <c r="J416" s="20"/>
       <c r="K416" s="20"/>
@@ -41784,7 +41808,7 @@
       <c r="E417" s="35"/>
       <c r="F417" s="19"/>
       <c r="G417" s="19"/>
-      <c r="H417" s="20"/>
+      <c r="H417" s="62"/>
       <c r="I417" s="20"/>
       <c r="J417" s="20"/>
       <c r="K417" s="20"/>
@@ -41811,7 +41835,7 @@
       <c r="E418" s="35"/>
       <c r="F418" s="19"/>
       <c r="G418" s="19"/>
-      <c r="H418" s="20"/>
+      <c r="H418" s="62"/>
       <c r="I418" s="20"/>
       <c r="J418" s="20"/>
       <c r="K418" s="20"/>
@@ -41838,7 +41862,7 @@
       <c r="E419" s="35"/>
       <c r="F419" s="19"/>
       <c r="G419" s="19"/>
-      <c r="H419" s="20"/>
+      <c r="H419" s="62"/>
       <c r="I419" s="20"/>
       <c r="J419" s="20"/>
       <c r="K419" s="20"/>
@@ -41865,7 +41889,7 @@
       <c r="E420" s="35"/>
       <c r="F420" s="19"/>
       <c r="G420" s="19"/>
-      <c r="H420" s="20"/>
+      <c r="H420" s="62"/>
       <c r="I420" s="20"/>
       <c r="J420" s="20"/>
       <c r="K420" s="20"/>
@@ -41892,7 +41916,7 @@
       <c r="E421" s="35"/>
       <c r="F421" s="19"/>
       <c r="G421" s="19"/>
-      <c r="H421" s="20"/>
+      <c r="H421" s="62"/>
       <c r="I421" s="20"/>
       <c r="J421" s="20"/>
       <c r="K421" s="20"/>
@@ -41919,7 +41943,7 @@
       <c r="E422" s="35"/>
       <c r="F422" s="19"/>
       <c r="G422" s="19"/>
-      <c r="H422" s="20"/>
+      <c r="H422" s="62"/>
       <c r="I422" s="20"/>
       <c r="J422" s="20"/>
       <c r="K422" s="20"/>
@@ -41946,7 +41970,7 @@
       <c r="E423" s="35"/>
       <c r="F423" s="19"/>
       <c r="G423" s="19"/>
-      <c r="H423" s="20"/>
+      <c r="H423" s="62"/>
       <c r="I423" s="20"/>
       <c r="J423" s="20"/>
       <c r="K423" s="20"/>
@@ -41973,7 +41997,7 @@
       <c r="E424" s="35"/>
       <c r="F424" s="19"/>
       <c r="G424" s="19"/>
-      <c r="H424" s="20"/>
+      <c r="H424" s="62"/>
       <c r="I424" s="20"/>
       <c r="J424" s="20"/>
       <c r="K424" s="20"/>
@@ -42000,7 +42024,7 @@
       <c r="E425" s="35"/>
       <c r="F425" s="19"/>
       <c r="G425" s="19"/>
-      <c r="H425" s="20"/>
+      <c r="H425" s="62"/>
       <c r="I425" s="20"/>
       <c r="J425" s="20"/>
       <c r="K425" s="20"/>
@@ -42027,7 +42051,7 @@
       <c r="E426" s="35"/>
       <c r="F426" s="19"/>
       <c r="G426" s="19"/>
-      <c r="H426" s="20"/>
+      <c r="H426" s="62"/>
       <c r="I426" s="20"/>
       <c r="J426" s="20"/>
       <c r="K426" s="20"/>
@@ -42054,7 +42078,7 @@
       <c r="E427" s="35"/>
       <c r="F427" s="19"/>
       <c r="G427" s="19"/>
-      <c r="H427" s="20"/>
+      <c r="H427" s="62"/>
       <c r="I427" s="20"/>
       <c r="J427" s="20"/>
       <c r="K427" s="20"/>
@@ -42081,7 +42105,7 @@
       <c r="E428" s="35"/>
       <c r="F428" s="19"/>
       <c r="G428" s="19"/>
-      <c r="H428" s="20"/>
+      <c r="H428" s="62"/>
       <c r="I428" s="20"/>
       <c r="J428" s="20"/>
       <c r="K428" s="20"/>
@@ -42108,7 +42132,7 @@
       <c r="E429" s="35"/>
       <c r="F429" s="19"/>
       <c r="G429" s="19"/>
-      <c r="H429" s="20"/>
+      <c r="H429" s="62"/>
       <c r="I429" s="20"/>
       <c r="J429" s="20"/>
       <c r="K429" s="20"/>
@@ -42135,7 +42159,7 @@
       <c r="E430" s="35"/>
       <c r="F430" s="19"/>
       <c r="G430" s="19"/>
-      <c r="H430" s="20"/>
+      <c r="H430" s="62"/>
       <c r="I430" s="20"/>
       <c r="J430" s="20"/>
       <c r="K430" s="20"/>
@@ -42162,7 +42186,7 @@
       <c r="E431" s="35"/>
       <c r="F431" s="19"/>
       <c r="G431" s="19"/>
-      <c r="H431" s="20"/>
+      <c r="H431" s="62"/>
       <c r="I431" s="20"/>
       <c r="J431" s="20"/>
       <c r="K431" s="20"/>
@@ -42189,7 +42213,7 @@
       <c r="E432" s="35"/>
       <c r="F432" s="19"/>
       <c r="G432" s="19"/>
-      <c r="H432" s="20"/>
+      <c r="H432" s="62"/>
       <c r="I432" s="20"/>
       <c r="J432" s="20"/>
       <c r="K432" s="20"/>
@@ -42216,7 +42240,7 @@
       <c r="E433" s="35"/>
       <c r="F433" s="19"/>
       <c r="G433" s="19"/>
-      <c r="H433" s="20"/>
+      <c r="H433" s="62"/>
       <c r="I433" s="20"/>
       <c r="J433" s="20"/>
       <c r="K433" s="20"/>
@@ -42243,7 +42267,7 @@
       <c r="E434" s="35"/>
       <c r="F434" s="19"/>
       <c r="G434" s="19"/>
-      <c r="H434" s="20"/>
+      <c r="H434" s="62"/>
       <c r="I434" s="20"/>
       <c r="J434" s="20"/>
       <c r="K434" s="20"/>
@@ -42270,7 +42294,7 @@
       <c r="E435" s="35"/>
       <c r="F435" s="19"/>
       <c r="G435" s="19"/>
-      <c r="H435" s="20"/>
+      <c r="H435" s="62"/>
       <c r="I435" s="20"/>
       <c r="J435" s="20"/>
       <c r="K435" s="20"/>
@@ -42297,7 +42321,7 @@
       <c r="E436" s="35"/>
       <c r="F436" s="19"/>
       <c r="G436" s="19"/>
-      <c r="H436" s="20"/>
+      <c r="H436" s="62"/>
       <c r="I436" s="20"/>
       <c r="J436" s="20"/>
       <c r="K436" s="20"/>
@@ -42324,7 +42348,7 @@
       <c r="E437" s="35"/>
       <c r="F437" s="19"/>
       <c r="G437" s="19"/>
-      <c r="H437" s="20"/>
+      <c r="H437" s="62"/>
       <c r="I437" s="20"/>
       <c r="J437" s="20"/>
       <c r="K437" s="20"/>
@@ -42351,7 +42375,7 @@
       <c r="E438" s="35"/>
       <c r="F438" s="19"/>
       <c r="G438" s="19"/>
-      <c r="H438" s="20"/>
+      <c r="H438" s="62"/>
       <c r="I438" s="20"/>
       <c r="J438" s="20"/>
       <c r="K438" s="20"/>
@@ -42378,7 +42402,7 @@
       <c r="E439" s="35"/>
       <c r="F439" s="19"/>
       <c r="G439" s="19"/>
-      <c r="H439" s="20"/>
+      <c r="H439" s="62"/>
       <c r="I439" s="20"/>
       <c r="J439" s="20"/>
       <c r="K439" s="20"/>
@@ -42405,7 +42429,7 @@
       <c r="E440" s="35"/>
       <c r="F440" s="19"/>
       <c r="G440" s="19"/>
-      <c r="H440" s="20"/>
+      <c r="H440" s="62"/>
       <c r="I440" s="20"/>
       <c r="J440" s="20"/>
       <c r="K440" s="20"/>
@@ -42432,7 +42456,7 @@
       <c r="E441" s="35"/>
       <c r="F441" s="19"/>
       <c r="G441" s="19"/>
-      <c r="H441" s="20"/>
+      <c r="H441" s="62"/>
       <c r="I441" s="20"/>
       <c r="J441" s="20"/>
       <c r="K441" s="20"/>
@@ -42459,7 +42483,7 @@
       <c r="E442" s="35"/>
       <c r="F442" s="19"/>
       <c r="G442" s="19"/>
-      <c r="H442" s="20"/>
+      <c r="H442" s="62"/>
       <c r="I442" s="20"/>
       <c r="J442" s="20"/>
       <c r="K442" s="20"/>
@@ -42486,7 +42510,7 @@
       <c r="E443" s="35"/>
       <c r="F443" s="19"/>
       <c r="G443" s="19"/>
-      <c r="H443" s="20"/>
+      <c r="H443" s="62"/>
       <c r="I443" s="20"/>
       <c r="J443" s="20"/>
       <c r="K443" s="20"/>
@@ -42513,7 +42537,7 @@
       <c r="E444" s="35"/>
       <c r="F444" s="19"/>
       <c r="G444" s="19"/>
-      <c r="H444" s="20"/>
+      <c r="H444" s="62"/>
       <c r="I444" s="20"/>
       <c r="J444" s="20"/>
       <c r="K444" s="20"/>
@@ -42540,7 +42564,7 @@
       <c r="E445" s="35"/>
       <c r="F445" s="19"/>
       <c r="G445" s="19"/>
-      <c r="H445" s="20"/>
+      <c r="H445" s="62"/>
       <c r="I445" s="20"/>
       <c r="J445" s="20"/>
       <c r="K445" s="20"/>
@@ -42567,7 +42591,7 @@
       <c r="E446" s="35"/>
       <c r="F446" s="19"/>
       <c r="G446" s="19"/>
-      <c r="H446" s="20"/>
+      <c r="H446" s="62"/>
       <c r="I446" s="20"/>
       <c r="J446" s="20"/>
       <c r="K446" s="20"/>
@@ -42594,7 +42618,7 @@
       <c r="E447" s="35"/>
       <c r="F447" s="19"/>
       <c r="G447" s="19"/>
-      <c r="H447" s="20"/>
+      <c r="H447" s="62"/>
       <c r="I447" s="20"/>
       <c r="J447" s="20"/>
       <c r="K447" s="20"/>
@@ -42621,7 +42645,7 @@
       <c r="E448" s="35"/>
       <c r="F448" s="19"/>
       <c r="G448" s="19"/>
-      <c r="H448" s="20"/>
+      <c r="H448" s="62"/>
       <c r="I448" s="20"/>
       <c r="J448" s="20"/>
       <c r="K448" s="20"/>
@@ -42648,7 +42672,7 @@
       <c r="E449" s="35"/>
       <c r="F449" s="19"/>
       <c r="G449" s="19"/>
-      <c r="H449" s="20"/>
+      <c r="H449" s="62"/>
       <c r="I449" s="20"/>
       <c r="J449" s="20"/>
       <c r="K449" s="20"/>
@@ -42675,7 +42699,7 @@
       <c r="E450" s="35"/>
       <c r="F450" s="19"/>
       <c r="G450" s="19"/>
-      <c r="H450" s="20"/>
+      <c r="H450" s="62"/>
       <c r="I450" s="20"/>
       <c r="J450" s="20"/>
       <c r="K450" s="20"/>
@@ -42702,7 +42726,7 @@
       <c r="E451" s="35"/>
       <c r="F451" s="19"/>
       <c r="G451" s="19"/>
-      <c r="H451" s="20"/>
+      <c r="H451" s="62"/>
       <c r="I451" s="20"/>
       <c r="J451" s="20"/>
       <c r="K451" s="20"/>
@@ -42729,7 +42753,7 @@
       <c r="E452" s="35"/>
       <c r="F452" s="19"/>
       <c r="G452" s="19"/>
-      <c r="H452" s="20"/>
+      <c r="H452" s="62"/>
       <c r="I452" s="20"/>
       <c r="J452" s="20"/>
       <c r="K452" s="20"/>
@@ -42756,7 +42780,7 @@
       <c r="E453" s="35"/>
       <c r="F453" s="19"/>
       <c r="G453" s="19"/>
-      <c r="H453" s="20"/>
+      <c r="H453" s="62"/>
       <c r="I453" s="20"/>
       <c r="J453" s="20"/>
       <c r="K453" s="20"/>
@@ -42783,7 +42807,7 @@
       <c r="E454" s="35"/>
       <c r="F454" s="19"/>
       <c r="G454" s="19"/>
-      <c r="H454" s="20"/>
+      <c r="H454" s="62"/>
       <c r="I454" s="20"/>
       <c r="J454" s="20"/>
       <c r="K454" s="20"/>
@@ -42810,7 +42834,7 @@
       <c r="E455" s="35"/>
       <c r="F455" s="19"/>
       <c r="G455" s="19"/>
-      <c r="H455" s="20"/>
+      <c r="H455" s="62"/>
       <c r="I455" s="20"/>
       <c r="J455" s="20"/>
       <c r="K455" s="20"/>
@@ -42837,7 +42861,7 @@
       <c r="E456" s="35"/>
       <c r="F456" s="19"/>
       <c r="G456" s="19"/>
-      <c r="H456" s="20"/>
+      <c r="H456" s="62"/>
       <c r="I456" s="20"/>
       <c r="J456" s="20"/>
       <c r="K456" s="20"/>
@@ -42864,7 +42888,7 @@
       <c r="E457" s="35"/>
       <c r="F457" s="19"/>
       <c r="G457" s="19"/>
-      <c r="H457" s="20"/>
+      <c r="H457" s="62"/>
       <c r="I457" s="20"/>
       <c r="J457" s="20"/>
       <c r="K457" s="20"/>
@@ -42891,7 +42915,7 @@
       <c r="E458" s="35"/>
       <c r="F458" s="19"/>
       <c r="G458" s="19"/>
-      <c r="H458" s="20"/>
+      <c r="H458" s="62"/>
       <c r="I458" s="20"/>
       <c r="J458" s="20"/>
       <c r="K458" s="20"/>
@@ -42918,7 +42942,7 @@
       <c r="E459" s="35"/>
       <c r="F459" s="19"/>
       <c r="G459" s="19"/>
-      <c r="H459" s="20"/>
+      <c r="H459" s="62"/>
       <c r="I459" s="20"/>
       <c r="J459" s="20"/>
       <c r="K459" s="20"/>
@@ -42945,7 +42969,7 @@
       <c r="E460" s="35"/>
       <c r="F460" s="19"/>
       <c r="G460" s="19"/>
-      <c r="H460" s="20"/>
+      <c r="H460" s="62"/>
       <c r="I460" s="20"/>
       <c r="J460" s="20"/>
       <c r="K460" s="20"/>
@@ -42972,7 +42996,7 @@
       <c r="E461" s="35"/>
       <c r="F461" s="19"/>
       <c r="G461" s="19"/>
-      <c r="H461" s="20"/>
+      <c r="H461" s="62"/>
       <c r="I461" s="20"/>
       <c r="J461" s="20"/>
       <c r="K461" s="20"/>
@@ -42999,7 +43023,7 @@
       <c r="E462" s="35"/>
       <c r="F462" s="19"/>
       <c r="G462" s="19"/>
-      <c r="H462" s="20"/>
+      <c r="H462" s="62"/>
       <c r="I462" s="20"/>
       <c r="J462" s="20"/>
       <c r="K462" s="20"/>
@@ -43026,7 +43050,7 @@
       <c r="E463" s="35"/>
       <c r="F463" s="19"/>
       <c r="G463" s="19"/>
-      <c r="H463" s="20"/>
+      <c r="H463" s="62"/>
       <c r="I463" s="20"/>
       <c r="J463" s="20"/>
       <c r="K463" s="20"/>
@@ -43053,7 +43077,7 @@
       <c r="E464" s="35"/>
       <c r="F464" s="19"/>
       <c r="G464" s="19"/>
-      <c r="H464" s="20"/>
+      <c r="H464" s="62"/>
       <c r="I464" s="20"/>
       <c r="J464" s="20"/>
       <c r="K464" s="20"/>
@@ -43080,7 +43104,7 @@
       <c r="E465" s="35"/>
       <c r="F465" s="19"/>
       <c r="G465" s="19"/>
-      <c r="H465" s="20"/>
+      <c r="H465" s="62"/>
       <c r="I465" s="20"/>
       <c r="J465" s="20"/>
       <c r="K465" s="20"/>
@@ -43107,7 +43131,7 @@
       <c r="E466" s="35"/>
       <c r="F466" s="19"/>
       <c r="G466" s="19"/>
-      <c r="H466" s="20"/>
+      <c r="H466" s="62"/>
       <c r="I466" s="20"/>
       <c r="J466" s="20"/>
       <c r="K466" s="20"/>
@@ -43134,7 +43158,7 @@
       <c r="E467" s="35"/>
       <c r="F467" s="19"/>
       <c r="G467" s="19"/>
-      <c r="H467" s="20"/>
+      <c r="H467" s="62"/>
       <c r="I467" s="20"/>
       <c r="J467" s="20"/>
       <c r="K467" s="20"/>
@@ -43161,7 +43185,7 @@
       <c r="E468" s="35"/>
       <c r="F468" s="19"/>
       <c r="G468" s="19"/>
-      <c r="H468" s="20"/>
+      <c r="H468" s="62"/>
       <c r="I468" s="20"/>
       <c r="J468" s="20"/>
       <c r="K468" s="20"/>
@@ -43188,7 +43212,7 @@
       <c r="E469" s="35"/>
       <c r="F469" s="19"/>
       <c r="G469" s="19"/>
-      <c r="H469" s="20"/>
+      <c r="H469" s="62"/>
       <c r="I469" s="20"/>
       <c r="J469" s="20"/>
       <c r="K469" s="20"/>
@@ -43215,7 +43239,7 @@
       <c r="E470" s="35"/>
       <c r="F470" s="19"/>
       <c r="G470" s="19"/>
-      <c r="H470" s="20"/>
+      <c r="H470" s="62"/>
       <c r="I470" s="20"/>
       <c r="J470" s="20"/>
       <c r="K470" s="20"/>
@@ -43242,7 +43266,7 @@
       <c r="E471" s="35"/>
       <c r="F471" s="19"/>
       <c r="G471" s="19"/>
-      <c r="H471" s="20"/>
+      <c r="H471" s="62"/>
       <c r="I471" s="20"/>
       <c r="J471" s="20"/>
       <c r="K471" s="20"/>
@@ -43269,7 +43293,7 @@
       <c r="E472" s="35"/>
       <c r="F472" s="19"/>
       <c r="G472" s="19"/>
-      <c r="H472" s="20"/>
+      <c r="H472" s="62"/>
       <c r="I472" s="20"/>
       <c r="J472" s="20"/>
       <c r="K472" s="20"/>
@@ -43296,7 +43320,7 @@
       <c r="E473" s="35"/>
       <c r="F473" s="19"/>
       <c r="G473" s="19"/>
-      <c r="H473" s="20"/>
+      <c r="H473" s="62"/>
       <c r="I473" s="20"/>
       <c r="J473" s="20"/>
       <c r="K473" s="20"/>
@@ -43323,7 +43347,7 @@
       <c r="E474" s="35"/>
       <c r="F474" s="19"/>
       <c r="G474" s="19"/>
-      <c r="H474" s="20"/>
+      <c r="H474" s="62"/>
       <c r="I474" s="20"/>
       <c r="J474" s="20"/>
       <c r="K474" s="20"/>
@@ -43350,7 +43374,7 @@
       <c r="E475" s="35"/>
       <c r="F475" s="19"/>
       <c r="G475" s="19"/>
-      <c r="H475" s="20"/>
+      <c r="H475" s="62"/>
       <c r="I475" s="20"/>
       <c r="J475" s="20"/>
       <c r="K475" s="20"/>
@@ -43377,7 +43401,7 @@
       <c r="E476" s="35"/>
       <c r="F476" s="19"/>
       <c r="G476" s="19"/>
-      <c r="H476" s="20"/>
+      <c r="H476" s="62"/>
       <c r="I476" s="20"/>
       <c r="J476" s="20"/>
       <c r="K476" s="20"/>
@@ -43404,7 +43428,7 @@
       <c r="E477" s="35"/>
       <c r="F477" s="19"/>
       <c r="G477" s="19"/>
-      <c r="H477" s="20"/>
+      <c r="H477" s="62"/>
       <c r="I477" s="20"/>
       <c r="J477" s="20"/>
       <c r="K477" s="20"/>
@@ -43431,7 +43455,7 @@
       <c r="E478" s="35"/>
       <c r="F478" s="19"/>
       <c r="G478" s="19"/>
-      <c r="H478" s="20"/>
+      <c r="H478" s="62"/>
       <c r="I478" s="20"/>
       <c r="J478" s="20"/>
       <c r="K478" s="20"/>
@@ -43458,7 +43482,7 @@
       <c r="E479" s="35"/>
       <c r="F479" s="19"/>
       <c r="G479" s="19"/>
-      <c r="H479" s="20"/>
+      <c r="H479" s="62"/>
       <c r="I479" s="20"/>
       <c r="J479" s="20"/>
       <c r="K479" s="20"/>
@@ -43485,7 +43509,7 @@
       <c r="E480" s="35"/>
       <c r="F480" s="19"/>
       <c r="G480" s="19"/>
-      <c r="H480" s="20"/>
+      <c r="H480" s="62"/>
       <c r="I480" s="20"/>
       <c r="J480" s="20"/>
       <c r="K480" s="20"/>
@@ -43512,7 +43536,7 @@
       <c r="E481" s="35"/>
       <c r="F481" s="19"/>
       <c r="G481" s="19"/>
-      <c r="H481" s="20"/>
+      <c r="H481" s="62"/>
       <c r="I481" s="20"/>
       <c r="J481" s="20"/>
       <c r="K481" s="20"/>
@@ -43539,7 +43563,7 @@
       <c r="E482" s="35"/>
       <c r="F482" s="19"/>
       <c r="G482" s="19"/>
-      <c r="H482" s="20"/>
+      <c r="H482" s="62"/>
       <c r="I482" s="20"/>
       <c r="J482" s="20"/>
       <c r="K482" s="20"/>
@@ -43566,7 +43590,7 @@
       <c r="E483" s="35"/>
       <c r="F483" s="19"/>
       <c r="G483" s="19"/>
-      <c r="H483" s="20"/>
+      <c r="H483" s="62"/>
       <c r="I483" s="20"/>
       <c r="J483" s="20"/>
       <c r="K483" s="20"/>
@@ -43593,7 +43617,7 @@
       <c r="E484" s="35"/>
       <c r="F484" s="19"/>
       <c r="G484" s="19"/>
-      <c r="H484" s="20"/>
+      <c r="H484" s="62"/>
       <c r="I484" s="20"/>
       <c r="J484" s="20"/>
       <c r="K484" s="20"/>
@@ -43620,7 +43644,7 @@
       <c r="E485" s="35"/>
       <c r="F485" s="19"/>
       <c r="G485" s="19"/>
-      <c r="H485" s="20"/>
+      <c r="H485" s="62"/>
       <c r="I485" s="20"/>
       <c r="J485" s="20"/>
       <c r="K485" s="20"/>
@@ -43647,7 +43671,7 @@
       <c r="E486" s="35"/>
       <c r="F486" s="19"/>
       <c r="G486" s="19"/>
-      <c r="H486" s="20"/>
+      <c r="H486" s="62"/>
       <c r="I486" s="20"/>
       <c r="J486" s="20"/>
       <c r="K486" s="20"/>
@@ -43674,7 +43698,7 @@
       <c r="E487" s="35"/>
       <c r="F487" s="19"/>
       <c r="G487" s="19"/>
-      <c r="H487" s="20"/>
+      <c r="H487" s="62"/>
       <c r="I487" s="20"/>
       <c r="J487" s="20"/>
       <c r="K487" s="20"/>
@@ -43701,7 +43725,7 @@
       <c r="E488" s="35"/>
       <c r="F488" s="19"/>
       <c r="G488" s="19"/>
-      <c r="H488" s="20"/>
+      <c r="H488" s="62"/>
       <c r="I488" s="20"/>
       <c r="J488" s="20"/>
       <c r="K488" s="20"/>
@@ -43728,7 +43752,7 @@
       <c r="E489" s="35"/>
       <c r="F489" s="19"/>
       <c r="G489" s="19"/>
-      <c r="H489" s="20"/>
+      <c r="H489" s="62"/>
       <c r="I489" s="20"/>
       <c r="J489" s="20"/>
       <c r="K489" s="20"/>
@@ -43755,7 +43779,7 @@
       <c r="E490" s="35"/>
       <c r="F490" s="19"/>
       <c r="G490" s="19"/>
-      <c r="H490" s="20"/>
+      <c r="H490" s="62"/>
       <c r="I490" s="20"/>
       <c r="J490" s="20"/>
       <c r="K490" s="20"/>
@@ -43782,7 +43806,7 @@
       <c r="E491" s="35"/>
       <c r="F491" s="19"/>
       <c r="G491" s="19"/>
-      <c r="H491" s="20"/>
+      <c r="H491" s="62"/>
       <c r="I491" s="20"/>
       <c r="J491" s="20"/>
       <c r="K491" s="20"/>
@@ -43809,7 +43833,7 @@
       <c r="E492" s="35"/>
       <c r="F492" s="19"/>
       <c r="G492" s="19"/>
-      <c r="H492" s="20"/>
+      <c r="H492" s="62"/>
       <c r="I492" s="20"/>
       <c r="J492" s="20"/>
       <c r="K492" s="20"/>
@@ -43836,7 +43860,7 @@
       <c r="E493" s="35"/>
       <c r="F493" s="19"/>
       <c r="G493" s="19"/>
-      <c r="H493" s="20"/>
+      <c r="H493" s="62"/>
       <c r="I493" s="20"/>
       <c r="J493" s="20"/>
       <c r="K493" s="20"/>
@@ -43863,7 +43887,7 @@
       <c r="E494" s="35"/>
       <c r="F494" s="19"/>
       <c r="G494" s="19"/>
-      <c r="H494" s="20"/>
+      <c r="H494" s="62"/>
       <c r="I494" s="20"/>
       <c r="J494" s="20"/>
       <c r="K494" s="20"/>
@@ -43890,7 +43914,7 @@
       <c r="E495" s="35"/>
       <c r="F495" s="19"/>
       <c r="G495" s="19"/>
-      <c r="H495" s="20"/>
+      <c r="H495" s="62"/>
       <c r="I495" s="20"/>
       <c r="J495" s="20"/>
       <c r="K495" s="20"/>
@@ -43917,7 +43941,7 @@
       <c r="E496" s="35"/>
       <c r="F496" s="19"/>
       <c r="G496" s="19"/>
-      <c r="H496" s="20"/>
+      <c r="H496" s="62"/>
       <c r="I496" s="20"/>
       <c r="J496" s="20"/>
       <c r="K496" s="20"/>
@@ -43944,7 +43968,7 @@
       <c r="E497" s="35"/>
       <c r="F497" s="19"/>
       <c r="G497" s="19"/>
-      <c r="H497" s="20"/>
+      <c r="H497" s="62"/>
       <c r="I497" s="20"/>
       <c r="J497" s="20"/>
       <c r="K497" s="20"/>
@@ -43971,7 +43995,7 @@
       <c r="E498" s="35"/>
       <c r="F498" s="19"/>
       <c r="G498" s="19"/>
-      <c r="H498" s="20"/>
+      <c r="H498" s="62"/>
       <c r="I498" s="20"/>
       <c r="J498" s="20"/>
       <c r="K498" s="20"/>
@@ -43998,7 +44022,7 @@
       <c r="E499" s="35"/>
       <c r="F499" s="19"/>
       <c r="G499" s="19"/>
-      <c r="H499" s="20"/>
+      <c r="H499" s="62"/>
       <c r="I499" s="20"/>
       <c r="J499" s="20"/>
       <c r="K499" s="20"/>
@@ -44025,7 +44049,7 @@
       <c r="E500" s="35"/>
       <c r="F500" s="19"/>
       <c r="G500" s="19"/>
-      <c r="H500" s="20"/>
+      <c r="H500" s="62"/>
       <c r="I500" s="20"/>
       <c r="J500" s="20"/>
       <c r="K500" s="20"/>
@@ -44052,7 +44076,7 @@
       <c r="E501" s="35"/>
       <c r="F501" s="19"/>
       <c r="G501" s="19"/>
-      <c r="H501" s="20"/>
+      <c r="H501" s="62"/>
       <c r="I501" s="20"/>
       <c r="J501" s="20"/>
       <c r="K501" s="20"/>
@@ -44079,7 +44103,7 @@
       <c r="E502" s="35"/>
       <c r="F502" s="19"/>
       <c r="G502" s="19"/>
-      <c r="H502" s="20"/>
+      <c r="H502" s="62"/>
       <c r="I502" s="20"/>
       <c r="J502" s="20"/>
       <c r="K502" s="20"/>
@@ -44106,7 +44130,7 @@
       <c r="E503" s="35"/>
       <c r="F503" s="19"/>
       <c r="G503" s="19"/>
-      <c r="H503" s="20"/>
+      <c r="H503" s="62"/>
       <c r="I503" s="20"/>
       <c r="J503" s="20"/>
       <c r="K503" s="20"/>
@@ -44133,7 +44157,7 @@
       <c r="E504" s="35"/>
       <c r="F504" s="19"/>
       <c r="G504" s="19"/>
-      <c r="H504" s="20"/>
+      <c r="H504" s="62"/>
       <c r="I504" s="20"/>
       <c r="J504" s="20"/>
       <c r="K504" s="20"/>
@@ -44160,7 +44184,7 @@
       <c r="E505" s="35"/>
       <c r="F505" s="19"/>
       <c r="G505" s="19"/>
-      <c r="H505" s="20"/>
+      <c r="H505" s="62"/>
       <c r="I505" s="20"/>
       <c r="J505" s="20"/>
       <c r="K505" s="20"/>
@@ -44187,7 +44211,7 @@
       <c r="E506" s="35"/>
       <c r="F506" s="19"/>
       <c r="G506" s="19"/>
-      <c r="H506" s="20"/>
+      <c r="H506" s="62"/>
       <c r="I506" s="20"/>
       <c r="J506" s="20"/>
       <c r="K506" s="20"/>
@@ -44214,7 +44238,7 @@
       <c r="E507" s="35"/>
       <c r="F507" s="19"/>
       <c r="G507" s="19"/>
-      <c r="H507" s="20"/>
+      <c r="H507" s="62"/>
       <c r="I507" s="20"/>
       <c r="J507" s="20"/>
       <c r="K507" s="20"/>
@@ -44241,7 +44265,7 @@
       <c r="E508" s="35"/>
       <c r="F508" s="19"/>
       <c r="G508" s="19"/>
-      <c r="H508" s="20"/>
+      <c r="H508" s="62"/>
       <c r="I508" s="20"/>
       <c r="J508" s="20"/>
       <c r="K508" s="20"/>
@@ -44268,7 +44292,7 @@
       <c r="E509" s="35"/>
       <c r="F509" s="19"/>
       <c r="G509" s="19"/>
-      <c r="H509" s="20"/>
+      <c r="H509" s="62"/>
       <c r="I509" s="20"/>
       <c r="J509" s="20"/>
       <c r="K509" s="20"/>
@@ -44295,7 +44319,7 @@
       <c r="E510" s="35"/>
       <c r="F510" s="19"/>
       <c r="G510" s="19"/>
-      <c r="H510" s="20"/>
+      <c r="H510" s="62"/>
       <c r="I510" s="20"/>
       <c r="J510" s="20"/>
       <c r="K510" s="20"/>
@@ -44322,7 +44346,7 @@
       <c r="E511" s="35"/>
       <c r="F511" s="19"/>
       <c r="G511" s="19"/>
-      <c r="H511" s="20"/>
+      <c r="H511" s="62"/>
       <c r="I511" s="20"/>
       <c r="J511" s="20"/>
       <c r="K511" s="20"/>
@@ -44349,7 +44373,7 @@
       <c r="E512" s="35"/>
       <c r="F512" s="19"/>
       <c r="G512" s="19"/>
-      <c r="H512" s="20"/>
+      <c r="H512" s="62"/>
       <c r="I512" s="20"/>
       <c r="J512" s="20"/>
       <c r="K512" s="20"/>
@@ -44376,7 +44400,7 @@
       <c r="E513" s="35"/>
       <c r="F513" s="19"/>
       <c r="G513" s="19"/>
-      <c r="H513" s="20"/>
+      <c r="H513" s="62"/>
       <c r="I513" s="20"/>
       <c r="J513" s="20"/>
       <c r="K513" s="20"/>
@@ -44403,7 +44427,7 @@
       <c r="E514" s="35"/>
       <c r="F514" s="19"/>
       <c r="G514" s="19"/>
-      <c r="H514" s="20"/>
+      <c r="H514" s="62"/>
       <c r="I514" s="20"/>
       <c r="J514" s="20"/>
       <c r="K514" s="20"/>
@@ -44430,7 +44454,7 @@
       <c r="E515" s="35"/>
       <c r="F515" s="19"/>
       <c r="G515" s="19"/>
-      <c r="H515" s="20"/>
+      <c r="H515" s="62"/>
       <c r="I515" s="20"/>
       <c r="J515" s="20"/>
       <c r="K515" s="20"/>
@@ -44457,7 +44481,7 @@
       <c r="E516" s="35"/>
       <c r="F516" s="19"/>
       <c r="G516" s="19"/>
-      <c r="H516" s="20"/>
+      <c r="H516" s="62"/>
       <c r="I516" s="20"/>
       <c r="J516" s="20"/>
       <c r="K516" s="20"/>
@@ -44484,7 +44508,7 @@
       <c r="E517" s="35"/>
       <c r="F517" s="19"/>
       <c r="G517" s="19"/>
-      <c r="H517" s="20"/>
+      <c r="H517" s="62"/>
       <c r="I517" s="20"/>
       <c r="J517" s="20"/>
       <c r="K517" s="20"/>
@@ -44511,7 +44535,7 @@
       <c r="E518" s="35"/>
       <c r="F518" s="19"/>
       <c r="G518" s="19"/>
-      <c r="H518" s="20"/>
+      <c r="H518" s="62"/>
       <c r="I518" s="20"/>
       <c r="J518" s="20"/>
       <c r="K518" s="20"/>
@@ -44538,7 +44562,7 @@
       <c r="E519" s="35"/>
       <c r="F519" s="19"/>
       <c r="G519" s="19"/>
-      <c r="H519" s="20"/>
+      <c r="H519" s="62"/>
       <c r="I519" s="20"/>
       <c r="J519" s="20"/>
       <c r="K519" s="20"/>
@@ -44565,7 +44589,7 @@
       <c r="E520" s="35"/>
       <c r="F520" s="19"/>
       <c r="G520" s="19"/>
-      <c r="H520" s="20"/>
+      <c r="H520" s="62"/>
       <c r="I520" s="20"/>
       <c r="J520" s="20"/>
       <c r="K520" s="20"/>
@@ -44592,7 +44616,7 @@
       <c r="E521" s="35"/>
       <c r="F521" s="19"/>
       <c r="G521" s="19"/>
-      <c r="H521" s="20"/>
+      <c r="H521" s="62"/>
       <c r="I521" s="20"/>
       <c r="J521" s="20"/>
       <c r="K521" s="20"/>
@@ -44619,7 +44643,7 @@
       <c r="E522" s="35"/>
       <c r="F522" s="19"/>
       <c r="G522" s="19"/>
-      <c r="H522" s="20"/>
+      <c r="H522" s="62"/>
       <c r="I522" s="20"/>
       <c r="J522" s="20"/>
       <c r="K522" s="20"/>
@@ -44646,7 +44670,7 @@
       <c r="E523" s="35"/>
       <c r="F523" s="19"/>
       <c r="G523" s="19"/>
-      <c r="H523" s="20"/>
+      <c r="H523" s="62"/>
       <c r="I523" s="20"/>
       <c r="J523" s="20"/>
       <c r="K523" s="20"/>
@@ -44673,7 +44697,7 @@
       <c r="E524" s="35"/>
       <c r="F524" s="19"/>
       <c r="G524" s="19"/>
-      <c r="H524" s="20"/>
+      <c r="H524" s="62"/>
       <c r="I524" s="20"/>
       <c r="J524" s="20"/>
       <c r="K524" s="20"/>
@@ -44700,7 +44724,7 @@
       <c r="E525" s="35"/>
       <c r="F525" s="19"/>
       <c r="G525" s="19"/>
-      <c r="H525" s="20"/>
+      <c r="H525" s="62"/>
       <c r="I525" s="20"/>
       <c r="J525" s="20"/>
       <c r="K525" s="20"/>
@@ -44727,7 +44751,7 @@
       <c r="E526" s="35"/>
       <c r="F526" s="19"/>
       <c r="G526" s="19"/>
-      <c r="H526" s="20"/>
+      <c r="H526" s="62"/>
       <c r="I526" s="20"/>
       <c r="J526" s="20"/>
       <c r="K526" s="20"/>
@@ -44754,7 +44778,7 @@
       <c r="E527" s="35"/>
       <c r="F527" s="19"/>
       <c r="G527" s="19"/>
-      <c r="H527" s="20"/>
+      <c r="H527" s="62"/>
       <c r="I527" s="20"/>
       <c r="J527" s="20"/>
       <c r="K527" s="20"/>
@@ -44781,7 +44805,7 @@
       <c r="E528" s="35"/>
       <c r="F528" s="19"/>
       <c r="G528" s="19"/>
-      <c r="H528" s="20"/>
+      <c r="H528" s="62"/>
       <c r="I528" s="20"/>
       <c r="J528" s="20"/>
       <c r="K528" s="20"/>
@@ -44808,7 +44832,7 @@
       <c r="E529" s="35"/>
       <c r="F529" s="19"/>
       <c r="G529" s="19"/>
-      <c r="H529" s="20"/>
+      <c r="H529" s="62"/>
       <c r="I529" s="20"/>
       <c r="J529" s="20"/>
       <c r="K529" s="20"/>
@@ -44835,7 +44859,7 @@
       <c r="E530" s="35"/>
       <c r="F530" s="19"/>
       <c r="G530" s="19"/>
-      <c r="H530" s="20"/>
+      <c r="H530" s="62"/>
       <c r="I530" s="20"/>
       <c r="J530" s="20"/>
       <c r="K530" s="20"/>
@@ -44862,7 +44886,7 @@
       <c r="E531" s="35"/>
       <c r="F531" s="19"/>
       <c r="G531" s="19"/>
-      <c r="H531" s="20"/>
+      <c r="H531" s="62"/>
       <c r="I531" s="20"/>
       <c r="J531" s="20"/>
       <c r="K531" s="20"/>
@@ -44889,7 +44913,7 @@
       <c r="E532" s="35"/>
       <c r="F532" s="19"/>
       <c r="G532" s="19"/>
-      <c r="H532" s="20"/>
+      <c r="H532" s="62"/>
       <c r="I532" s="20"/>
       <c r="J532" s="20"/>
       <c r="K532" s="20"/>
@@ -44916,7 +44940,7 @@
       <c r="E533" s="35"/>
       <c r="F533" s="19"/>
       <c r="G533" s="19"/>
-      <c r="H533" s="20"/>
+      <c r="H533" s="62"/>
       <c r="I533" s="20"/>
       <c r="J533" s="20"/>
       <c r="K533" s="20"/>
@@ -44943,7 +44967,7 @@
       <c r="E534" s="35"/>
       <c r="F534" s="19"/>
       <c r="G534" s="19"/>
-      <c r="H534" s="20"/>
+      <c r="H534" s="62"/>
       <c r="I534" s="20"/>
       <c r="J534" s="20"/>
       <c r="K534" s="20"/>
@@ -44970,7 +44994,7 @@
       <c r="E535" s="35"/>
       <c r="F535" s="19"/>
       <c r="G535" s="19"/>
-      <c r="H535" s="20"/>
+      <c r="H535" s="62"/>
       <c r="I535" s="20"/>
       <c r="J535" s="20"/>
       <c r="K535" s="20"/>
@@ -44997,7 +45021,7 @@
       <c r="E536" s="35"/>
       <c r="F536" s="19"/>
       <c r="G536" s="19"/>
-      <c r="H536" s="20"/>
+      <c r="H536" s="62"/>
       <c r="I536" s="20"/>
       <c r="J536" s="20"/>
       <c r="K536" s="20"/>
@@ -45024,7 +45048,7 @@
       <c r="E537" s="35"/>
       <c r="F537" s="19"/>
       <c r="G537" s="19"/>
-      <c r="H537" s="20"/>
+      <c r="H537" s="62"/>
       <c r="I537" s="20"/>
       <c r="J537" s="20"/>
       <c r="K537" s="20"/>
@@ -45051,7 +45075,7 @@
       <c r="E538" s="35"/>
       <c r="F538" s="19"/>
       <c r="G538" s="19"/>
-      <c r="H538" s="20"/>
+      <c r="H538" s="62"/>
       <c r="I538" s="20"/>
       <c r="J538" s="20"/>
       <c r="K538" s="20"/>
@@ -45078,7 +45102,7 @@
       <c r="E539" s="35"/>
       <c r="F539" s="19"/>
       <c r="G539" s="19"/>
-      <c r="H539" s="20"/>
+      <c r="H539" s="62"/>
       <c r="I539" s="20"/>
       <c r="J539" s="20"/>
       <c r="K539" s="20"/>
@@ -45105,7 +45129,7 @@
       <c r="E540" s="35"/>
       <c r="F540" s="19"/>
       <c r="G540" s="19"/>
-      <c r="H540" s="20"/>
+      <c r="H540" s="62"/>
       <c r="I540" s="20"/>
       <c r="J540" s="20"/>
       <c r="K540" s="20"/>
@@ -45132,7 +45156,7 @@
       <c r="E541" s="35"/>
       <c r="F541" s="19"/>
       <c r="G541" s="19"/>
-      <c r="H541" s="20"/>
+      <c r="H541" s="62"/>
       <c r="I541" s="20"/>
       <c r="J541" s="20"/>
       <c r="K541" s="20"/>
@@ -45159,7 +45183,7 @@
       <c r="E542" s="35"/>
       <c r="F542" s="19"/>
       <c r="G542" s="19"/>
-      <c r="H542" s="20"/>
+      <c r="H542" s="62"/>
       <c r="I542" s="20"/>
       <c r="J542" s="20"/>
       <c r="K542" s="20"/>
@@ -45186,7 +45210,7 @@
       <c r="E543" s="35"/>
       <c r="F543" s="19"/>
       <c r="G543" s="19"/>
-      <c r="H543" s="20"/>
+      <c r="H543" s="62"/>
       <c r="I543" s="20"/>
       <c r="J543" s="20"/>
       <c r="K543" s="20"/>
@@ -45213,7 +45237,7 @@
       <c r="E544" s="35"/>
       <c r="F544" s="19"/>
       <c r="G544" s="19"/>
-      <c r="H544" s="20"/>
+      <c r="H544" s="62"/>
       <c r="I544" s="20"/>
       <c r="J544" s="20"/>
       <c r="K544" s="20"/>
@@ -45240,7 +45264,7 @@
       <c r="E545" s="35"/>
       <c r="F545" s="19"/>
       <c r="G545" s="19"/>
-      <c r="H545" s="20"/>
+      <c r="H545" s="62"/>
       <c r="I545" s="20"/>
       <c r="J545" s="20"/>
       <c r="K545" s="20"/>
@@ -45267,7 +45291,7 @@
       <c r="E546" s="35"/>
       <c r="F546" s="19"/>
       <c r="G546" s="19"/>
-      <c r="H546" s="20"/>
+      <c r="H546" s="62"/>
       <c r="I546" s="20"/>
       <c r="J546" s="20"/>
       <c r="K546" s="20"/>
@@ -45294,7 +45318,7 @@
       <c r="E547" s="35"/>
       <c r="F547" s="19"/>
       <c r="G547" s="19"/>
-      <c r="H547" s="20"/>
+      <c r="H547" s="62"/>
       <c r="I547" s="20"/>
       <c r="J547" s="20"/>
       <c r="K547" s="20"/>
@@ -45321,7 +45345,7 @@
       <c r="E548" s="35"/>
       <c r="F548" s="19"/>
       <c r="G548" s="19"/>
-      <c r="H548" s="20"/>
+      <c r="H548" s="62"/>
       <c r="I548" s="20"/>
       <c r="J548" s="20"/>
       <c r="K548" s="20"/>
@@ -45348,7 +45372,7 @@
       <c r="E549" s="35"/>
       <c r="F549" s="19"/>
       <c r="G549" s="19"/>
-      <c r="H549" s="20"/>
+      <c r="H549" s="62"/>
       <c r="I549" s="20"/>
       <c r="J549" s="20"/>
       <c r="K549" s="20"/>
@@ -45375,7 +45399,7 @@
       <c r="E550" s="35"/>
       <c r="F550" s="19"/>
       <c r="G550" s="19"/>
-      <c r="H550" s="20"/>
+      <c r="H550" s="62"/>
       <c r="I550" s="20"/>
       <c r="J550" s="20"/>
       <c r="K550" s="20"/>
@@ -45402,7 +45426,7 @@
       <c r="E551" s="35"/>
       <c r="F551" s="19"/>
       <c r="G551" s="19"/>
-      <c r="H551" s="20"/>
+      <c r="H551" s="62"/>
       <c r="I551" s="20"/>
       <c r="J551" s="20"/>
       <c r="K551" s="20"/>
@@ -45429,7 +45453,7 @@
       <c r="E552" s="35"/>
       <c r="F552" s="19"/>
       <c r="G552" s="19"/>
-      <c r="H552" s="20"/>
+      <c r="H552" s="62"/>
       <c r="I552" s="20"/>
       <c r="J552" s="20"/>
       <c r="K552" s="20"/>
@@ -45456,7 +45480,7 @@
       <c r="E553" s="35"/>
       <c r="F553" s="19"/>
       <c r="G553" s="19"/>
-      <c r="H553" s="20"/>
+      <c r="H553" s="62"/>
       <c r="I553" s="20"/>
       <c r="J553" s="20"/>
       <c r="K553" s="20"/>
@@ -45483,7 +45507,7 @@
       <c r="E554" s="35"/>
       <c r="F554" s="19"/>
       <c r="G554" s="19"/>
-      <c r="H554" s="20"/>
+      <c r="H554" s="62"/>
       <c r="I554" s="20"/>
       <c r="J554" s="20"/>
       <c r="K554" s="20"/>
@@ -45510,7 +45534,7 @@
       <c r="E555" s="35"/>
       <c r="F555" s="19"/>
       <c r="G555" s="19"/>
-      <c r="H555" s="20"/>
+      <c r="H555" s="62"/>
       <c r="I555" s="20"/>
       <c r="J555" s="20"/>
       <c r="K555" s="20"/>
@@ -45537,7 +45561,7 @@
       <c r="E556" s="35"/>
       <c r="F556" s="19"/>
       <c r="G556" s="19"/>
-      <c r="H556" s="20"/>
+      <c r="H556" s="62"/>
       <c r="I556" s="20"/>
       <c r="J556" s="20"/>
       <c r="K556" s="20"/>
@@ -45564,7 +45588,7 @@
       <c r="E557" s="35"/>
       <c r="F557" s="19"/>
       <c r="G557" s="19"/>
-      <c r="H557" s="20"/>
+      <c r="H557" s="62"/>
       <c r="I557" s="20"/>
       <c r="J557" s="20"/>
       <c r="K557" s="20"/>
@@ -45591,7 +45615,7 @@
       <c r="E558" s="35"/>
       <c r="F558" s="19"/>
       <c r="G558" s="19"/>
-      <c r="H558" s="20"/>
+      <c r="H558" s="62"/>
       <c r="I558" s="20"/>
       <c r="J558" s="20"/>
       <c r="K558" s="20"/>
@@ -45618,7 +45642,7 @@
       <c r="E559" s="35"/>
       <c r="F559" s="19"/>
       <c r="G559" s="19"/>
-      <c r="H559" s="20"/>
+      <c r="H559" s="62"/>
       <c r="I559" s="20"/>
       <c r="J559" s="20"/>
       <c r="K559" s="20"/>
@@ -45645,7 +45669,7 @@
       <c r="E560" s="35"/>
       <c r="F560" s="19"/>
       <c r="G560" s="19"/>
-      <c r="H560" s="20"/>
+      <c r="H560" s="62"/>
       <c r="I560" s="20"/>
       <c r="J560" s="20"/>
       <c r="K560" s="20"/>
@@ -45672,7 +45696,7 @@
       <c r="E561" s="35"/>
       <c r="F561" s="19"/>
       <c r="G561" s="19"/>
-      <c r="H561" s="20"/>
+      <c r="H561" s="62"/>
       <c r="I561" s="20"/>
       <c r="J561" s="20"/>
       <c r="K561" s="20"/>
@@ -45699,7 +45723,7 @@
       <c r="E562" s="35"/>
       <c r="F562" s="19"/>
       <c r="G562" s="19"/>
-      <c r="H562" s="20"/>
+      <c r="H562" s="62"/>
       <c r="I562" s="20"/>
       <c r="J562" s="20"/>
       <c r="K562" s="20"/>
@@ -45726,7 +45750,7 @@
       <c r="E563" s="35"/>
       <c r="F563" s="19"/>
       <c r="G563" s="19"/>
-      <c r="H563" s="20"/>
+      <c r="H563" s="62"/>
       <c r="I563" s="20"/>
       <c r="J563" s="20"/>
       <c r="K563" s="20"/>
@@ -45753,7 +45777,7 @@
       <c r="E564" s="35"/>
       <c r="F564" s="19"/>
       <c r="G564" s="19"/>
-      <c r="H564" s="20"/>
+      <c r="H564" s="62"/>
       <c r="I564" s="20"/>
       <c r="J564" s="20"/>
       <c r="K564" s="20"/>
@@ -45780,7 +45804,7 @@
       <c r="E565" s="35"/>
       <c r="F565" s="19"/>
       <c r="G565" s="19"/>
-      <c r="H565" s="20"/>
+      <c r="H565" s="62"/>
       <c r="I565" s="20"/>
       <c r="J565" s="20"/>
       <c r="K565" s="20"/>
@@ -45807,7 +45831,7 @@
       <c r="E566" s="35"/>
       <c r="F566" s="19"/>
       <c r="G566" s="19"/>
-      <c r="H566" s="20"/>
+      <c r="H566" s="62"/>
       <c r="I566" s="20"/>
       <c r="J566" s="20"/>
       <c r="K566" s="20"/>
@@ -45834,7 +45858,7 @@
       <c r="E567" s="35"/>
       <c r="F567" s="19"/>
       <c r="G567" s="19"/>
-      <c r="H567" s="20"/>
+      <c r="H567" s="62"/>
       <c r="I567" s="20"/>
       <c r="J567" s="20"/>
       <c r="K567" s="20"/>
@@ -45861,7 +45885,7 @@
       <c r="E568" s="35"/>
       <c r="F568" s="19"/>
       <c r="G568" s="19"/>
-      <c r="H568" s="20"/>
+      <c r="H568" s="62"/>
       <c r="I568" s="20"/>
       <c r="J568" s="20"/>
       <c r="K568" s="20"/>
@@ -45888,7 +45912,7 @@
       <c r="E569" s="35"/>
       <c r="F569" s="19"/>
       <c r="G569" s="19"/>
-      <c r="H569" s="20"/>
+      <c r="H569" s="62"/>
       <c r="I569" s="20"/>
       <c r="J569" s="20"/>
       <c r="K569" s="20"/>
@@ -45915,7 +45939,7 @@
       <c r="E570" s="35"/>
       <c r="F570" s="19"/>
       <c r="G570" s="19"/>
-      <c r="H570" s="20"/>
+      <c r="H570" s="62"/>
       <c r="I570" s="20"/>
       <c r="J570" s="20"/>
       <c r="K570" s="20"/>
@@ -45942,7 +45966,7 @@
       <c r="E571" s="35"/>
       <c r="F571" s="19"/>
       <c r="G571" s="19"/>
-      <c r="H571" s="20"/>
+      <c r="H571" s="62"/>
       <c r="I571" s="20"/>
       <c r="J571" s="20"/>
       <c r="K571" s="20"/>
@@ -45969,7 +45993,7 @@
       <c r="E572" s="35"/>
       <c r="F572" s="19"/>
       <c r="G572" s="19"/>
-      <c r="H572" s="20"/>
+      <c r="H572" s="62"/>
       <c r="I572" s="20"/>
       <c r="J572" s="20"/>
       <c r="K572" s="20"/>
@@ -45996,7 +46020,7 @@
       <c r="E573" s="35"/>
       <c r="F573" s="19"/>
       <c r="G573" s="19"/>
-      <c r="H573" s="20"/>
+      <c r="H573" s="62"/>
       <c r="I573" s="20"/>
       <c r="J573" s="20"/>
       <c r="K573" s="20"/>
@@ -46023,7 +46047,7 @@
       <c r="E574" s="35"/>
       <c r="F574" s="19"/>
       <c r="G574" s="19"/>
-      <c r="H574" s="20"/>
+      <c r="H574" s="62"/>
       <c r="I574" s="20"/>
       <c r="J574" s="20"/>
       <c r="K574" s="20"/>
@@ -46050,7 +46074,7 @@
       <c r="E575" s="35"/>
       <c r="F575" s="19"/>
       <c r="G575" s="19"/>
-      <c r="H575" s="20"/>
+      <c r="H575" s="62"/>
       <c r="I575" s="20"/>
       <c r="J575" s="20"/>
       <c r="K575" s="20"/>
@@ -46077,7 +46101,7 @@
       <c r="E576" s="35"/>
       <c r="F576" s="19"/>
       <c r="G576" s="19"/>
-      <c r="H576" s="20"/>
+      <c r="H576" s="62"/>
       <c r="I576" s="20"/>
       <c r="J576" s="20"/>
       <c r="K576" s="20"/>
@@ -46104,7 +46128,7 @@
       <c r="E577" s="35"/>
       <c r="F577" s="19"/>
       <c r="G577" s="19"/>
-      <c r="H577" s="20"/>
+      <c r="H577" s="62"/>
       <c r="I577" s="20"/>
       <c r="J577" s="20"/>
       <c r="K577" s="20"/>
@@ -46131,7 +46155,7 @@
       <c r="E578" s="35"/>
       <c r="F578" s="19"/>
       <c r="G578" s="19"/>
-      <c r="H578" s="20"/>
+      <c r="H578" s="62"/>
       <c r="I578" s="20"/>
       <c r="J578" s="20"/>
       <c r="K578" s="20"/>
@@ -46158,7 +46182,7 @@
       <c r="E579" s="35"/>
       <c r="F579" s="19"/>
       <c r="G579" s="19"/>
-      <c r="H579" s="20"/>
+      <c r="H579" s="62"/>
       <c r="I579" s="20"/>
       <c r="J579" s="20"/>
       <c r="K579" s="20"/>
@@ -46185,7 +46209,7 @@
       <c r="E580" s="35"/>
       <c r="F580" s="19"/>
       <c r="G580" s="19"/>
-      <c r="H580" s="20"/>
+      <c r="H580" s="62"/>
       <c r="I580" s="20"/>
       <c r="J580" s="20"/>
       <c r="K580" s="20"/>
@@ -46212,7 +46236,7 @@
       <c r="E581" s="35"/>
       <c r="F581" s="19"/>
       <c r="G581" s="19"/>
-      <c r="H581" s="20"/>
+      <c r="H581" s="62"/>
       <c r="I581" s="20"/>
       <c r="J581" s="20"/>
       <c r="K581" s="20"/>
@@ -46239,7 +46263,7 @@
       <c r="E582" s="35"/>
       <c r="F582" s="19"/>
       <c r="G582" s="19"/>
-      <c r="H582" s="20"/>
+      <c r="H582" s="62"/>
       <c r="I582" s="20"/>
       <c r="J582" s="20"/>
       <c r="K582" s="20"/>
@@ -46266,7 +46290,7 @@
       <c r="E583" s="35"/>
       <c r="F583" s="19"/>
       <c r="G583" s="19"/>
-      <c r="H583" s="20"/>
+      <c r="H583" s="62"/>
       <c r="I583" s="20"/>
       <c r="J583" s="20"/>
       <c r="K583" s="20"/>
@@ -46293,7 +46317,7 @@
       <c r="E584" s="35"/>
       <c r="F584" s="19"/>
       <c r="G584" s="19"/>
-      <c r="H584" s="20"/>
+      <c r="H584" s="62"/>
       <c r="I584" s="20"/>
       <c r="J584" s="20"/>
       <c r="K584" s="20"/>
@@ -46320,7 +46344,7 @@
       <c r="E585" s="35"/>
       <c r="F585" s="19"/>
       <c r="G585" s="19"/>
-      <c r="H585" s="20"/>
+      <c r="H585" s="62"/>
       <c r="I585" s="20"/>
       <c r="J585" s="20"/>
       <c r="K585" s="20"/>
@@ -46347,7 +46371,7 @@
       <c r="E586" s="35"/>
       <c r="F586" s="19"/>
       <c r="G586" s="19"/>
-      <c r="H586" s="20"/>
+      <c r="H586" s="62"/>
       <c r="I586" s="20"/>
       <c r="J586" s="20"/>
       <c r="K586" s="20"/>
@@ -46374,7 +46398,7 @@
       <c r="E587" s="35"/>
       <c r="F587" s="19"/>
       <c r="G587" s="19"/>
-      <c r="H587" s="20"/>
+      <c r="H587" s="62"/>
       <c r="I587" s="20"/>
       <c r="J587" s="20"/>
       <c r="K587" s="20"/>
@@ -46401,7 +46425,7 @@
       <c r="E588" s="35"/>
       <c r="F588" s="19"/>
       <c r="G588" s="19"/>
-      <c r="H588" s="20"/>
+      <c r="H588" s="62"/>
       <c r="I588" s="20"/>
       <c r="J588" s="20"/>
       <c r="K588" s="20"/>
@@ -46428,7 +46452,7 @@
       <c r="E589" s="35"/>
       <c r="F589" s="19"/>
       <c r="G589" s="19"/>
-      <c r="H589" s="20"/>
+      <c r="H589" s="62"/>
       <c r="I589" s="20"/>
       <c r="J589" s="20"/>
       <c r="K589" s="20"/>
@@ -46455,7 +46479,7 @@
       <c r="E590" s="35"/>
       <c r="F590" s="19"/>
       <c r="G590" s="19"/>
-      <c r="H590" s="20"/>
+      <c r="H590" s="62"/>
       <c r="I590" s="20"/>
       <c r="J590" s="20"/>
       <c r="K590" s="20"/>
@@ -46482,7 +46506,7 @@
       <c r="E591" s="35"/>
       <c r="F591" s="19"/>
       <c r="G591" s="19"/>
-      <c r="H591" s="20"/>
+      <c r="H591" s="62"/>
       <c r="I591" s="20"/>
       <c r="J591" s="20"/>
       <c r="K591" s="20"/>
@@ -46509,7 +46533,7 @@
       <c r="E592" s="35"/>
       <c r="F592" s="19"/>
       <c r="G592" s="19"/>
-      <c r="H592" s="20"/>
+      <c r="H592" s="62"/>
       <c r="I592" s="20"/>
       <c r="J592" s="20"/>
       <c r="K592" s="20"/>
@@ -46536,7 +46560,7 @@
       <c r="E593" s="35"/>
       <c r="F593" s="19"/>
       <c r="G593" s="19"/>
-      <c r="H593" s="20"/>
+      <c r="H593" s="62"/>
       <c r="I593" s="20"/>
       <c r="J593" s="20"/>
       <c r="K593" s="20"/>
@@ -46563,7 +46587,7 @@
       <c r="E594" s="35"/>
       <c r="F594" s="19"/>
       <c r="G594" s="19"/>
-      <c r="H594" s="20"/>
+      <c r="H594" s="62"/>
       <c r="I594" s="20"/>
       <c r="J594" s="20"/>
       <c r="K594" s="20"/>
@@ -46590,7 +46614,7 @@
       <c r="E595" s="35"/>
       <c r="F595" s="19"/>
       <c r="G595" s="19"/>
-      <c r="H595" s="20"/>
+      <c r="H595" s="62"/>
       <c r="I595" s="20"/>
       <c r="J595" s="20"/>
       <c r="K595" s="20"/>
@@ -46617,7 +46641,7 @@
       <c r="E596" s="35"/>
       <c r="F596" s="19"/>
       <c r="G596" s="19"/>
-      <c r="H596" s="20"/>
+      <c r="H596" s="62"/>
       <c r="I596" s="20"/>
       <c r="J596" s="20"/>
       <c r="K596" s="20"/>
@@ -46644,7 +46668,7 @@
       <c r="E597" s="35"/>
       <c r="F597" s="19"/>
       <c r="G597" s="19"/>
-      <c r="H597" s="20"/>
+      <c r="H597" s="62"/>
       <c r="I597" s="20"/>
       <c r="J597" s="20"/>
       <c r="K597" s="20"/>
@@ -46671,7 +46695,7 @@
       <c r="E598" s="35"/>
       <c r="F598" s="19"/>
       <c r="G598" s="19"/>
-      <c r="H598" s="20"/>
+      <c r="H598" s="62"/>
       <c r="I598" s="20"/>
       <c r="J598" s="20"/>
       <c r="K598" s="20"/>
@@ -46698,7 +46722,7 @@
       <c r="E599" s="35"/>
       <c r="F599" s="19"/>
       <c r="G599" s="19"/>
-      <c r="H599" s="20"/>
+      <c r="H599" s="62"/>
       <c r="I599" s="20"/>
       <c r="J599" s="20"/>
       <c r="K599" s="20"/>
@@ -46725,7 +46749,7 @@
       <c r="E600" s="35"/>
       <c r="F600" s="19"/>
       <c r="G600" s="19"/>
-      <c r="H600" s="20"/>
+      <c r="H600" s="62"/>
       <c r="I600" s="20"/>
       <c r="J600" s="20"/>
       <c r="K600" s="20"/>
@@ -46752,7 +46776,7 @@
       <c r="E601" s="35"/>
       <c r="F601" s="19"/>
       <c r="G601" s="19"/>
-      <c r="H601" s="20"/>
+      <c r="H601" s="62"/>
       <c r="I601" s="20"/>
       <c r="J601" s="20"/>
       <c r="K601" s="20"/>
@@ -46779,7 +46803,7 @@
       <c r="E602" s="35"/>
       <c r="F602" s="19"/>
       <c r="G602" s="19"/>
-      <c r="H602" s="20"/>
+      <c r="H602" s="62"/>
       <c r="I602" s="20"/>
       <c r="J602" s="20"/>
       <c r="K602" s="20"/>
@@ -46806,7 +46830,7 @@
       <c r="E603" s="35"/>
       <c r="F603" s="19"/>
       <c r="G603" s="19"/>
-      <c r="H603" s="20"/>
+      <c r="H603" s="62"/>
       <c r="I603" s="20"/>
       <c r="J603" s="20"/>
       <c r="K603" s="20"/>
@@ -46833,7 +46857,7 @@
       <c r="E604" s="35"/>
       <c r="F604" s="19"/>
       <c r="G604" s="19"/>
-      <c r="H604" s="20"/>
+      <c r="H604" s="62"/>
       <c r="I604" s="20"/>
       <c r="J604" s="20"/>
       <c r="K604" s="20"/>
@@ -46860,7 +46884,7 @@
       <c r="E605" s="35"/>
       <c r="F605" s="19"/>
       <c r="G605" s="19"/>
-      <c r="H605" s="20"/>
+      <c r="H605" s="62"/>
       <c r="I605" s="20"/>
       <c r="J605" s="20"/>
       <c r="K605" s="20"/>
@@ -46887,7 +46911,7 @@
       <c r="E606" s="35"/>
       <c r="F606" s="19"/>
       <c r="G606" s="19"/>
-      <c r="H606" s="20"/>
+      <c r="H606" s="62"/>
       <c r="I606" s="20"/>
       <c r="J606" s="20"/>
       <c r="K606" s="20"/>
@@ -46914,7 +46938,7 @@
       <c r="E607" s="35"/>
       <c r="F607" s="19"/>
       <c r="G607" s="19"/>
-      <c r="H607" s="20"/>
+      <c r="H607" s="62"/>
       <c r="I607" s="20"/>
       <c r="J607" s="20"/>
       <c r="K607" s="20"/>
@@ -46941,7 +46965,7 @@
       <c r="E608" s="35"/>
       <c r="F608" s="19"/>
       <c r="G608" s="19"/>
-      <c r="H608" s="20"/>
+      <c r="H608" s="62"/>
       <c r="I608" s="20"/>
       <c r="J608" s="20"/>
       <c r="K608" s="20"/>
@@ -46968,7 +46992,7 @@
       <c r="E609" s="35"/>
       <c r="F609" s="19"/>
       <c r="G609" s="19"/>
-      <c r="H609" s="20"/>
+      <c r="H609" s="62"/>
       <c r="I609" s="20"/>
       <c r="J609" s="20"/>
       <c r="K609" s="20"/>
@@ -46995,7 +47019,7 @@
       <c r="E610" s="35"/>
       <c r="F610" s="19"/>
       <c r="G610" s="19"/>
-      <c r="H610" s="20"/>
+      <c r="H610" s="62"/>
       <c r="I610" s="20"/>
       <c r="J610" s="20"/>
       <c r="K610" s="20"/>
@@ -47022,7 +47046,7 @@
       <c r="E611" s="35"/>
       <c r="F611" s="19"/>
       <c r="G611" s="19"/>
-      <c r="H611" s="20"/>
+      <c r="H611" s="62"/>
       <c r="I611" s="20"/>
       <c r="J611" s="20"/>
       <c r="K611" s="20"/>
@@ -47049,7 +47073,7 @@
       <c r="E612" s="35"/>
       <c r="F612" s="19"/>
       <c r="G612" s="19"/>
-      <c r="H612" s="20"/>
+      <c r="H612" s="62"/>
       <c r="I612" s="20"/>
       <c r="J612" s="20"/>
       <c r="K612" s="20"/>
@@ -47076,7 +47100,7 @@
       <c r="E613" s="35"/>
       <c r="F613" s="19"/>
       <c r="G613" s="19"/>
-      <c r="H613" s="20"/>
+      <c r="H613" s="62"/>
       <c r="I613" s="20"/>
       <c r="J613" s="20"/>
       <c r="K613" s="20"/>
@@ -47103,7 +47127,7 @@
       <c r="E614" s="35"/>
       <c r="F614" s="19"/>
       <c r="G614" s="19"/>
-      <c r="H614" s="20"/>
+      <c r="H614" s="62"/>
       <c r="I614" s="20"/>
       <c r="J614" s="20"/>
       <c r="K614" s="20"/>
@@ -47130,7 +47154,7 @@
       <c r="E615" s="35"/>
       <c r="F615" s="19"/>
       <c r="G615" s="19"/>
-      <c r="H615" s="20"/>
+      <c r="H615" s="62"/>
       <c r="I615" s="20"/>
       <c r="J615" s="20"/>
       <c r="K615" s="20"/>
@@ -47157,7 +47181,7 @@
       <c r="E616" s="35"/>
       <c r="F616" s="19"/>
       <c r="G616" s="19"/>
-      <c r="H616" s="20"/>
+      <c r="H616" s="62"/>
       <c r="I616" s="20"/>
       <c r="J616" s="20"/>
       <c r="K616" s="20"/>
@@ -47184,7 +47208,7 @@
       <c r="E617" s="35"/>
       <c r="F617" s="19"/>
       <c r="G617" s="19"/>
-      <c r="H617" s="20"/>
+      <c r="H617" s="62"/>
       <c r="I617" s="20"/>
       <c r="J617" s="20"/>
       <c r="K617" s="20"/>
@@ -47211,7 +47235,7 @@
       <c r="E618" s="35"/>
       <c r="F618" s="19"/>
       <c r="G618" s="19"/>
-      <c r="H618" s="20"/>
+      <c r="H618" s="62"/>
       <c r="I618" s="20"/>
       <c r="J618" s="20"/>
       <c r="K618" s="20"/>
@@ -47238,7 +47262,7 @@
       <c r="E619" s="35"/>
       <c r="F619" s="19"/>
       <c r="G619" s="19"/>
-      <c r="H619" s="20"/>
+      <c r="H619" s="62"/>
       <c r="I619" s="20"/>
       <c r="J619" s="20"/>
       <c r="K619" s="20"/>
@@ -47265,7 +47289,7 @@
       <c r="E620" s="35"/>
       <c r="F620" s="19"/>
       <c r="G620" s="19"/>
-      <c r="H620" s="20"/>
+      <c r="H620" s="62"/>
       <c r="I620" s="20"/>
       <c r="J620" s="20"/>
       <c r="K620" s="20"/>
@@ -47292,7 +47316,7 @@
       <c r="E621" s="35"/>
       <c r="F621" s="19"/>
       <c r="G621" s="19"/>
-      <c r="H621" s="20"/>
+      <c r="H621" s="62"/>
       <c r="I621" s="20"/>
       <c r="J621" s="20"/>
       <c r="K621" s="20"/>
@@ -47319,7 +47343,7 @@
       <c r="E622" s="35"/>
       <c r="F622" s="19"/>
       <c r="G622" s="19"/>
-      <c r="H622" s="20"/>
+      <c r="H622" s="62"/>
       <c r="I622" s="20"/>
       <c r="J622" s="20"/>
       <c r="K622" s="20"/>
@@ -47346,7 +47370,7 @@
       <c r="E623" s="35"/>
       <c r="F623" s="19"/>
       <c r="G623" s="19"/>
-      <c r="H623" s="20"/>
+      <c r="H623" s="62"/>
       <c r="I623" s="20"/>
       <c r="J623" s="20"/>
       <c r="K623" s="20"/>
@@ -47373,7 +47397,7 @@
       <c r="E624" s="35"/>
       <c r="F624" s="19"/>
       <c r="G624" s="19"/>
-      <c r="H624" s="20"/>
+      <c r="H624" s="62"/>
       <c r="I624" s="20"/>
       <c r="J624" s="20"/>
       <c r="K624" s="20"/>
@@ -47400,7 +47424,7 @@
       <c r="E625" s="35"/>
       <c r="F625" s="19"/>
       <c r="G625" s="19"/>
-      <c r="H625" s="20"/>
+      <c r="H625" s="62"/>
       <c r="I625" s="20"/>
       <c r="J625" s="20"/>
       <c r="K625" s="20"/>
@@ -47427,7 +47451,7 @@
       <c r="E626" s="35"/>
       <c r="F626" s="19"/>
       <c r="G626" s="19"/>
-      <c r="H626" s="20"/>
+      <c r="H626" s="62"/>
       <c r="I626" s="20"/>
       <c r="J626" s="20"/>
       <c r="K626" s="20"/>
@@ -47454,7 +47478,7 @@
       <c r="E627" s="35"/>
       <c r="F627" s="19"/>
       <c r="G627" s="19"/>
-      <c r="H627" s="20"/>
+      <c r="H627" s="62"/>
       <c r="I627" s="20"/>
       <c r="J627" s="20"/>
       <c r="K627" s="20"/>
@@ -47481,7 +47505,7 @@
       <c r="E628" s="35"/>
       <c r="F628" s="19"/>
       <c r="G628" s="19"/>
-      <c r="H628" s="20"/>
+      <c r="H628" s="62"/>
       <c r="I628" s="20"/>
       <c r="J628" s="20"/>
       <c r="K628" s="20"/>
@@ -47508,7 +47532,7 @@
       <c r="E629" s="35"/>
       <c r="F629" s="19"/>
       <c r="G629" s="19"/>
-      <c r="H629" s="20"/>
+      <c r="H629" s="62"/>
       <c r="I629" s="20"/>
       <c r="J629" s="20"/>
       <c r="K629" s="20"/>
@@ -47535,7 +47559,7 @@
       <c r="E630" s="35"/>
       <c r="F630" s="19"/>
       <c r="G630" s="19"/>
-      <c r="H630" s="20"/>
+      <c r="H630" s="62"/>
       <c r="I630" s="20"/>
       <c r="J630" s="20"/>
       <c r="K630" s="20"/>
@@ -47562,7 +47586,7 @@
       <c r="E631" s="35"/>
       <c r="F631" s="19"/>
       <c r="G631" s="19"/>
-      <c r="H631" s="20"/>
+      <c r="H631" s="62"/>
       <c r="I631" s="20"/>
       <c r="J631" s="20"/>
       <c r="K631" s="20"/>
@@ -47589,7 +47613,7 @@
       <c r="E632" s="35"/>
       <c r="F632" s="19"/>
       <c r="G632" s="19"/>
-      <c r="H632" s="20"/>
+      <c r="H632" s="62"/>
       <c r="I632" s="20"/>
       <c r="J632" s="20"/>
       <c r="K632" s="20"/>
@@ -47616,7 +47640,7 @@
       <c r="E633" s="35"/>
       <c r="F633" s="19"/>
       <c r="G633" s="19"/>
-      <c r="H633" s="20"/>
+      <c r="H633" s="62"/>
       <c r="I633" s="20"/>
       <c r="J633" s="20"/>
       <c r="K633" s="20"/>
@@ -47643,7 +47667,7 @@
       <c r="E634" s="35"/>
       <c r="F634" s="19"/>
       <c r="G634" s="19"/>
-      <c r="H634" s="20"/>
+      <c r="H634" s="62"/>
       <c r="I634" s="20"/>
       <c r="J634" s="20"/>
       <c r="K634" s="20"/>
@@ -47670,7 +47694,7 @@
       <c r="E635" s="35"/>
       <c r="F635" s="19"/>
       <c r="G635" s="19"/>
-      <c r="H635" s="20"/>
+      <c r="H635" s="62"/>
       <c r="I635" s="20"/>
       <c r="J635" s="20"/>
       <c r="K635" s="20"/>
@@ -47697,7 +47721,7 @@
       <c r="E636" s="35"/>
       <c r="F636" s="19"/>
       <c r="G636" s="19"/>
-      <c r="H636" s="20"/>
+      <c r="H636" s="62"/>
       <c r="I636" s="20"/>
       <c r="J636" s="20"/>
       <c r="K636" s="20"/>
@@ -47724,7 +47748,7 @@
       <c r="E637" s="35"/>
       <c r="F637" s="19"/>
       <c r="G637" s="19"/>
-      <c r="H637" s="20"/>
+      <c r="H637" s="62"/>
       <c r="I637" s="20"/>
       <c r="J637" s="20"/>
       <c r="K637" s="20"/>
@@ -47751,7 +47775,7 @@
       <c r="E638" s="35"/>
       <c r="F638" s="19"/>
       <c r="G638" s="19"/>
-      <c r="H638" s="20"/>
+      <c r="H638" s="62"/>
       <c r="I638" s="20"/>
       <c r="J638" s="20"/>
       <c r="K638" s="20"/>
@@ -47778,7 +47802,7 @@
       <c r="E639" s="35"/>
       <c r="F639" s="19"/>
       <c r="G639" s="19"/>
-      <c r="H639" s="20"/>
+      <c r="H639" s="62"/>
       <c r="I639" s="20"/>
       <c r="J639" s="20"/>
       <c r="K639" s="20"/>
@@ -47805,7 +47829,7 @@
       <c r="E640" s="35"/>
       <c r="F640" s="19"/>
       <c r="G640" s="19"/>
-      <c r="H640" s="20"/>
+      <c r="H640" s="62"/>
       <c r="I640" s="20"/>
       <c r="J640" s="20"/>
       <c r="K640" s="20"/>
@@ -47832,7 +47856,7 @@
       <c r="E641" s="35"/>
       <c r="F641" s="19"/>
       <c r="G641" s="19"/>
-      <c r="H641" s="20"/>
+      <c r="H641" s="62"/>
       <c r="I641" s="20"/>
       <c r="J641" s="20"/>
       <c r="K641" s="20"/>
@@ -47859,7 +47883,7 @@
       <c r="E642" s="35"/>
       <c r="F642" s="19"/>
       <c r="G642" s="19"/>
-      <c r="H642" s="20"/>
+      <c r="H642" s="62"/>
       <c r="I642" s="20"/>
       <c r="J642" s="20"/>
       <c r="K642" s="20"/>
@@ -47886,7 +47910,7 @@
       <c r="E643" s="35"/>
       <c r="F643" s="19"/>
       <c r="G643" s="19"/>
-      <c r="H643" s="20"/>
+      <c r="H643" s="62"/>
       <c r="I643" s="20"/>
       <c r="J643" s="20"/>
       <c r="K643" s="20"/>
@@ -47913,7 +47937,7 @@
       <c r="E644" s="35"/>
       <c r="F644" s="19"/>
       <c r="G644" s="19"/>
-      <c r="H644" s="20"/>
+      <c r="H644" s="62"/>
       <c r="I644" s="20"/>
       <c r="J644" s="20"/>
       <c r="K644" s="20"/>
@@ -47940,7 +47964,7 @@
       <c r="E645" s="35"/>
       <c r="F645" s="19"/>
       <c r="G645" s="19"/>
-      <c r="H645" s="20"/>
+      <c r="H645" s="62"/>
       <c r="I645" s="20"/>
       <c r="J645" s="20"/>
       <c r="K645" s="20"/>
@@ -47967,7 +47991,7 @@
       <c r="E646" s="35"/>
       <c r="F646" s="19"/>
       <c r="G646" s="19"/>
-      <c r="H646" s="20"/>
+      <c r="H646" s="62"/>
       <c r="I646" s="20"/>
       <c r="J646" s="20"/>
       <c r="K646" s="20"/>
@@ -47994,7 +48018,7 @@
       <c r="E647" s="35"/>
       <c r="F647" s="19"/>
       <c r="G647" s="19"/>
-      <c r="H647" s="20"/>
+      <c r="H647" s="62"/>
       <c r="I647" s="20"/>
       <c r="J647" s="20"/>
       <c r="K647" s="20"/>
@@ -48021,7 +48045,7 @@
       <c r="E648" s="35"/>
       <c r="F648" s="19"/>
       <c r="G648" s="19"/>
-      <c r="H648" s="20"/>
+      <c r="H648" s="62"/>
       <c r="I648" s="20"/>
       <c r="J648" s="20"/>
       <c r="K648" s="20"/>
@@ -48048,7 +48072,7 @@
       <c r="E649" s="35"/>
       <c r="F649" s="19"/>
       <c r="G649" s="19"/>
-      <c r="H649" s="20"/>
+      <c r="H649" s="62"/>
       <c r="I649" s="20"/>
       <c r="J649" s="20"/>
       <c r="K649" s="20"/>
@@ -48075,7 +48099,7 @@
       <c r="E650" s="35"/>
       <c r="F650" s="19"/>
       <c r="G650" s="19"/>
-      <c r="H650" s="20"/>
+      <c r="H650" s="62"/>
       <c r="I650" s="20"/>
       <c r="J650" s="20"/>
       <c r="K650" s="20"/>
@@ -48102,7 +48126,7 @@
       <c r="E651" s="35"/>
       <c r="F651" s="19"/>
       <c r="G651" s="19"/>
-      <c r="H651" s="20"/>
+      <c r="H651" s="62"/>
       <c r="I651" s="20"/>
       <c r="J651" s="20"/>
       <c r="K651" s="20"/>
@@ -48129,7 +48153,7 @@
       <c r="E652" s="35"/>
       <c r="F652" s="19"/>
       <c r="G652" s="19"/>
-      <c r="H652" s="20"/>
+      <c r="H652" s="62"/>
       <c r="I652" s="20"/>
       <c r="J652" s="20"/>
       <c r="K652" s="20"/>
@@ -48156,7 +48180,7 @@
       <c r="E653" s="35"/>
       <c r="F653" s="19"/>
       <c r="G653" s="19"/>
-      <c r="H653" s="20"/>
+      <c r="H653" s="62"/>
       <c r="I653" s="20"/>
       <c r="J653" s="20"/>
       <c r="K653" s="20"/>
@@ -48183,7 +48207,7 @@
       <c r="E654" s="35"/>
       <c r="F654" s="19"/>
       <c r="G654" s="19"/>
-      <c r="H654" s="20"/>
+      <c r="H654" s="62"/>
       <c r="I654" s="20"/>
       <c r="J654" s="20"/>
       <c r="K654" s="20"/>
@@ -48210,7 +48234,7 @@
       <c r="E655" s="35"/>
       <c r="F655" s="19"/>
       <c r="G655" s="19"/>
-      <c r="H655" s="20"/>
+      <c r="H655" s="62"/>
       <c r="I655" s="20"/>
       <c r="J655" s="20"/>
       <c r="K655" s="20"/>
@@ -48237,7 +48261,7 @@
       <c r="E656" s="35"/>
       <c r="F656" s="19"/>
       <c r="G656" s="19"/>
-      <c r="H656" s="20"/>
+      <c r="H656" s="62"/>
       <c r="I656" s="20"/>
       <c r="J656" s="20"/>
       <c r="K656" s="20"/>
@@ -48264,7 +48288,7 @@
       <c r="E657" s="35"/>
       <c r="F657" s="19"/>
       <c r="G657" s="19"/>
-      <c r="H657" s="20"/>
+      <c r="H657" s="62"/>
       <c r="I657" s="20"/>
       <c r="J657" s="20"/>
       <c r="K657" s="20"/>
@@ -48291,7 +48315,7 @@
       <c r="E658" s="35"/>
       <c r="F658" s="19"/>
       <c r="G658" s="19"/>
-      <c r="H658" s="20"/>
+      <c r="H658" s="62"/>
       <c r="I658" s="20"/>
       <c r="J658" s="20"/>
       <c r="K658" s="20"/>
@@ -48318,7 +48342,7 @@
       <c r="E659" s="35"/>
       <c r="F659" s="19"/>
       <c r="G659" s="19"/>
-      <c r="H659" s="20"/>
+      <c r="H659" s="62"/>
       <c r="I659" s="20"/>
       <c r="J659" s="20"/>
       <c r="K659" s="20"/>
@@ -48345,7 +48369,7 @@
       <c r="E660" s="35"/>
       <c r="F660" s="19"/>
       <c r="G660" s="19"/>
-      <c r="H660" s="20"/>
+      <c r="H660" s="62"/>
       <c r="I660" s="20"/>
       <c r="J660" s="20"/>
       <c r="K660" s="20"/>
@@ -48372,7 +48396,7 @@
       <c r="E661" s="35"/>
       <c r="F661" s="19"/>
       <c r="G661" s="19"/>
-      <c r="H661" s="20"/>
+      <c r="H661" s="62"/>
       <c r="I661" s="20"/>
       <c r="J661" s="20"/>
       <c r="K661" s="20"/>
@@ -48399,7 +48423,7 @@
       <c r="E662" s="35"/>
       <c r="F662" s="19"/>
       <c r="G662" s="19"/>
-      <c r="H662" s="20"/>
+      <c r="H662" s="62"/>
       <c r="I662" s="20"/>
       <c r="J662" s="20"/>
       <c r="K662" s="20"/>
@@ -48426,7 +48450,7 @@
       <c r="E663" s="35"/>
       <c r="F663" s="19"/>
       <c r="G663" s="19"/>
-      <c r="H663" s="20"/>
+      <c r="H663" s="62"/>
       <c r="I663" s="20"/>
       <c r="J663" s="20"/>
       <c r="K663" s="20"/>
@@ -48453,7 +48477,7 @@
       <c r="E664" s="35"/>
       <c r="F664" s="19"/>
       <c r="G664" s="19"/>
-      <c r="H664" s="20"/>
+      <c r="H664" s="62"/>
       <c r="I664" s="20"/>
       <c r="J664" s="20"/>
       <c r="K664" s="20"/>
@@ -48480,7 +48504,7 @@
       <c r="E665" s="35"/>
       <c r="F665" s="19"/>
       <c r="G665" s="19"/>
-      <c r="H665" s="20"/>
+      <c r="H665" s="62"/>
       <c r="I665" s="20"/>
       <c r="J665" s="20"/>
       <c r="K665" s="20"/>
@@ -48507,7 +48531,7 @@
       <c r="E666" s="35"/>
       <c r="F666" s="19"/>
       <c r="G666" s="19"/>
-      <c r="H666" s="20"/>
+      <c r="H666" s="62"/>
       <c r="I666" s="20"/>
       <c r="J666" s="20"/>
       <c r="K666" s="20"/>
@@ -48534,7 +48558,7 @@
       <c r="E667" s="35"/>
       <c r="F667" s="19"/>
       <c r="G667" s="19"/>
-      <c r="H667" s="20"/>
+      <c r="H667" s="62"/>
       <c r="I667" s="20"/>
       <c r="J667" s="20"/>
       <c r="K667" s="20"/>
@@ -48561,7 +48585,7 @@
       <c r="E668" s="35"/>
       <c r="F668" s="19"/>
       <c r="G668" s="19"/>
-      <c r="H668" s="20"/>
+      <c r="H668" s="62"/>
       <c r="I668" s="20"/>
       <c r="J668" s="20"/>
       <c r="K668" s="20"/>
@@ -48588,7 +48612,7 @@
       <c r="E669" s="35"/>
       <c r="F669" s="19"/>
       <c r="G669" s="19"/>
-      <c r="H669" s="20"/>
+      <c r="H669" s="62"/>
       <c r="I669" s="20"/>
       <c r="J669" s="20"/>
       <c r="K669" s="20"/>
@@ -48615,7 +48639,7 @@
       <c r="E670" s="35"/>
       <c r="F670" s="19"/>
       <c r="G670" s="19"/>
-      <c r="H670" s="20"/>
+      <c r="H670" s="62"/>
       <c r="I670" s="20"/>
       <c r="J670" s="20"/>
       <c r="K670" s="20"/>
@@ -48642,7 +48666,7 @@
       <c r="E671" s="35"/>
       <c r="F671" s="19"/>
       <c r="G671" s="19"/>
-      <c r="H671" s="20"/>
+      <c r="H671" s="62"/>
       <c r="I671" s="20"/>
       <c r="J671" s="20"/>
       <c r="K671" s="20"/>
@@ -48669,7 +48693,7 @@
       <c r="E672" s="35"/>
       <c r="F672" s="19"/>
       <c r="G672" s="19"/>
-      <c r="H672" s="20"/>
+      <c r="H672" s="62"/>
       <c r="I672" s="20"/>
       <c r="J672" s="20"/>
       <c r="K672" s="20"/>
@@ -48696,7 +48720,7 @@
       <c r="E673" s="35"/>
       <c r="F673" s="19"/>
       <c r="G673" s="19"/>
-      <c r="H673" s="20"/>
+      <c r="H673" s="62"/>
       <c r="I673" s="20"/>
       <c r="J673" s="20"/>
       <c r="K673" s="20"/>
@@ -48723,7 +48747,7 @@
       <c r="E674" s="35"/>
       <c r="F674" s="19"/>
       <c r="G674" s="19"/>
-      <c r="H674" s="20"/>
+      <c r="H674" s="62"/>
       <c r="I674" s="20"/>
       <c r="J674" s="20"/>
       <c r="K674" s="20"/>
@@ -48750,7 +48774,7 @@
       <c r="E675" s="35"/>
       <c r="F675" s="19"/>
       <c r="G675" s="19"/>
-      <c r="H675" s="20"/>
+      <c r="H675" s="62"/>
       <c r="I675" s="20"/>
       <c r="J675" s="20"/>
       <c r="K675" s="20"/>
@@ -48777,7 +48801,7 @@
       <c r="E676" s="35"/>
       <c r="F676" s="19"/>
       <c r="G676" s="19"/>
-      <c r="H676" s="20"/>
+      <c r="H676" s="62"/>
       <c r="I676" s="20"/>
       <c r="J676" s="20"/>
       <c r="K676" s="20"/>
@@ -48804,7 +48828,7 @@
       <c r="E677" s="35"/>
       <c r="F677" s="19"/>
       <c r="G677" s="19"/>
-      <c r="H677" s="20"/>
+      <c r="H677" s="62"/>
       <c r="I677" s="20"/>
       <c r="J677" s="20"/>
       <c r="K677" s="20"/>
@@ -48831,7 +48855,7 @@
       <c r="E678" s="35"/>
       <c r="F678" s="19"/>
       <c r="G678" s="19"/>
-      <c r="H678" s="20"/>
+      <c r="H678" s="62"/>
       <c r="I678" s="20"/>
       <c r="J678" s="20"/>
       <c r="K678" s="20"/>
@@ -48858,7 +48882,7 @@
       <c r="E679" s="35"/>
       <c r="F679" s="19"/>
       <c r="G679" s="19"/>
-      <c r="H679" s="20"/>
+      <c r="H679" s="62"/>
       <c r="I679" s="20"/>
       <c r="J679" s="20"/>
       <c r="K679" s="20"/>
@@ -48885,7 +48909,7 @@
       <c r="E680" s="35"/>
       <c r="F680" s="19"/>
       <c r="G680" s="19"/>
-      <c r="H680" s="20"/>
+      <c r="H680" s="62"/>
       <c r="I680" s="20"/>
       <c r="J680" s="20"/>
       <c r="K680" s="20"/>
@@ -48912,7 +48936,7 @@
       <c r="E681" s="35"/>
       <c r="F681" s="19"/>
       <c r="G681" s="19"/>
-      <c r="H681" s="20"/>
+      <c r="H681" s="62"/>
       <c r="I681" s="20"/>
       <c r="J681" s="20"/>
       <c r="K681" s="20"/>
@@ -48939,7 +48963,7 @@
       <c r="E682" s="35"/>
       <c r="F682" s="19"/>
       <c r="G682" s="19"/>
-      <c r="H682" s="20"/>
+      <c r="H682" s="62"/>
       <c r="I682" s="20"/>
       <c r="J682" s="20"/>
       <c r="K682" s="20"/>
@@ -48966,7 +48990,7 @@
       <c r="E683" s="35"/>
       <c r="F683" s="19"/>
       <c r="G683" s="19"/>
-      <c r="H683" s="20"/>
+      <c r="H683" s="62"/>
       <c r="I683" s="20"/>
       <c r="J683" s="20"/>
       <c r="K683" s="20"/>
@@ -48993,7 +49017,7 @@
       <c r="E684" s="35"/>
       <c r="F684" s="19"/>
       <c r="G684" s="19"/>
-      <c r="H684" s="20"/>
+      <c r="H684" s="62"/>
       <c r="I684" s="20"/>
       <c r="J684" s="20"/>
       <c r="K684" s="20"/>
@@ -49020,7 +49044,7 @@
       <c r="E685" s="35"/>
       <c r="F685" s="19"/>
       <c r="G685" s="19"/>
-      <c r="H685" s="20"/>
+      <c r="H685" s="62"/>
       <c r="I685" s="20"/>
       <c r="J685" s="20"/>
       <c r="K685" s="20"/>
@@ -49047,7 +49071,7 @@
       <c r="E686" s="35"/>
       <c r="F686" s="19"/>
       <c r="G686" s="19"/>
-      <c r="H686" s="20"/>
+      <c r="H686" s="62"/>
       <c r="I686" s="20"/>
       <c r="J686" s="20"/>
       <c r="K686" s="20"/>
@@ -49074,7 +49098,7 @@
       <c r="E687" s="35"/>
       <c r="F687" s="19"/>
       <c r="G687" s="19"/>
-      <c r="H687" s="20"/>
+      <c r="H687" s="62"/>
       <c r="I687" s="20"/>
       <c r="J687" s="20"/>
       <c r="K687" s="20"/>
@@ -49101,7 +49125,7 @@
       <c r="E688" s="35"/>
       <c r="F688" s="19"/>
       <c r="G688" s="19"/>
-      <c r="H688" s="20"/>
+      <c r="H688" s="62"/>
       <c r="I688" s="20"/>
       <c r="J688" s="20"/>
       <c r="K688" s="20"/>
@@ -49128,7 +49152,7 @@
       <c r="E689" s="35"/>
       <c r="F689" s="19"/>
       <c r="G689" s="19"/>
-      <c r="H689" s="20"/>
+      <c r="H689" s="62"/>
       <c r="I689" s="20"/>
       <c r="J689" s="20"/>
       <c r="K689" s="20"/>
@@ -49155,7 +49179,7 @@
       <c r="E690" s="35"/>
       <c r="F690" s="19"/>
       <c r="G690" s="19"/>
-      <c r="H690" s="20"/>
+      <c r="H690" s="62"/>
       <c r="I690" s="20"/>
       <c r="J690" s="20"/>
       <c r="K690" s="20"/>
@@ -49182,7 +49206,7 @@
       <c r="E691" s="35"/>
       <c r="F691" s="19"/>
       <c r="G691" s="19"/>
-      <c r="H691" s="20"/>
+      <c r="H691" s="62"/>
       <c r="I691" s="20"/>
       <c r="J691" s="20"/>
       <c r="K691" s="20"/>
@@ -49209,7 +49233,7 @@
       <c r="E692" s="35"/>
       <c r="F692" s="19"/>
       <c r="G692" s="19"/>
-      <c r="H692" s="20"/>
+      <c r="H692" s="62"/>
       <c r="I692" s="20"/>
       <c r="J692" s="20"/>
       <c r="K692" s="20"/>
@@ -49236,7 +49260,7 @@
       <c r="E693" s="35"/>
       <c r="F693" s="19"/>
       <c r="G693" s="19"/>
-      <c r="H693" s="20"/>
+      <c r="H693" s="62"/>
       <c r="I693" s="20"/>
       <c r="J693" s="20"/>
       <c r="K693" s="20"/>
@@ -49263,7 +49287,7 @@
       <c r="E694" s="35"/>
       <c r="F694" s="19"/>
       <c r="G694" s="19"/>
-      <c r="H694" s="20"/>
+      <c r="H694" s="62"/>
       <c r="I694" s="20"/>
       <c r="J694" s="20"/>
       <c r="K694" s="20"/>
@@ -49290,7 +49314,7 @@
       <c r="E695" s="35"/>
       <c r="F695" s="19"/>
       <c r="G695" s="19"/>
-      <c r="H695" s="20"/>
+      <c r="H695" s="62"/>
       <c r="I695" s="20"/>
       <c r="J695" s="20"/>
       <c r="K695" s="20"/>
@@ -49317,7 +49341,7 @@
       <c r="E696" s="35"/>
       <c r="F696" s="19"/>
       <c r="G696" s="19"/>
-      <c r="H696" s="20"/>
+      <c r="H696" s="62"/>
       <c r="I696" s="20"/>
       <c r="J696" s="20"/>
       <c r="K696" s="20"/>
@@ -49344,7 +49368,7 @@
       <c r="E697" s="35"/>
       <c r="F697" s="19"/>
       <c r="G697" s="19"/>
-      <c r="H697" s="20"/>
+      <c r="H697" s="62"/>
       <c r="I697" s="20"/>
       <c r="J697" s="20"/>
       <c r="K697" s="20"/>
@@ -49371,7 +49395,7 @@
       <c r="E698" s="35"/>
       <c r="F698" s="19"/>
       <c r="G698" s="19"/>
-      <c r="H698" s="20"/>
+      <c r="H698" s="62"/>
       <c r="I698" s="20"/>
       <c r="J698" s="20"/>
       <c r="K698" s="20"/>
@@ -49398,7 +49422,7 @@
       <c r="E699" s="35"/>
       <c r="F699" s="19"/>
       <c r="G699" s="19"/>
-      <c r="H699" s="20"/>
+      <c r="H699" s="62"/>
       <c r="I699" s="20"/>
       <c r="J699" s="20"/>
       <c r="K699" s="20"/>
@@ -49425,7 +49449,7 @@
       <c r="E700" s="35"/>
       <c r="F700" s="19"/>
       <c r="G700" s="19"/>
-      <c r="H700" s="20"/>
+      <c r="H700" s="62"/>
       <c r="I700" s="20"/>
       <c r="J700" s="20"/>
       <c r="K700" s="20"/>
@@ -49452,7 +49476,7 @@
       <c r="E701" s="35"/>
       <c r="F701" s="19"/>
       <c r="G701" s="19"/>
-      <c r="H701" s="20"/>
+      <c r="H701" s="62"/>
       <c r="I701" s="20"/>
       <c r="J701" s="20"/>
       <c r="K701" s="20"/>
@@ -49479,7 +49503,7 @@
       <c r="E702" s="35"/>
       <c r="F702" s="19"/>
       <c r="G702" s="19"/>
-      <c r="H702" s="20"/>
+      <c r="H702" s="62"/>
       <c r="I702" s="20"/>
       <c r="J702" s="20"/>
       <c r="K702" s="20"/>
@@ -49506,7 +49530,7 @@
       <c r="E703" s="35"/>
       <c r="F703" s="19"/>
       <c r="G703" s="19"/>
-      <c r="H703" s="20"/>
+      <c r="H703" s="62"/>
       <c r="I703" s="20"/>
       <c r="J703" s="20"/>
       <c r="K703" s="20"/>
@@ -49533,7 +49557,7 @@
       <c r="E704" s="35"/>
       <c r="F704" s="19"/>
       <c r="G704" s="19"/>
-      <c r="H704" s="20"/>
+      <c r="H704" s="62"/>
       <c r="I704" s="20"/>
       <c r="J704" s="20"/>
       <c r="K704" s="20"/>
@@ -49560,7 +49584,7 @@
       <c r="E705" s="35"/>
       <c r="F705" s="19"/>
       <c r="G705" s="19"/>
-      <c r="H705" s="20"/>
+      <c r="H705" s="62"/>
       <c r="I705" s="20"/>
       <c r="J705" s="20"/>
       <c r="K705" s="20"/>
@@ -49587,7 +49611,7 @@
       <c r="E706" s="35"/>
       <c r="F706" s="19"/>
       <c r="G706" s="19"/>
-      <c r="H706" s="20"/>
+      <c r="H706" s="62"/>
       <c r="I706" s="20"/>
       <c r="J706" s="20"/>
       <c r="K706" s="20"/>
@@ -49614,7 +49638,7 @@
       <c r="E707" s="35"/>
       <c r="F707" s="19"/>
       <c r="G707" s="19"/>
-      <c r="H707" s="20"/>
+      <c r="H707" s="62"/>
       <c r="I707" s="20"/>
       <c r="J707" s="20"/>
       <c r="K707" s="20"/>
@@ -49641,7 +49665,7 @@
       <c r="E708" s="35"/>
       <c r="F708" s="19"/>
       <c r="G708" s="19"/>
-      <c r="H708" s="20"/>
+      <c r="H708" s="62"/>
       <c r="I708" s="20"/>
       <c r="J708" s="20"/>
       <c r="K708" s="20"/>
@@ -49668,7 +49692,7 @@
       <c r="E709" s="35"/>
       <c r="F709" s="19"/>
       <c r="G709" s="19"/>
-      <c r="H709" s="20"/>
+      <c r="H709" s="62"/>
       <c r="I709" s="20"/>
       <c r="J709" s="20"/>
       <c r="K709" s="20"/>
@@ -49695,7 +49719,7 @@
       <c r="E710" s="35"/>
       <c r="F710" s="19"/>
       <c r="G710" s="19"/>
-      <c r="H710" s="20"/>
+      <c r="H710" s="62"/>
       <c r="I710" s="20"/>
       <c r="J710" s="20"/>
       <c r="K710" s="20"/>
@@ -49722,7 +49746,7 @@
       <c r="E711" s="35"/>
       <c r="F711" s="19"/>
       <c r="G711" s="19"/>
-      <c r="H711" s="20"/>
+      <c r="H711" s="62"/>
       <c r="I711" s="20"/>
       <c r="J711" s="20"/>
       <c r="K711" s="20"/>
@@ -49749,7 +49773,7 @@
       <c r="E712" s="35"/>
       <c r="F712" s="19"/>
       <c r="G712" s="19"/>
-      <c r="H712" s="20"/>
+      <c r="H712" s="62"/>
       <c r="I712" s="20"/>
       <c r="J712" s="20"/>
       <c r="K712" s="20"/>
@@ -49776,7 +49800,7 @@
       <c r="E713" s="35"/>
       <c r="F713" s="19"/>
       <c r="G713" s="19"/>
-      <c r="H713" s="20"/>
+      <c r="H713" s="62"/>
       <c r="I713" s="20"/>
       <c r="J713" s="20"/>
       <c r="K713" s="20"/>
@@ -49803,7 +49827,7 @@
       <c r="E714" s="35"/>
       <c r="F714" s="19"/>
       <c r="G714" s="19"/>
-      <c r="H714" s="20"/>
+      <c r="H714" s="62"/>
       <c r="I714" s="20"/>
       <c r="J714" s="20"/>
       <c r="K714" s="20"/>
@@ -49830,7 +49854,7 @@
       <c r="E715" s="35"/>
       <c r="F715" s="19"/>
       <c r="G715" s="19"/>
-      <c r="H715" s="20"/>
+      <c r="H715" s="62"/>
       <c r="I715" s="20"/>
       <c r="J715" s="20"/>
       <c r="K715" s="20"/>
@@ -49857,7 +49881,7 @@
       <c r="E716" s="35"/>
       <c r="F716" s="19"/>
       <c r="G716" s="19"/>
-      <c r="H716" s="20"/>
+      <c r="H716" s="62"/>
       <c r="I716" s="20"/>
       <c r="J716" s="20"/>
       <c r="K716" s="20"/>
@@ -49884,7 +49908,7 @@
       <c r="E717" s="35"/>
       <c r="F717" s="19"/>
       <c r="G717" s="19"/>
-      <c r="H717" s="20"/>
+      <c r="H717" s="62"/>
       <c r="I717" s="20"/>
       <c r="J717" s="20"/>
       <c r="K717" s="20"/>
@@ -49911,7 +49935,7 @@
       <c r="E718" s="35"/>
       <c r="F718" s="19"/>
       <c r="G718" s="19"/>
-      <c r="H718" s="20"/>
+      <c r="H718" s="62"/>
       <c r="I718" s="20"/>
       <c r="J718" s="20"/>
       <c r="K718" s="20"/>
@@ -49938,7 +49962,7 @@
       <c r="E719" s="35"/>
       <c r="F719" s="19"/>
       <c r="G719" s="19"/>
-      <c r="H719" s="20"/>
+      <c r="H719" s="62"/>
       <c r="I719" s="20"/>
       <c r="J719" s="20"/>
       <c r="K719" s="20"/>
@@ -49965,7 +49989,7 @@
       <c r="E720" s="35"/>
       <c r="F720" s="19"/>
       <c r="G720" s="19"/>
-      <c r="H720" s="20"/>
+      <c r="H720" s="62"/>
       <c r="I720" s="20"/>
       <c r="J720" s="20"/>
       <c r="K720" s="20"/>
@@ -49992,7 +50016,7 @@
       <c r="E721" s="35"/>
       <c r="F721" s="19"/>
       <c r="G721" s="19"/>
-      <c r="H721" s="20"/>
+      <c r="H721" s="62"/>
       <c r="I721" s="20"/>
       <c r="J721" s="20"/>
       <c r="K721" s="20"/>
@@ -50019,7 +50043,7 @@
       <c r="E722" s="35"/>
       <c r="F722" s="19"/>
       <c r="G722" s="19"/>
-      <c r="H722" s="20"/>
+      <c r="H722" s="62"/>
       <c r="I722" s="20"/>
       <c r="J722" s="20"/>
       <c r="K722" s="20"/>
@@ -50046,7 +50070,7 @@
       <c r="E723" s="35"/>
       <c r="F723" s="19"/>
       <c r="G723" s="19"/>
-      <c r="H723" s="20"/>
+      <c r="H723" s="62"/>
       <c r="I723" s="20"/>
       <c r="J723" s="20"/>
       <c r="K723" s="20"/>
@@ -50073,7 +50097,7 @@
       <c r="E724" s="35"/>
       <c r="F724" s="19"/>
       <c r="G724" s="19"/>
-      <c r="H724" s="20"/>
+      <c r="H724" s="62"/>
       <c r="I724" s="20"/>
       <c r="J724" s="20"/>
       <c r="K724" s="20"/>
@@ -50100,7 +50124,7 @@
       <c r="E725" s="35"/>
       <c r="F725" s="19"/>
       <c r="G725" s="19"/>
-      <c r="H725" s="20"/>
+      <c r="H725" s="62"/>
       <c r="I725" s="20"/>
       <c r="J725" s="20"/>
       <c r="K725" s="20"/>
@@ -50127,7 +50151,7 @@
       <c r="E726" s="35"/>
       <c r="F726" s="19"/>
       <c r="G726" s="19"/>
-      <c r="H726" s="20"/>
+      <c r="H726" s="62"/>
       <c r="I726" s="20"/>
       <c r="J726" s="20"/>
       <c r="K726" s="20"/>
@@ -50154,7 +50178,7 @@
       <c r="E727" s="35"/>
       <c r="F727" s="19"/>
       <c r="G727" s="19"/>
-      <c r="H727" s="20"/>
+      <c r="H727" s="62"/>
       <c r="I727" s="20"/>
       <c r="J727" s="20"/>
       <c r="K727" s="20"/>
@@ -50181,7 +50205,7 @@
       <c r="E728" s="35"/>
       <c r="F728" s="19"/>
       <c r="G728" s="19"/>
-      <c r="H728" s="20"/>
+      <c r="H728" s="62"/>
       <c r="I728" s="20"/>
       <c r="J728" s="20"/>
       <c r="K728" s="20"/>
@@ -50208,7 +50232,7 @@
       <c r="E729" s="35"/>
       <c r="F729" s="19"/>
       <c r="G729" s="19"/>
-      <c r="H729" s="20"/>
+      <c r="H729" s="62"/>
       <c r="I729" s="20"/>
       <c r="J729" s="20"/>
       <c r="K729" s="20"/>
@@ -50235,7 +50259,7 @@
       <c r="E730" s="35"/>
       <c r="F730" s="19"/>
       <c r="G730" s="19"/>
-      <c r="H730" s="20"/>
+      <c r="H730" s="62"/>
       <c r="I730" s="20"/>
       <c r="J730" s="20"/>
       <c r="K730" s="20"/>
@@ -50262,7 +50286,7 @@
       <c r="E731" s="35"/>
       <c r="F731" s="19"/>
       <c r="G731" s="19"/>
-      <c r="H731" s="20"/>
+      <c r="H731" s="62"/>
       <c r="I731" s="20"/>
       <c r="J731" s="20"/>
       <c r="K731" s="20"/>
@@ -50289,7 +50313,7 @@
       <c r="E732" s="35"/>
       <c r="F732" s="19"/>
       <c r="G732" s="19"/>
-      <c r="H732" s="20"/>
+      <c r="H732" s="62"/>
       <c r="I732" s="20"/>
       <c r="J732" s="20"/>
       <c r="K732" s="20"/>
@@ -50316,7 +50340,7 @@
       <c r="E733" s="35"/>
       <c r="F733" s="19"/>
       <c r="G733" s="19"/>
-      <c r="H733" s="20"/>
+      <c r="H733" s="62"/>
       <c r="I733" s="20"/>
       <c r="J733" s="20"/>
       <c r="K733" s="20"/>
@@ -50343,7 +50367,7 @@
       <c r="E734" s="35"/>
       <c r="F734" s="19"/>
       <c r="G734" s="19"/>
-      <c r="H734" s="20"/>
+      <c r="H734" s="62"/>
       <c r="I734" s="20"/>
       <c r="J734" s="20"/>
       <c r="K734" s="20"/>
@@ -50370,7 +50394,7 @@
       <c r="E735" s="35"/>
       <c r="F735" s="19"/>
       <c r="G735" s="19"/>
-      <c r="H735" s="20"/>
+      <c r="H735" s="62"/>
       <c r="I735" s="20"/>
       <c r="J735" s="20"/>
       <c r="K735" s="20"/>
@@ -50397,7 +50421,7 @@
       <c r="E736" s="35"/>
       <c r="F736" s="19"/>
       <c r="G736" s="19"/>
-      <c r="H736" s="20"/>
+      <c r="H736" s="62"/>
       <c r="I736" s="20"/>
       <c r="J736" s="20"/>
       <c r="K736" s="20"/>
@@ -50424,7 +50448,7 @@
       <c r="E737" s="35"/>
       <c r="F737" s="19"/>
       <c r="G737" s="19"/>
-      <c r="H737" s="20"/>
+      <c r="H737" s="62"/>
       <c r="I737" s="20"/>
       <c r="J737" s="20"/>
       <c r="K737" s="20"/>
@@ -50451,7 +50475,7 @@
       <c r="E738" s="35"/>
       <c r="F738" s="19"/>
       <c r="G738" s="19"/>
-      <c r="H738" s="20"/>
+      <c r="H738" s="62"/>
       <c r="I738" s="20"/>
       <c r="J738" s="20"/>
       <c r="K738" s="20"/>
@@ -50478,7 +50502,7 @@
       <c r="E739" s="35"/>
       <c r="F739" s="19"/>
       <c r="G739" s="19"/>
-      <c r="H739" s="20"/>
+      <c r="H739" s="62"/>
       <c r="I739" s="20"/>
       <c r="J739" s="20"/>
       <c r="K739" s="20"/>
@@ -50505,7 +50529,7 @@
       <c r="E740" s="35"/>
       <c r="F740" s="19"/>
       <c r="G740" s="19"/>
-      <c r="H740" s="20"/>
+      <c r="H740" s="62"/>
       <c r="I740" s="20"/>
       <c r="J740" s="20"/>
       <c r="K740" s="20"/>
@@ -50532,7 +50556,7 @@
       <c r="E741" s="35"/>
       <c r="F741" s="19"/>
       <c r="G741" s="19"/>
-      <c r="H741" s="20"/>
+      <c r="H741" s="62"/>
       <c r="I741" s="20"/>
       <c r="J741" s="20"/>
       <c r="K741" s="20"/>
@@ -50559,7 +50583,7 @@
       <c r="E742" s="35"/>
       <c r="F742" s="19"/>
       <c r="G742" s="19"/>
-      <c r="H742" s="20"/>
+      <c r="H742" s="62"/>
       <c r="I742" s="20"/>
       <c r="J742" s="20"/>
       <c r="K742" s="20"/>
@@ -50586,7 +50610,7 @@
       <c r="E743" s="35"/>
       <c r="F743" s="19"/>
       <c r="G743" s="19"/>
-      <c r="H743" s="20"/>
+      <c r="H743" s="62"/>
       <c r="I743" s="20"/>
       <c r="J743" s="20"/>
       <c r="K743" s="20"/>
@@ -50613,7 +50637,7 @@
       <c r="E744" s="35"/>
       <c r="F744" s="19"/>
       <c r="G744" s="19"/>
-      <c r="H744" s="20"/>
+      <c r="H744" s="62"/>
       <c r="I744" s="20"/>
       <c r="J744" s="20"/>
       <c r="K744" s="20"/>
@@ -50640,7 +50664,7 @@
       <c r="E745" s="35"/>
       <c r="F745" s="19"/>
       <c r="G745" s="19"/>
-      <c r="H745" s="20"/>
+      <c r="H745" s="62"/>
       <c r="I745" s="20"/>
       <c r="J745" s="20"/>
       <c r="K745" s="20"/>
@@ -50667,7 +50691,7 @@
       <c r="E746" s="35"/>
       <c r="F746" s="19"/>
       <c r="G746" s="19"/>
-      <c r="H746" s="20"/>
+      <c r="H746" s="62"/>
       <c r="I746" s="20"/>
       <c r="J746" s="20"/>
       <c r="K746" s="20"/>
@@ -50694,7 +50718,7 @@
       <c r="E747" s="35"/>
       <c r="F747" s="19"/>
       <c r="G747" s="19"/>
-      <c r="H747" s="20"/>
+      <c r="H747" s="62"/>
       <c r="I747" s="20"/>
       <c r="J747" s="20"/>
       <c r="K747" s="20"/>
@@ -50721,7 +50745,7 @@
       <c r="E748" s="35"/>
       <c r="F748" s="19"/>
       <c r="G748" s="19"/>
-      <c r="H748" s="20"/>
+      <c r="H748" s="62"/>
       <c r="I748" s="20"/>
       <c r="J748" s="20"/>
       <c r="K748" s="20"/>
@@ -50748,7 +50772,7 @@
       <c r="E749" s="35"/>
       <c r="F749" s="19"/>
       <c r="G749" s="19"/>
-      <c r="H749" s="20"/>
+      <c r="H749" s="62"/>
       <c r="I749" s="20"/>
       <c r="J749" s="20"/>
       <c r="K749" s="20"/>
@@ -50775,7 +50799,7 @@
       <c r="E750" s="35"/>
       <c r="F750" s="19"/>
       <c r="G750" s="19"/>
-      <c r="H750" s="20"/>
+      <c r="H750" s="62"/>
       <c r="I750" s="20"/>
       <c r="J750" s="20"/>
       <c r="K750" s="20"/>
@@ -50802,7 +50826,7 @@
       <c r="E751" s="35"/>
       <c r="F751" s="19"/>
       <c r="G751" s="19"/>
-      <c r="H751" s="20"/>
+      <c r="H751" s="62"/>
       <c r="I751" s="20"/>
       <c r="J751" s="20"/>
       <c r="K751" s="20"/>
@@ -50829,7 +50853,7 @@
       <c r="E752" s="35"/>
       <c r="F752" s="19"/>
       <c r="G752" s="19"/>
-      <c r="H752" s="20"/>
+      <c r="H752" s="62"/>
       <c r="I752" s="20"/>
       <c r="J752" s="20"/>
       <c r="K752" s="20"/>
@@ -50856,7 +50880,7 @@
       <c r="E753" s="35"/>
       <c r="F753" s="19"/>
       <c r="G753" s="19"/>
-      <c r="H753" s="20"/>
+      <c r="H753" s="62"/>
       <c r="I753" s="20"/>
       <c r="J753" s="20"/>
       <c r="K753" s="20"/>
@@ -50883,7 +50907,7 @@
       <c r="E754" s="35"/>
       <c r="F754" s="19"/>
       <c r="G754" s="19"/>
-      <c r="H754" s="20"/>
+      <c r="H754" s="62"/>
       <c r="I754" s="20"/>
       <c r="J754" s="20"/>
       <c r="K754" s="20"/>
@@ -50910,7 +50934,7 @@
       <c r="E755" s="35"/>
       <c r="F755" s="19"/>
       <c r="G755" s="19"/>
-      <c r="H755" s="20"/>
+      <c r="H755" s="62"/>
       <c r="I755" s="20"/>
       <c r="J755" s="20"/>
       <c r="K755" s="20"/>
@@ -50937,7 +50961,7 @@
       <c r="E756" s="35"/>
       <c r="F756" s="19"/>
       <c r="G756" s="19"/>
-      <c r="H756" s="20"/>
+      <c r="H756" s="62"/>
       <c r="I756" s="20"/>
       <c r="J756" s="20"/>
       <c r="K756" s="20"/>
@@ -50964,7 +50988,7 @@
       <c r="E757" s="35"/>
       <c r="F757" s="19"/>
       <c r="G757" s="19"/>
-      <c r="H757" s="20"/>
+      <c r="H757" s="62"/>
       <c r="I757" s="20"/>
       <c r="J757" s="20"/>
       <c r="K757" s="20"/>
@@ -50991,7 +51015,7 @@
       <c r="E758" s="35"/>
       <c r="F758" s="19"/>
       <c r="G758" s="19"/>
-      <c r="H758" s="20"/>
+      <c r="H758" s="62"/>
       <c r="I758" s="20"/>
       <c r="J758" s="20"/>
       <c r="K758" s="20"/>
@@ -51018,7 +51042,7 @@
       <c r="E759" s="35"/>
       <c r="F759" s="19"/>
       <c r="G759" s="19"/>
-      <c r="H759" s="20"/>
+      <c r="H759" s="62"/>
       <c r="I759" s="20"/>
       <c r="J759" s="20"/>
       <c r="K759" s="20"/>
@@ -51045,7 +51069,7 @@
       <c r="E760" s="35"/>
       <c r="F760" s="19"/>
       <c r="G760" s="19"/>
-      <c r="H760" s="20"/>
+      <c r="H760" s="62"/>
       <c r="I760" s="20"/>
       <c r="J760" s="20"/>
       <c r="K760" s="20"/>
@@ -51072,7 +51096,7 @@
       <c r="E761" s="35"/>
       <c r="F761" s="19"/>
       <c r="G761" s="19"/>
-      <c r="H761" s="20"/>
+      <c r="H761" s="62"/>
       <c r="I761" s="20"/>
       <c r="J761" s="20"/>
       <c r="K761" s="20"/>
@@ -51099,7 +51123,7 @@
       <c r="E762" s="35"/>
       <c r="F762" s="19"/>
       <c r="G762" s="19"/>
-      <c r="H762" s="20"/>
+      <c r="H762" s="62"/>
       <c r="I762" s="20"/>
       <c r="J762" s="20"/>
       <c r="K762" s="20"/>
@@ -51126,7 +51150,7 @@
       <c r="E763" s="35"/>
       <c r="F763" s="19"/>
       <c r="G763" s="19"/>
-      <c r="H763" s="20"/>
+      <c r="H763" s="62"/>
       <c r="I763" s="20"/>
       <c r="J763" s="20"/>
       <c r="K763" s="20"/>
@@ -51153,7 +51177,7 @@
       <c r="E764" s="35"/>
       <c r="F764" s="19"/>
       <c r="G764" s="19"/>
-      <c r="H764" s="20"/>
+      <c r="H764" s="62"/>
       <c r="I764" s="20"/>
       <c r="J764" s="20"/>
       <c r="K764" s="20"/>
@@ -51180,7 +51204,7 @@
       <c r="E765" s="35"/>
       <c r="F765" s="19"/>
       <c r="G765" s="19"/>
-      <c r="H765" s="20"/>
+      <c r="H765" s="62"/>
       <c r="I765" s="20"/>
       <c r="J765" s="20"/>
       <c r="K765" s="20"/>
@@ -51207,7 +51231,7 @@
       <c r="E766" s="35"/>
       <c r="F766" s="19"/>
       <c r="G766" s="19"/>
-      <c r="H766" s="20"/>
+      <c r="H766" s="62"/>
       <c r="I766" s="20"/>
       <c r="J766" s="20"/>
       <c r="K766" s="20"/>
@@ -51234,7 +51258,7 @@
       <c r="E767" s="35"/>
       <c r="F767" s="19"/>
       <c r="G767" s="19"/>
-      <c r="H767" s="20"/>
+      <c r="H767" s="62"/>
       <c r="I767" s="20"/>
       <c r="J767" s="20"/>
       <c r="K767" s="20"/>
@@ -51261,7 +51285,7 @@
       <c r="E768" s="35"/>
       <c r="F768" s="19"/>
       <c r="G768" s="19"/>
-      <c r="H768" s="20"/>
+      <c r="H768" s="62"/>
       <c r="I768" s="20"/>
       <c r="J768" s="20"/>
       <c r="K768" s="20"/>
@@ -51288,7 +51312,7 @@
       <c r="E769" s="35"/>
       <c r="F769" s="19"/>
       <c r="G769" s="19"/>
-      <c r="H769" s="20"/>
+      <c r="H769" s="62"/>
       <c r="I769" s="20"/>
       <c r="J769" s="20"/>
       <c r="K769" s="20"/>
@@ -51315,7 +51339,7 @@
       <c r="E770" s="35"/>
       <c r="F770" s="19"/>
       <c r="G770" s="19"/>
-      <c r="H770" s="20"/>
+      <c r="H770" s="62"/>
       <c r="I770" s="20"/>
       <c r="J770" s="20"/>
       <c r="K770" s="20"/>
@@ -51342,7 +51366,7 @@
       <c r="E771" s="35"/>
       <c r="F771" s="19"/>
       <c r="G771" s="19"/>
-      <c r="H771" s="20"/>
+      <c r="H771" s="62"/>
       <c r="I771" s="20"/>
       <c r="J771" s="20"/>
       <c r="K771" s="20"/>
@@ -51369,7 +51393,7 @@
       <c r="E772" s="35"/>
       <c r="F772" s="19"/>
       <c r="G772" s="19"/>
-      <c r="H772" s="20"/>
+      <c r="H772" s="62"/>
       <c r="I772" s="20"/>
       <c r="J772" s="20"/>
       <c r="K772" s="20"/>
@@ -51396,7 +51420,7 @@
       <c r="E773" s="35"/>
       <c r="F773" s="19"/>
       <c r="G773" s="19"/>
-      <c r="H773" s="20"/>
+      <c r="H773" s="62"/>
       <c r="I773" s="20"/>
       <c r="J773" s="20"/>
       <c r="K773" s="20"/>
@@ -51423,7 +51447,7 @@
       <c r="E774" s="35"/>
       <c r="F774" s="19"/>
       <c r="G774" s="19"/>
-      <c r="H774" s="20"/>
+      <c r="H774" s="62"/>
       <c r="I774" s="20"/>
       <c r="J774" s="20"/>
       <c r="K774" s="20"/>
@@ -51450,7 +51474,7 @@
       <c r="E775" s="35"/>
       <c r="F775" s="19"/>
       <c r="G775" s="19"/>
-      <c r="H775" s="20"/>
+      <c r="H775" s="62"/>
       <c r="I775" s="20"/>
       <c r="J775" s="20"/>
       <c r="K775" s="20"/>
@@ -51477,7 +51501,7 @@
       <c r="E776" s="35"/>
       <c r="F776" s="19"/>
       <c r="G776" s="19"/>
-      <c r="H776" s="20"/>
+      <c r="H776" s="62"/>
       <c r="I776" s="20"/>
       <c r="J776" s="20"/>
       <c r="K776" s="20"/>
@@ -51504,7 +51528,7 @@
       <c r="E777" s="35"/>
       <c r="F777" s="19"/>
       <c r="G777" s="19"/>
-      <c r="H777" s="20"/>
+      <c r="H777" s="62"/>
       <c r="I777" s="20"/>
       <c r="J777" s="20"/>
       <c r="K777" s="20"/>
@@ -51531,7 +51555,7 @@
       <c r="E778" s="35"/>
       <c r="F778" s="19"/>
       <c r="G778" s="19"/>
-      <c r="H778" s="20"/>
+      <c r="H778" s="62"/>
       <c r="I778" s="20"/>
       <c r="J778" s="20"/>
       <c r="K778" s="20"/>
@@ -51558,7 +51582,7 @@
       <c r="E779" s="35"/>
       <c r="F779" s="19"/>
       <c r="G779" s="19"/>
-      <c r="H779" s="20"/>
+      <c r="H779" s="62"/>
       <c r="I779" s="20"/>
       <c r="J779" s="20"/>
       <c r="K779" s="20"/>
@@ -51585,7 +51609,7 @@
       <c r="E780" s="35"/>
       <c r="F780" s="19"/>
       <c r="G780" s="19"/>
-      <c r="H780" s="20"/>
+      <c r="H780" s="62"/>
       <c r="I780" s="20"/>
       <c r="J780" s="20"/>
       <c r="K780" s="20"/>
@@ -51612,7 +51636,7 @@
       <c r="E781" s="35"/>
       <c r="F781" s="19"/>
       <c r="G781" s="19"/>
-      <c r="H781" s="20"/>
+      <c r="H781" s="62"/>
       <c r="I781" s="20"/>
       <c r="J781" s="20"/>
       <c r="K781" s="20"/>
@@ -51639,7 +51663,7 @@
       <c r="E782" s="35"/>
       <c r="F782" s="19"/>
       <c r="G782" s="19"/>
-      <c r="H782" s="20"/>
+      <c r="H782" s="62"/>
       <c r="I782" s="20"/>
       <c r="J782" s="20"/>
       <c r="K782" s="20"/>
@@ -51666,7 +51690,7 @@
       <c r="E783" s="35"/>
       <c r="F783" s="19"/>
       <c r="G783" s="19"/>
-      <c r="H783" s="20"/>
+      <c r="H783" s="62"/>
       <c r="I783" s="20"/>
       <c r="J783" s="20"/>
       <c r="K783" s="20"/>
@@ -51693,7 +51717,7 @@
       <c r="E784" s="35"/>
       <c r="F784" s="19"/>
       <c r="G784" s="19"/>
-      <c r="H784" s="20"/>
+      <c r="H784" s="62"/>
       <c r="I784" s="20"/>
       <c r="J784" s="20"/>
       <c r="K784" s="20"/>
@@ -51720,7 +51744,7 @@
       <c r="E785" s="35"/>
       <c r="F785" s="19"/>
       <c r="G785" s="19"/>
-      <c r="H785" s="20"/>
+      <c r="H785" s="62"/>
       <c r="I785" s="20"/>
       <c r="J785" s="20"/>
       <c r="K785" s="20"/>
@@ -51747,7 +51771,7 @@
       <c r="E786" s="35"/>
       <c r="F786" s="19"/>
       <c r="G786" s="19"/>
-      <c r="H786" s="20"/>
+      <c r="H786" s="62"/>
       <c r="I786" s="20"/>
       <c r="J786" s="20"/>
       <c r="K786" s="20"/>
@@ -51774,7 +51798,7 @@
       <c r="E787" s="35"/>
       <c r="F787" s="19"/>
       <c r="G787" s="19"/>
-      <c r="H787" s="20"/>
+      <c r="H787" s="62"/>
       <c r="I787" s="20"/>
       <c r="J787" s="20"/>
       <c r="K787" s="20"/>
@@ -51801,7 +51825,7 @@
       <c r="E788" s="35"/>
       <c r="F788" s="19"/>
       <c r="G788" s="19"/>
-      <c r="H788" s="20"/>
+      <c r="H788" s="62"/>
       <c r="I788" s="20"/>
       <c r="J788" s="20"/>
       <c r="K788" s="20"/>
@@ -51828,7 +51852,7 @@
       <c r="E789" s="35"/>
       <c r="F789" s="19"/>
       <c r="G789" s="19"/>
-      <c r="H789" s="20"/>
+      <c r="H789" s="62"/>
       <c r="I789" s="20"/>
       <c r="J789" s="20"/>
       <c r="K789" s="20"/>
@@ -51855,7 +51879,7 @@
       <c r="E790" s="35"/>
       <c r="F790" s="19"/>
       <c r="G790" s="19"/>
-      <c r="H790" s="20"/>
+      <c r="H790" s="62"/>
       <c r="I790" s="20"/>
       <c r="J790" s="20"/>
       <c r="K790" s="20"/>
@@ -51882,7 +51906,7 @@
       <c r="E791" s="35"/>
       <c r="F791" s="19"/>
       <c r="G791" s="19"/>
-      <c r="H791" s="20"/>
+      <c r="H791" s="62"/>
       <c r="I791" s="20"/>
       <c r="J791" s="20"/>
       <c r="K791" s="20"/>
@@ -51909,7 +51933,7 @@
       <c r="E792" s="35"/>
       <c r="F792" s="19"/>
       <c r="G792" s="19"/>
-      <c r="H792" s="20"/>
+      <c r="H792" s="62"/>
       <c r="I792" s="20"/>
       <c r="J792" s="20"/>
       <c r="K792" s="20"/>
@@ -51936,7 +51960,7 @@
       <c r="E793" s="35"/>
       <c r="F793" s="19"/>
       <c r="G793" s="19"/>
-      <c r="H793" s="20"/>
+      <c r="H793" s="62"/>
       <c r="I793" s="20"/>
       <c r="J793" s="20"/>
       <c r="K793" s="20"/>
@@ -51963,7 +51987,7 @@
       <c r="E794" s="35"/>
       <c r="F794" s="19"/>
       <c r="G794" s="19"/>
-      <c r="H794" s="20"/>
+      <c r="H794" s="62"/>
       <c r="I794" s="20"/>
       <c r="J794" s="20"/>
       <c r="K794" s="20"/>
@@ -51990,7 +52014,7 @@
       <c r="E795" s="35"/>
       <c r="F795" s="19"/>
       <c r="G795" s="19"/>
-      <c r="H795" s="20"/>
+      <c r="H795" s="62"/>
       <c r="I795" s="20"/>
       <c r="J795" s="20"/>
       <c r="K795" s="20"/>
@@ -52017,7 +52041,7 @@
       <c r="E796" s="35"/>
       <c r="F796" s="19"/>
       <c r="G796" s="19"/>
-      <c r="H796" s="20"/>
+      <c r="H796" s="62"/>
       <c r="I796" s="20"/>
       <c r="J796" s="20"/>
       <c r="K796" s="20"/>
@@ -52044,7 +52068,7 @@
       <c r="E797" s="35"/>
       <c r="F797" s="19"/>
       <c r="G797" s="19"/>
-      <c r="H797" s="20"/>
+      <c r="H797" s="62"/>
       <c r="I797" s="20"/>
       <c r="J797" s="20"/>
       <c r="K797" s="20"/>
@@ -52071,7 +52095,7 @@
       <c r="E798" s="35"/>
       <c r="F798" s="19"/>
       <c r="G798" s="19"/>
-      <c r="H798" s="20"/>
+      <c r="H798" s="62"/>
       <c r="I798" s="20"/>
       <c r="J798" s="20"/>
       <c r="K798" s="20"/>
@@ -52098,7 +52122,7 @@
       <c r="E799" s="35"/>
       <c r="F799" s="19"/>
       <c r="G799" s="19"/>
-      <c r="H799" s="20"/>
+      <c r="H799" s="62"/>
       <c r="I799" s="20"/>
       <c r="J799" s="20"/>
       <c r="K799" s="20"/>
@@ -52125,7 +52149,7 @@
       <c r="E800" s="35"/>
       <c r="F800" s="19"/>
       <c r="G800" s="19"/>
-      <c r="H800" s="20"/>
+      <c r="H800" s="62"/>
       <c r="I800" s="20"/>
       <c r="J800" s="20"/>
       <c r="K800" s="20"/>
@@ -52152,7 +52176,7 @@
       <c r="E801" s="35"/>
       <c r="F801" s="19"/>
       <c r="G801" s="19"/>
-      <c r="H801" s="20"/>
+      <c r="H801" s="62"/>
       <c r="I801" s="20"/>
       <c r="J801" s="20"/>
       <c r="K801" s="20"/>
@@ -52179,7 +52203,7 @@
       <c r="E802" s="35"/>
       <c r="F802" s="19"/>
       <c r="G802" s="19"/>
-      <c r="H802" s="20"/>
+      <c r="H802" s="62"/>
       <c r="I802" s="20"/>
       <c r="J802" s="20"/>
       <c r="K802" s="20"/>
@@ -52206,7 +52230,7 @@
       <c r="E803" s="35"/>
       <c r="F803" s="19"/>
       <c r="G803" s="19"/>
-      <c r="H803" s="20"/>
+      <c r="H803" s="62"/>
       <c r="I803" s="20"/>
       <c r="J803" s="20"/>
       <c r="K803" s="20"/>
@@ -52233,7 +52257,7 @@
       <c r="E804" s="35"/>
       <c r="F804" s="19"/>
       <c r="G804" s="19"/>
-      <c r="H804" s="20"/>
+      <c r="H804" s="62"/>
       <c r="I804" s="20"/>
       <c r="J804" s="20"/>
       <c r="K804" s="20"/>
@@ -52260,7 +52284,7 @@
       <c r="E805" s="35"/>
       <c r="F805" s="19"/>
       <c r="G805" s="19"/>
-      <c r="H805" s="20"/>
+      <c r="H805" s="62"/>
       <c r="I805" s="20"/>
       <c r="J805" s="20"/>
       <c r="K805" s="20"/>
@@ -52287,7 +52311,7 @@
       <c r="E806" s="35"/>
       <c r="F806" s="19"/>
       <c r="G806" s="19"/>
-      <c r="H806" s="20"/>
+      <c r="H806" s="62"/>
       <c r="I806" s="20"/>
       <c r="J806" s="20"/>
       <c r="K806" s="20"/>
@@ -52314,7 +52338,7 @@
       <c r="E807" s="35"/>
       <c r="F807" s="19"/>
       <c r="G807" s="19"/>
-      <c r="H807" s="20"/>
+      <c r="H807" s="62"/>
       <c r="I807" s="20"/>
       <c r="J807" s="20"/>
       <c r="K807" s="20"/>
@@ -52341,7 +52365,7 @@
       <c r="E808" s="35"/>
       <c r="F808" s="19"/>
       <c r="G808" s="19"/>
-      <c r="H808" s="20"/>
+      <c r="H808" s="62"/>
       <c r="I808" s="20"/>
       <c r="J808" s="20"/>
       <c r="K808" s="20"/>
@@ -52368,7 +52392,7 @@
       <c r="E809" s="35"/>
       <c r="F809" s="19"/>
       <c r="G809" s="19"/>
-      <c r="H809" s="20"/>
+      <c r="H809" s="62"/>
       <c r="I809" s="20"/>
       <c r="J809" s="20"/>
       <c r="K809" s="20"/>
@@ -52395,7 +52419,7 @@
       <c r="E810" s="35"/>
       <c r="F810" s="19"/>
       <c r="G810" s="19"/>
-      <c r="H810" s="20"/>
+      <c r="H810" s="62"/>
       <c r="I810" s="20"/>
       <c r="J810" s="20"/>
       <c r="K810" s="20"/>
@@ -52422,7 +52446,7 @@
       <c r="E811" s="35"/>
       <c r="F811" s="19"/>
       <c r="G811" s="19"/>
-      <c r="H811" s="20"/>
+      <c r="H811" s="62"/>
       <c r="I811" s="20"/>
       <c r="J811" s="20"/>
       <c r="K811" s="20"/>
@@ -52449,7 +52473,7 @@
       <c r="E812" s="35"/>
       <c r="F812" s="19"/>
       <c r="G812" s="19"/>
-      <c r="H812" s="20"/>
+      <c r="H812" s="62"/>
       <c r="I812" s="20"/>
       <c r="J812" s="20"/>
       <c r="K812" s="20"/>
@@ -52476,7 +52500,7 @@
       <c r="E813" s="35"/>
       <c r="F813" s="19"/>
       <c r="G813" s="19"/>
-      <c r="H813" s="20"/>
+      <c r="H813" s="62"/>
       <c r="I813" s="20"/>
       <c r="J813" s="20"/>
       <c r="K813" s="20"/>
@@ -52503,7 +52527,7 @@
       <c r="E814" s="35"/>
       <c r="F814" s="19"/>
       <c r="G814" s="19"/>
-      <c r="H814" s="20"/>
+      <c r="H814" s="62"/>
       <c r="I814" s="20"/>
       <c r="J814" s="20"/>
       <c r="K814" s="20"/>
@@ -52530,7 +52554,7 @@
       <c r="E815" s="35"/>
       <c r="F815" s="19"/>
       <c r="G815" s="19"/>
-      <c r="H815" s="20"/>
+      <c r="H815" s="62"/>
       <c r="I815" s="20"/>
       <c r="J815" s="20"/>
       <c r="K815" s="20"/>
@@ -52557,7 +52581,7 @@
       <c r="E816" s="35"/>
       <c r="F816" s="19"/>
       <c r="G816" s="19"/>
-      <c r="H816" s="20"/>
+      <c r="H816" s="62"/>
       <c r="I816" s="20"/>
       <c r="J816" s="20"/>
       <c r="K816" s="20"/>
@@ -52584,7 +52608,7 @@
       <c r="E817" s="35"/>
       <c r="F817" s="19"/>
       <c r="G817" s="19"/>
-      <c r="H817" s="20"/>
+      <c r="H817" s="62"/>
       <c r="I817" s="20"/>
       <c r="J817" s="20"/>
       <c r="K817" s="20"/>
@@ -52611,7 +52635,7 @@
       <c r="E818" s="35"/>
       <c r="F818" s="19"/>
       <c r="G818" s="19"/>
-      <c r="H818" s="20"/>
+      <c r="H818" s="62"/>
       <c r="I818" s="20"/>
       <c r="J818" s="20"/>
       <c r="K818" s="20"/>
@@ -52638,7 +52662,7 @@
       <c r="E819" s="35"/>
       <c r="F819" s="19"/>
       <c r="G819" s="19"/>
-      <c r="H819" s="20"/>
+      <c r="H819" s="62"/>
       <c r="I819" s="20"/>
       <c r="J819" s="20"/>
       <c r="K819" s="20"/>
@@ -52665,7 +52689,7 @@
       <c r="E820" s="35"/>
       <c r="F820" s="19"/>
       <c r="G820" s="19"/>
-      <c r="H820" s="20"/>
+      <c r="H820" s="62"/>
       <c r="I820" s="20"/>
       <c r="J820" s="20"/>
       <c r="K820" s="20"/>
@@ -52692,7 +52716,7 @@
       <c r="E821" s="35"/>
       <c r="F821" s="19"/>
       <c r="G821" s="19"/>
-      <c r="H821" s="20"/>
+      <c r="H821" s="62"/>
       <c r="I821" s="20"/>
       <c r="J821" s="20"/>
       <c r="K821" s="20"/>
@@ -52719,7 +52743,7 @@
       <c r="E822" s="35"/>
       <c r="F822" s="19"/>
       <c r="G822" s="19"/>
-      <c r="H822" s="20"/>
+      <c r="H822" s="62"/>
       <c r="I822" s="20"/>
       <c r="J822" s="20"/>
       <c r="K822" s="20"/>
@@ -52746,7 +52770,7 @@
       <c r="E823" s="35"/>
       <c r="F823" s="19"/>
       <c r="G823" s="19"/>
-      <c r="H823" s="20"/>
+      <c r="H823" s="62"/>
       <c r="I823" s="20"/>
       <c r="J823" s="20"/>
       <c r="K823" s="20"/>
@@ -52773,7 +52797,7 @@
       <c r="E824" s="35"/>
       <c r="F824" s="19"/>
       <c r="G824" s="19"/>
-      <c r="H824" s="20"/>
+      <c r="H824" s="62"/>
       <c r="I824" s="20"/>
       <c r="J824" s="20"/>
       <c r="K824" s="20"/>
@@ -52800,7 +52824,7 @@
       <c r="E825" s="35"/>
       <c r="F825" s="19"/>
       <c r="G825" s="19"/>
-      <c r="H825" s="20"/>
+      <c r="H825" s="62"/>
       <c r="I825" s="20"/>
       <c r="J825" s="20"/>
       <c r="K825" s="20"/>
@@ -52827,7 +52851,7 @@
       <c r="E826" s="35"/>
       <c r="F826" s="19"/>
       <c r="G826" s="19"/>
-      <c r="H826" s="20"/>
+      <c r="H826" s="62"/>
       <c r="I826" s="20"/>
       <c r="J826" s="20"/>
       <c r="K826" s="20"/>
@@ -52854,7 +52878,7 @@
       <c r="E827" s="35"/>
       <c r="F827" s="19"/>
       <c r="G827" s="19"/>
-      <c r="H827" s="20"/>
+      <c r="H827" s="62"/>
       <c r="I827" s="20"/>
       <c r="J827" s="20"/>
       <c r="K827" s="20"/>
@@ -52881,7 +52905,7 @@
       <c r="E828" s="35"/>
       <c r="F828" s="19"/>
       <c r="G828" s="19"/>
-      <c r="H828" s="20"/>
+      <c r="H828" s="62"/>
       <c r="I828" s="20"/>
       <c r="J828" s="20"/>
       <c r="K828" s="20"/>
@@ -52908,7 +52932,7 @@
       <c r="E829" s="35"/>
       <c r="F829" s="19"/>
       <c r="G829" s="19"/>
-      <c r="H829" s="20"/>
+      <c r="H829" s="62"/>
       <c r="I829" s="20"/>
       <c r="J829" s="20"/>
       <c r="K829" s="20"/>
@@ -52935,7 +52959,7 @@
       <c r="E830" s="35"/>
       <c r="F830" s="19"/>
       <c r="G830" s="19"/>
-      <c r="H830" s="20"/>
+      <c r="H830" s="62"/>
       <c r="I830" s="20"/>
       <c r="J830" s="20"/>
       <c r="K830" s="20"/>
@@ -52962,7 +52986,7 @@
       <c r="E831" s="35"/>
       <c r="F831" s="19"/>
       <c r="G831" s="19"/>
-      <c r="H831" s="20"/>
+      <c r="H831" s="62"/>
       <c r="I831" s="20"/>
       <c r="J831" s="20"/>
       <c r="K831" s="20"/>
@@ -52989,7 +53013,7 @@
       <c r="E832" s="35"/>
       <c r="F832" s="19"/>
       <c r="G832" s="19"/>
-      <c r="H832" s="20"/>
+      <c r="H832" s="62"/>
       <c r="I832" s="20"/>
       <c r="J832" s="20"/>
       <c r="K832" s="20"/>
@@ -53016,7 +53040,7 @@
       <c r="E833" s="35"/>
       <c r="F833" s="19"/>
       <c r="G833" s="19"/>
-      <c r="H833" s="20"/>
+      <c r="H833" s="62"/>
       <c r="I833" s="20"/>
       <c r="J833" s="20"/>
       <c r="K833" s="20"/>
@@ -53043,7 +53067,7 @@
       <c r="E834" s="35"/>
       <c r="F834" s="19"/>
       <c r="G834" s="19"/>
-      <c r="H834" s="20"/>
+      <c r="H834" s="62"/>
       <c r="I834" s="20"/>
       <c r="J834" s="20"/>
       <c r="K834" s="20"/>
@@ -53070,7 +53094,7 @@
       <c r="E835" s="35"/>
       <c r="F835" s="19"/>
       <c r="G835" s="19"/>
-      <c r="H835" s="20"/>
+      <c r="H835" s="62"/>
       <c r="I835" s="20"/>
       <c r="J835" s="20"/>
       <c r="K835" s="20"/>
@@ -53097,7 +53121,7 @@
       <c r="E836" s="35"/>
       <c r="F836" s="19"/>
       <c r="G836" s="19"/>
-      <c r="H836" s="20"/>
+      <c r="H836" s="62"/>
       <c r="I836" s="20"/>
       <c r="J836" s="20"/>
       <c r="K836" s="20"/>
@@ -53124,7 +53148,7 @@
       <c r="E837" s="35"/>
       <c r="F837" s="19"/>
       <c r="G837" s="19"/>
-      <c r="H837" s="20"/>
+      <c r="H837" s="62"/>
       <c r="I837" s="20"/>
       <c r="J837" s="20"/>
       <c r="K837" s="20"/>
@@ -53151,7 +53175,7 @@
       <c r="E838" s="35"/>
       <c r="F838" s="19"/>
       <c r="G838" s="19"/>
-      <c r="H838" s="20"/>
+      <c r="H838" s="62"/>
       <c r="I838" s="20"/>
       <c r="J838" s="20"/>
       <c r="K838" s="20"/>
@@ -53178,7 +53202,7 @@
       <c r="E839" s="35"/>
       <c r="F839" s="19"/>
       <c r="G839" s="19"/>
-      <c r="H839" s="20"/>
+      <c r="H839" s="62"/>
       <c r="I839" s="20"/>
       <c r="J839" s="20"/>
       <c r="K839" s="20"/>
@@ -53205,7 +53229,7 @@
       <c r="E840" s="35"/>
       <c r="F840" s="19"/>
       <c r="G840" s="19"/>
-      <c r="H840" s="20"/>
+      <c r="H840" s="62"/>
       <c r="I840" s="20"/>
       <c r="J840" s="20"/>
       <c r="K840" s="20"/>
@@ -53232,7 +53256,7 @@
       <c r="E841" s="35"/>
       <c r="F841" s="19"/>
       <c r="G841" s="19"/>
-      <c r="H841" s="20"/>
+      <c r="H841" s="62"/>
       <c r="I841" s="20"/>
       <c r="J841" s="20"/>
       <c r="K841" s="20"/>
@@ -53259,7 +53283,7 @@
       <c r="E842" s="35"/>
       <c r="F842" s="19"/>
       <c r="G842" s="19"/>
-      <c r="H842" s="20"/>
+      <c r="H842" s="62"/>
       <c r="I842" s="20"/>
       <c r="J842" s="20"/>
       <c r="K842" s="20"/>
@@ -53286,7 +53310,7 @@
       <c r="E843" s="35"/>
       <c r="F843" s="19"/>
       <c r="G843" s="19"/>
-      <c r="H843" s="20"/>
+      <c r="H843" s="62"/>
       <c r="I843" s="20"/>
       <c r="J843" s="20"/>
       <c r="K843" s="20"/>
@@ -53313,7 +53337,7 @@
       <c r="E844" s="35"/>
       <c r="F844" s="19"/>
       <c r="G844" s="19"/>
-      <c r="H844" s="20"/>
+      <c r="H844" s="62"/>
       <c r="I844" s="20"/>
       <c r="J844" s="20"/>
       <c r="K844" s="20"/>
@@ -53340,7 +53364,7 @@
       <c r="E845" s="35"/>
       <c r="F845" s="19"/>
       <c r="G845" s="19"/>
-      <c r="H845" s="20"/>
+      <c r="H845" s="62"/>
       <c r="I845" s="20"/>
       <c r="J845" s="20"/>
       <c r="K845" s="20"/>
@@ -53367,7 +53391,7 @@
       <c r="E846" s="35"/>
       <c r="F846" s="19"/>
       <c r="G846" s="19"/>
-      <c r="H846" s="20"/>
+      <c r="H846" s="62"/>
       <c r="I846" s="20"/>
       <c r="J846" s="20"/>
       <c r="K846" s="20"/>
@@ -53394,7 +53418,7 @@
       <c r="E847" s="35"/>
       <c r="F847" s="19"/>
       <c r="G847" s="19"/>
-      <c r="H847" s="20"/>
+      <c r="H847" s="62"/>
       <c r="I847" s="20"/>
       <c r="J847" s="20"/>
       <c r="K847" s="20"/>
@@ -53421,7 +53445,7 @@
       <c r="E848" s="35"/>
       <c r="F848" s="19"/>
       <c r="G848" s="19"/>
-      <c r="H848" s="20"/>
+      <c r="H848" s="62"/>
       <c r="I848" s="20"/>
       <c r="J848" s="20"/>
       <c r="K848" s="20"/>
@@ -53448,7 +53472,7 @@
       <c r="E849" s="35"/>
       <c r="F849" s="19"/>
       <c r="G849" s="19"/>
-      <c r="H849" s="20"/>
+      <c r="H849" s="62"/>
       <c r="I849" s="20"/>
       <c r="J849" s="20"/>
       <c r="K849" s="20"/>
@@ -53475,7 +53499,7 @@
       <c r="E850" s="35"/>
       <c r="F850" s="19"/>
       <c r="G850" s="19"/>
-      <c r="H850" s="20"/>
+      <c r="H850" s="62"/>
       <c r="I850" s="20"/>
       <c r="J850" s="20"/>
       <c r="K850" s="20"/>
@@ -53502,7 +53526,7 @@
       <c r="E851" s="35"/>
       <c r="F851" s="19"/>
       <c r="G851" s="19"/>
-      <c r="H851" s="20"/>
+      <c r="H851" s="62"/>
       <c r="I851" s="20"/>
       <c r="J851" s="20"/>
       <c r="K851" s="20"/>
@@ -53529,7 +53553,7 @@
       <c r="E852" s="35"/>
       <c r="F852" s="19"/>
       <c r="G852" s="19"/>
-      <c r="H852" s="20"/>
+      <c r="H852" s="62"/>
       <c r="I852" s="20"/>
       <c r="J852" s="20"/>
       <c r="K852" s="20"/>
@@ -53556,7 +53580,7 @@
       <c r="E853" s="35"/>
       <c r="F853" s="19"/>
       <c r="G853" s="19"/>
-      <c r="H853" s="20"/>
+      <c r="H853" s="62"/>
       <c r="I853" s="20"/>
       <c r="J853" s="20"/>
       <c r="K853" s="20"/>
@@ -53583,7 +53607,7 @@
       <c r="E854" s="35"/>
       <c r="F854" s="19"/>
       <c r="G854" s="19"/>
-      <c r="H854" s="20"/>
+      <c r="H854" s="62"/>
       <c r="I854" s="20"/>
       <c r="J854" s="20"/>
       <c r="K854" s="20"/>
@@ -53610,7 +53634,7 @@
       <c r="E855" s="35"/>
       <c r="F855" s="19"/>
       <c r="G855" s="19"/>
-      <c r="H855" s="20"/>
+      <c r="H855" s="62"/>
       <c r="I855" s="20"/>
       <c r="J855" s="20"/>
       <c r="K855" s="20"/>
@@ -53637,7 +53661,7 @@
       <c r="E856" s="35"/>
       <c r="F856" s="19"/>
       <c r="G856" s="19"/>
-      <c r="H856" s="20"/>
+      <c r="H856" s="62"/>
       <c r="I856" s="20"/>
       <c r="J856" s="20"/>
       <c r="K856" s="20"/>
@@ -53664,7 +53688,7 @@
       <c r="E857" s="35"/>
       <c r="F857" s="19"/>
       <c r="G857" s="19"/>
-      <c r="H857" s="20"/>
+      <c r="H857" s="62"/>
       <c r="I857" s="20"/>
       <c r="J857" s="20"/>
       <c r="K857" s="20"/>
@@ -53691,7 +53715,7 @@
       <c r="E858" s="35"/>
       <c r="F858" s="19"/>
       <c r="G858" s="19"/>
-      <c r="H858" s="20"/>
+      <c r="H858" s="62"/>
       <c r="I858" s="20"/>
       <c r="J858" s="20"/>
       <c r="K858" s="20"/>
@@ -53718,7 +53742,7 @@
       <c r="E859" s="35"/>
       <c r="F859" s="19"/>
       <c r="G859" s="19"/>
-      <c r="H859" s="20"/>
+      <c r="H859" s="62"/>
       <c r="I859" s="20"/>
       <c r="J859" s="20"/>
       <c r="K859" s="20"/>
@@ -53745,7 +53769,7 @@
       <c r="E860" s="35"/>
       <c r="F860" s="19"/>
       <c r="G860" s="19"/>
-      <c r="H860" s="20"/>
+      <c r="H860" s="62"/>
       <c r="I860" s="20"/>
       <c r="J860" s="20"/>
       <c r="K860" s="20"/>
@@ -53772,7 +53796,7 @@
       <c r="E861" s="35"/>
       <c r="F861" s="19"/>
       <c r="G861" s="19"/>
-      <c r="H861" s="20"/>
+      <c r="H861" s="62"/>
       <c r="I861" s="20"/>
       <c r="J861" s="20"/>
       <c r="K861" s="20"/>
@@ -53799,7 +53823,7 @@
       <c r="E862" s="35"/>
       <c r="F862" s="19"/>
       <c r="G862" s="19"/>
-      <c r="H862" s="20"/>
+      <c r="H862" s="62"/>
       <c r="I862" s="20"/>
       <c r="J862" s="20"/>
       <c r="K862" s="20"/>
@@ -53826,7 +53850,7 @@
       <c r="E863" s="35"/>
       <c r="F863" s="19"/>
       <c r="G863" s="19"/>
-      <c r="H863" s="20"/>
+      <c r="H863" s="62"/>
       <c r="I863" s="20"/>
       <c r="J863" s="20"/>
       <c r="K863" s="20"/>
@@ -53853,7 +53877,7 @@
       <c r="E864" s="35"/>
       <c r="F864" s="19"/>
       <c r="G864" s="19"/>
-      <c r="H864" s="20"/>
+      <c r="H864" s="62"/>
       <c r="I864" s="20"/>
       <c r="J864" s="20"/>
       <c r="K864" s="20"/>
@@ -53880,7 +53904,7 @@
       <c r="E865" s="35"/>
       <c r="F865" s="19"/>
       <c r="G865" s="19"/>
-      <c r="H865" s="20"/>
+      <c r="H865" s="62"/>
       <c r="I865" s="20"/>
       <c r="J865" s="20"/>
       <c r="K865" s="20"/>
@@ -53907,7 +53931,7 @@
       <c r="E866" s="35"/>
       <c r="F866" s="19"/>
       <c r="G866" s="19"/>
-      <c r="H866" s="20"/>
+      <c r="H866" s="62"/>
       <c r="I866" s="20"/>
       <c r="J866" s="20"/>
       <c r="K866" s="20"/>
@@ -53934,7 +53958,7 @@
       <c r="E867" s="35"/>
       <c r="F867" s="19"/>
       <c r="G867" s="19"/>
-      <c r="H867" s="20"/>
+      <c r="H867" s="62"/>
       <c r="I867" s="20"/>
       <c r="J867" s="20"/>
       <c r="K867" s="20"/>
@@ -53961,7 +53985,7 @@
       <c r="E868" s="35"/>
       <c r="F868" s="19"/>
       <c r="G868" s="19"/>
-      <c r="H868" s="20"/>
+      <c r="H868" s="62"/>
       <c r="I868" s="20"/>
       <c r="J868" s="20"/>
       <c r="K868" s="20"/>
@@ -53988,7 +54012,7 @@
       <c r="E869" s="35"/>
       <c r="F869" s="19"/>
       <c r="G869" s="19"/>
-      <c r="H869" s="20"/>
+      <c r="H869" s="62"/>
       <c r="I869" s="20"/>
       <c r="J869" s="20"/>
       <c r="K869" s="20"/>
@@ -54015,7 +54039,7 @@
       <c r="E870" s="35"/>
       <c r="F870" s="19"/>
       <c r="G870" s="19"/>
-      <c r="H870" s="20"/>
+      <c r="H870" s="62"/>
       <c r="I870" s="20"/>
       <c r="J870" s="20"/>
       <c r="K870" s="20"/>
@@ -54042,7 +54066,7 @@
       <c r="E871" s="35"/>
       <c r="F871" s="19"/>
       <c r="G871" s="19"/>
-      <c r="H871" s="20"/>
+      <c r="H871" s="62"/>
       <c r="I871" s="20"/>
       <c r="J871" s="20"/>
       <c r="K871" s="20"/>
@@ -54069,7 +54093,7 @@
       <c r="E872" s="35"/>
       <c r="F872" s="19"/>
       <c r="G872" s="19"/>
-      <c r="H872" s="20"/>
+      <c r="H872" s="62"/>
       <c r="I872" s="20"/>
       <c r="J872" s="20"/>
       <c r="K872" s="20"/>
@@ -54096,7 +54120,7 @@
       <c r="E873" s="35"/>
       <c r="F873" s="19"/>
       <c r="G873" s="19"/>
-      <c r="H873" s="20"/>
+      <c r="H873" s="62"/>
       <c r="I873" s="20"/>
       <c r="J873" s="20"/>
       <c r="K873" s="20"/>
@@ -54123,7 +54147,7 @@
       <c r="E874" s="35"/>
       <c r="F874" s="19"/>
       <c r="G874" s="19"/>
-      <c r="H874" s="20"/>
+      <c r="H874" s="62"/>
       <c r="I874" s="20"/>
       <c r="J874" s="20"/>
       <c r="K874" s="20"/>
@@ -54150,7 +54174,7 @@
       <c r="E875" s="35"/>
       <c r="F875" s="19"/>
       <c r="G875" s="19"/>
-      <c r="H875" s="20"/>
+      <c r="H875" s="62"/>
       <c r="I875" s="20"/>
       <c r="J875" s="20"/>
       <c r="K875" s="20"/>
@@ -54177,7 +54201,7 @@
       <c r="E876" s="35"/>
       <c r="F876" s="19"/>
       <c r="G876" s="19"/>
-      <c r="H876" s="20"/>
+      <c r="H876" s="62"/>
       <c r="I876" s="20"/>
       <c r="J876" s="20"/>
       <c r="K876" s="20"/>
@@ -54204,7 +54228,7 @@
       <c r="E877" s="35"/>
       <c r="F877" s="19"/>
       <c r="G877" s="19"/>
-      <c r="H877" s="20"/>
+      <c r="H877" s="62"/>
       <c r="I877" s="20"/>
       <c r="J877" s="20"/>
       <c r="K877" s="20"/>
@@ -54231,7 +54255,7 @@
       <c r="E878" s="35"/>
       <c r="F878" s="19"/>
       <c r="G878" s="19"/>
-      <c r="H878" s="20"/>
+      <c r="H878" s="62"/>
       <c r="I878" s="20"/>
       <c r="J878" s="20"/>
       <c r="K878" s="20"/>
@@ -54258,7 +54282,7 @@
       <c r="E879" s="35"/>
       <c r="F879" s="19"/>
       <c r="G879" s="19"/>
-      <c r="H879" s="20"/>
+      <c r="H879" s="62"/>
       <c r="I879" s="20"/>
       <c r="J879" s="20"/>
       <c r="K879" s="20"/>
@@ -54285,7 +54309,7 @@
       <c r="E880" s="35"/>
       <c r="F880" s="19"/>
       <c r="G880" s="19"/>
-      <c r="H880" s="20"/>
+      <c r="H880" s="62"/>
       <c r="I880" s="20"/>
       <c r="J880" s="20"/>
       <c r="K880" s="20"/>
@@ -54312,7 +54336,7 @@
       <c r="E881" s="35"/>
       <c r="F881" s="19"/>
       <c r="G881" s="19"/>
-      <c r="H881" s="20"/>
+      <c r="H881" s="62"/>
       <c r="I881" s="20"/>
       <c r="J881" s="20"/>
       <c r="K881" s="20"/>
@@ -54339,7 +54363,7 @@
       <c r="E882" s="35"/>
       <c r="F882" s="19"/>
       <c r="G882" s="19"/>
-      <c r="H882" s="20"/>
+      <c r="H882" s="62"/>
       <c r="I882" s="20"/>
       <c r="J882" s="20"/>
       <c r="K882" s="20"/>
@@ -54366,7 +54390,7 @@
       <c r="E883" s="35"/>
       <c r="F883" s="19"/>
       <c r="G883" s="19"/>
-      <c r="H883" s="20"/>
+      <c r="H883" s="62"/>
       <c r="I883" s="20"/>
       <c r="J883" s="20"/>
       <c r="K883" s="20"/>
@@ -54393,7 +54417,7 @@
       <c r="E884" s="35"/>
       <c r="F884" s="19"/>
       <c r="G884" s="19"/>
-      <c r="H884" s="20"/>
+      <c r="H884" s="62"/>
       <c r="I884" s="20"/>
       <c r="J884" s="20"/>
       <c r="K884" s="20"/>
@@ -54420,7 +54444,7 @@
       <c r="E885" s="35"/>
       <c r="F885" s="19"/>
       <c r="G885" s="19"/>
-      <c r="H885" s="20"/>
+      <c r="H885" s="62"/>
       <c r="I885" s="20"/>
       <c r="J885" s="20"/>
       <c r="K885" s="20"/>
@@ -54447,7 +54471,7 @@
       <c r="E886" s="35"/>
       <c r="F886" s="19"/>
       <c r="G886" s="19"/>
-      <c r="H886" s="20"/>
+      <c r="H886" s="62"/>
       <c r="I886" s="20"/>
       <c r="J886" s="20"/>
       <c r="K886" s="20"/>
@@ -54474,7 +54498,7 @@
       <c r="E887" s="35"/>
       <c r="F887" s="19"/>
       <c r="G887" s="19"/>
-      <c r="H887" s="20"/>
+      <c r="H887" s="62"/>
       <c r="I887" s="20"/>
       <c r="J887" s="20"/>
       <c r="K887" s="20"/>
@@ -54501,7 +54525,7 @@
       <c r="E888" s="35"/>
       <c r="F888" s="19"/>
       <c r="G888" s="19"/>
-      <c r="H888" s="20"/>
+      <c r="H888" s="62"/>
       <c r="I888" s="20"/>
       <c r="J888" s="20"/>
       <c r="K888" s="20"/>
@@ -54528,7 +54552,7 @@
       <c r="E889" s="35"/>
       <c r="F889" s="19"/>
       <c r="G889" s="19"/>
-      <c r="H889" s="20"/>
+      <c r="H889" s="62"/>
       <c r="I889" s="20"/>
       <c r="J889" s="20"/>
       <c r="K889" s="20"/>
@@ -54555,7 +54579,7 @@
       <c r="E890" s="35"/>
       <c r="F890" s="19"/>
       <c r="G890" s="19"/>
-      <c r="H890" s="20"/>
+      <c r="H890" s="62"/>
       <c r="I890" s="20"/>
       <c r="J890" s="20"/>
       <c r="K890" s="20"/>
@@ -54582,7 +54606,7 @@
       <c r="E891" s="35"/>
       <c r="F891" s="19"/>
       <c r="G891" s="19"/>
-      <c r="H891" s="20"/>
+      <c r="H891" s="62"/>
       <c r="I891" s="20"/>
       <c r="J891" s="20"/>
       <c r="K891" s="20"/>
@@ -54609,7 +54633,7 @@
       <c r="E892" s="35"/>
       <c r="F892" s="19"/>
       <c r="G892" s="19"/>
-      <c r="H892" s="20"/>
+      <c r="H892" s="62"/>
       <c r="I892" s="20"/>
       <c r="J892" s="20"/>
       <c r="K892" s="20"/>
@@ -54636,7 +54660,7 @@
       <c r="E893" s="35"/>
       <c r="F893" s="19"/>
       <c r="G893" s="19"/>
-      <c r="H893" s="20"/>
+      <c r="H893" s="62"/>
       <c r="I893" s="20"/>
       <c r="J893" s="20"/>
       <c r="K893" s="20"/>
@@ -54663,7 +54687,7 @@
       <c r="E894" s="35"/>
       <c r="F894" s="19"/>
       <c r="G894" s="19"/>
-      <c r="H894" s="20"/>
+      <c r="H894" s="62"/>
       <c r="I894" s="20"/>
       <c r="J894" s="20"/>
       <c r="K894" s="20"/>
@@ -54690,7 +54714,7 @@
       <c r="E895" s="35"/>
       <c r="F895" s="19"/>
       <c r="G895" s="19"/>
-      <c r="H895" s="20"/>
+      <c r="H895" s="62"/>
       <c r="I895" s="20"/>
       <c r="J895" s="20"/>
       <c r="K895" s="20"/>
@@ -54717,7 +54741,7 @@
       <c r="E896" s="35"/>
       <c r="F896" s="19"/>
       <c r="G896" s="19"/>
-      <c r="H896" s="20"/>
+      <c r="H896" s="62"/>
       <c r="I896" s="20"/>
       <c r="J896" s="20"/>
       <c r="K896" s="20"/>
@@ -54744,7 +54768,7 @@
       <c r="E897" s="35"/>
       <c r="F897" s="19"/>
       <c r="G897" s="19"/>
-      <c r="H897" s="20"/>
+      <c r="H897" s="62"/>
       <c r="I897" s="20"/>
       <c r="J897" s="20"/>
       <c r="K897" s="20"/>
@@ -54771,7 +54795,7 @@
       <c r="E898" s="35"/>
       <c r="F898" s="19"/>
       <c r="G898" s="19"/>
-      <c r="H898" s="20"/>
+      <c r="H898" s="62"/>
       <c r="I898" s="20"/>
       <c r="J898" s="20"/>
       <c r="K898" s="20"/>
@@ -54798,7 +54822,7 @@
       <c r="E899" s="35"/>
       <c r="F899" s="19"/>
       <c r="G899" s="19"/>
-      <c r="H899" s="20"/>
+      <c r="H899" s="62"/>
       <c r="I899" s="20"/>
       <c r="J899" s="20"/>
       <c r="K899" s="20"/>
@@ -54825,7 +54849,7 @@
       <c r="E900" s="35"/>
       <c r="F900" s="19"/>
       <c r="G900" s="19"/>
-      <c r="H900" s="20"/>
+      <c r="H900" s="62"/>
       <c r="I900" s="20"/>
       <c r="J900" s="20"/>
       <c r="K900" s="20"/>
@@ -54852,7 +54876,7 @@
       <c r="E901" s="35"/>
       <c r="F901" s="19"/>
       <c r="G901" s="19"/>
-      <c r="H901" s="20"/>
+      <c r="H901" s="62"/>
       <c r="I901" s="20"/>
       <c r="J901" s="20"/>
       <c r="K901" s="20"/>
@@ -54879,7 +54903,7 @@
       <c r="E902" s="35"/>
       <c r="F902" s="19"/>
       <c r="G902" s="19"/>
-      <c r="H902" s="20"/>
+      <c r="H902" s="62"/>
       <c r="I902" s="20"/>
       <c r="J902" s="20"/>
       <c r="K902" s="20"/>
@@ -54906,7 +54930,7 @@
       <c r="E903" s="35"/>
       <c r="F903" s="19"/>
       <c r="G903" s="19"/>
-      <c r="H903" s="20"/>
+      <c r="H903" s="62"/>
       <c r="I903" s="20"/>
       <c r="J903" s="20"/>
       <c r="K903" s="20"/>
@@ -54933,7 +54957,7 @@
       <c r="E904" s="35"/>
       <c r="F904" s="19"/>
       <c r="G904" s="19"/>
-      <c r="H904" s="20"/>
+      <c r="H904" s="62"/>
       <c r="I904" s="20"/>
       <c r="J904" s="20"/>
       <c r="K904" s="20"/>
@@ -54960,7 +54984,7 @@
       <c r="E905" s="35"/>
       <c r="F905" s="19"/>
       <c r="G905" s="19"/>
-      <c r="H905" s="20"/>
+      <c r="H905" s="62"/>
       <c r="I905" s="20"/>
       <c r="J905" s="20"/>
       <c r="K905" s="20"/>
@@ -54987,7 +55011,7 @@
       <c r="E906" s="35"/>
       <c r="F906" s="19"/>
       <c r="G906" s="19"/>
-      <c r="H906" s="20"/>
+      <c r="H906" s="62"/>
       <c r="I906" s="20"/>
       <c r="J906" s="20"/>
       <c r="K906" s="20"/>
@@ -55014,7 +55038,7 @@
       <c r="E907" s="35"/>
       <c r="F907" s="19"/>
       <c r="G907" s="19"/>
-      <c r="H907" s="20"/>
+      <c r="H907" s="62"/>
       <c r="I907" s="20"/>
       <c r="J907" s="20"/>
       <c r="K907" s="20"/>
@@ -55041,7 +55065,7 @@
       <c r="E908" s="35"/>
       <c r="F908" s="19"/>
       <c r="G908" s="19"/>
-      <c r="H908" s="20"/>
+      <c r="H908" s="62"/>
       <c r="I908" s="20"/>
       <c r="J908" s="20"/>
       <c r="K908" s="20"/>
@@ -55068,7 +55092,7 @@
       <c r="E909" s="35"/>
       <c r="F909" s="19"/>
       <c r="G909" s="19"/>
-      <c r="H909" s="20"/>
+      <c r="H909" s="62"/>
       <c r="I909" s="20"/>
       <c r="J909" s="20"/>
       <c r="K909" s="20"/>
@@ -55095,7 +55119,7 @@
       <c r="E910" s="35"/>
       <c r="F910" s="19"/>
       <c r="G910" s="19"/>
-      <c r="H910" s="20"/>
+      <c r="H910" s="62"/>
       <c r="I910" s="20"/>
       <c r="J910" s="20"/>
       <c r="K910" s="20"/>
@@ -55122,7 +55146,7 @@
       <c r="E911" s="35"/>
       <c r="F911" s="19"/>
       <c r="G911" s="19"/>
-      <c r="H911" s="20"/>
+      <c r="H911" s="62"/>
       <c r="I911" s="20"/>
       <c r="J911" s="20"/>
       <c r="K911" s="20"/>
@@ -55149,7 +55173,7 @@
       <c r="E912" s="35"/>
       <c r="F912" s="19"/>
       <c r="G912" s="19"/>
-      <c r="H912" s="20"/>
+      <c r="H912" s="62"/>
       <c r="I912" s="20"/>
       <c r="J912" s="20"/>
       <c r="K912" s="20"/>
@@ -55176,7 +55200,7 @@
       <c r="E913" s="35"/>
       <c r="F913" s="19"/>
       <c r="G913" s="19"/>
-      <c r="H913" s="20"/>
+      <c r="H913" s="62"/>
       <c r="I913" s="20"/>
       <c r="J913" s="20"/>
       <c r="K913" s="20"/>
@@ -55203,7 +55227,7 @@
       <c r="E914" s="35"/>
       <c r="F914" s="19"/>
       <c r="G914" s="19"/>
-      <c r="H914" s="20"/>
+      <c r="H914" s="62"/>
       <c r="I914" s="20"/>
       <c r="J914" s="20"/>
       <c r="K914" s="20"/>
@@ -55230,7 +55254,7 @@
       <c r="E915" s="35"/>
       <c r="F915" s="19"/>
       <c r="G915" s="19"/>
-      <c r="H915" s="20"/>
+      <c r="H915" s="62"/>
       <c r="I915" s="20"/>
       <c r="J915" s="20"/>
       <c r="K915" s="20"/>
@@ -55257,7 +55281,7 @@
       <c r="E916" s="35"/>
       <c r="F916" s="19"/>
       <c r="G916" s="19"/>
-      <c r="H916" s="20"/>
+      <c r="H916" s="62"/>
       <c r="I916" s="20"/>
       <c r="J916" s="20"/>
       <c r="K916" s="20"/>
@@ -55284,7 +55308,7 @@
       <c r="E917" s="35"/>
       <c r="F917" s="19"/>
       <c r="G917" s="19"/>
-      <c r="H917" s="20"/>
+      <c r="H917" s="62"/>
       <c r="I917" s="20"/>
       <c r="J917" s="20"/>
       <c r="K917" s="20"/>
@@ -55311,7 +55335,7 @@
       <c r="E918" s="35"/>
       <c r="F918" s="19"/>
       <c r="G918" s="19"/>
-      <c r="H918" s="20"/>
+      <c r="H918" s="62"/>
       <c r="I918" s="20"/>
       <c r="J918" s="20"/>
       <c r="K918" s="20"/>
@@ -55338,7 +55362,7 @@
       <c r="E919" s="35"/>
       <c r="F919" s="19"/>
       <c r="G919" s="19"/>
-      <c r="H919" s="20"/>
+      <c r="H919" s="62"/>
       <c r="I919" s="20"/>
       <c r="J919" s="20"/>
       <c r="K919" s="20"/>
@@ -55365,7 +55389,7 @@
       <c r="E920" s="35"/>
       <c r="F920" s="19"/>
       <c r="G920" s="19"/>
-      <c r="H920" s="20"/>
+      <c r="H920" s="62"/>
       <c r="I920" s="20"/>
       <c r="J920" s="20"/>
       <c r="K920" s="20"/>
@@ -55392,7 +55416,7 @@
       <c r="E921" s="35"/>
       <c r="F921" s="19"/>
       <c r="G921" s="19"/>
-      <c r="H921" s="20"/>
+      <c r="H921" s="62"/>
       <c r="I921" s="20"/>
       <c r="J921" s="20"/>
       <c r="K921" s="20"/>
@@ -55419,7 +55443,7 @@
       <c r="E922" s="35"/>
       <c r="F922" s="19"/>
       <c r="G922" s="19"/>
-      <c r="H922" s="20"/>
+      <c r="H922" s="62"/>
       <c r="I922" s="20"/>
       <c r="J922" s="20"/>
       <c r="K922" s="20"/>
@@ -55446,7 +55470,7 @@
       <c r="E923" s="35"/>
       <c r="F923" s="19"/>
       <c r="G923" s="19"/>
-      <c r="H923" s="20"/>
+      <c r="H923" s="62"/>
       <c r="I923" s="20"/>
       <c r="J923" s="20"/>
       <c r="K923" s="20"/>
@@ -55473,7 +55497,7 @@
       <c r="E924" s="35"/>
       <c r="F924" s="19"/>
       <c r="G924" s="19"/>
-      <c r="H924" s="20"/>
+      <c r="H924" s="62"/>
       <c r="I924" s="20"/>
       <c r="J924" s="20"/>
       <c r="K924" s="20"/>
@@ -55500,7 +55524,7 @@
       <c r="E925" s="35"/>
       <c r="F925" s="19"/>
       <c r="G925" s="19"/>
-      <c r="H925" s="20"/>
+      <c r="H925" s="62"/>
       <c r="I925" s="20"/>
       <c r="J925" s="20"/>
       <c r="K925" s="20"/>
@@ -55527,7 +55551,7 @@
       <c r="E926" s="35"/>
       <c r="F926" s="19"/>
       <c r="G926" s="19"/>
-      <c r="H926" s="20"/>
+      <c r="H926" s="62"/>
       <c r="I926" s="20"/>
       <c r="J926" s="20"/>
       <c r="K926" s="20"/>
@@ -55554,7 +55578,7 @@
       <c r="E927" s="35"/>
       <c r="F927" s="19"/>
       <c r="G927" s="19"/>
-      <c r="H927" s="20"/>
+      <c r="H927" s="62"/>
       <c r="I927" s="20"/>
       <c r="J927" s="20"/>
       <c r="K927" s="20"/>
@@ -55581,7 +55605,7 @@
       <c r="E928" s="35"/>
       <c r="F928" s="19"/>
       <c r="G928" s="19"/>
-      <c r="H928" s="20"/>
+      <c r="H928" s="62"/>
       <c r="I928" s="20"/>
       <c r="J928" s="20"/>
       <c r="K928" s="20"/>
@@ -55608,7 +55632,7 @@
       <c r="E929" s="35"/>
       <c r="F929" s="19"/>
       <c r="G929" s="19"/>
-      <c r="H929" s="20"/>
+      <c r="H929" s="62"/>
       <c r="I929" s="20"/>
       <c r="J929" s="20"/>
       <c r="K929" s="20"/>
@@ -55635,7 +55659,7 @@
       <c r="E930" s="35"/>
       <c r="F930" s="19"/>
       <c r="G930" s="19"/>
-      <c r="H930" s="20"/>
+      <c r="H930" s="62"/>
       <c r="I930" s="20"/>
       <c r="J930" s="20"/>
       <c r="K930" s="20"/>
@@ -55662,7 +55686,7 @@
       <c r="E931" s="35"/>
       <c r="F931" s="19"/>
       <c r="G931" s="19"/>
-      <c r="H931" s="20"/>
+      <c r="H931" s="62"/>
       <c r="I931" s="20"/>
       <c r="J931" s="20"/>
       <c r="K931" s="20"/>
@@ -55689,7 +55713,7 @@
       <c r="E932" s="35"/>
       <c r="F932" s="19"/>
       <c r="G932" s="19"/>
-      <c r="H932" s="20"/>
+      <c r="H932" s="62"/>
       <c r="I932" s="20"/>
       <c r="J932" s="20"/>
       <c r="K932" s="20"/>
@@ -55716,7 +55740,7 @@
       <c r="E933" s="35"/>
       <c r="F933" s="19"/>
       <c r="G933" s="19"/>
-      <c r="H933" s="20"/>
+      <c r="H933" s="62"/>
       <c r="I933" s="20"/>
       <c r="J933" s="20"/>
       <c r="K933" s="20"/>
@@ -55743,7 +55767,7 @@
       <c r="E934" s="35"/>
       <c r="F934" s="19"/>
       <c r="G934" s="19"/>
-      <c r="H934" s="20"/>
+      <c r="H934" s="62"/>
       <c r="I934" s="20"/>
       <c r="J934" s="20"/>
       <c r="K934" s="20"/>
@@ -55770,7 +55794,7 @@
       <c r="E935" s="35"/>
       <c r="F935" s="19"/>
       <c r="G935" s="19"/>
-      <c r="H935" s="20"/>
+      <c r="H935" s="62"/>
       <c r="I935" s="20"/>
       <c r="J935" s="20"/>
       <c r="K935" s="20"/>
@@ -55797,7 +55821,7 @@
       <c r="E936" s="35"/>
       <c r="F936" s="19"/>
       <c r="G936" s="19"/>
-      <c r="H936" s="20"/>
+      <c r="H936" s="62"/>
       <c r="I936" s="20"/>
       <c r="J936" s="20"/>
       <c r="K936" s="20"/>
@@ -55824,7 +55848,7 @@
       <c r="E937" s="35"/>
       <c r="F937" s="19"/>
       <c r="G937" s="19"/>
-      <c r="H937" s="20"/>
+      <c r="H937" s="62"/>
       <c r="I937" s="20"/>
       <c r="J937" s="20"/>
       <c r="K937" s="20"/>
@@ -55851,7 +55875,7 @@
       <c r="E938" s="35"/>
       <c r="F938" s="19"/>
       <c r="G938" s="19"/>
-      <c r="H938" s="20"/>
+      <c r="H938" s="62"/>
       <c r="I938" s="20"/>
       <c r="J938" s="20"/>
       <c r="K938" s="20"/>
@@ -55878,7 +55902,7 @@
       <c r="E939" s="35"/>
       <c r="F939" s="19"/>
       <c r="G939" s="19"/>
-      <c r="H939" s="20"/>
+      <c r="H939" s="62"/>
       <c r="I939" s="20"/>
       <c r="J939" s="20"/>
       <c r="K939" s="20"/>
@@ -55905,7 +55929,7 @@
       <c r="E940" s="35"/>
       <c r="F940" s="19"/>
       <c r="G940" s="19"/>
-      <c r="H940" s="20"/>
+      <c r="H940" s="62"/>
       <c r="I940" s="20"/>
       <c r="J940" s="20"/>
       <c r="K940" s="20"/>
@@ -55932,7 +55956,7 @@
       <c r="E941" s="35"/>
       <c r="F941" s="19"/>
       <c r="G941" s="19"/>
-      <c r="H941" s="20"/>
+      <c r="H941" s="62"/>
       <c r="I941" s="20"/>
       <c r="J941" s="20"/>
       <c r="K941" s="20"/>
@@ -55959,7 +55983,7 @@
       <c r="E942" s="35"/>
       <c r="F942" s="19"/>
       <c r="G942" s="19"/>
-      <c r="H942" s="20"/>
+      <c r="H942" s="62"/>
       <c r="I942" s="20"/>
       <c r="J942" s="20"/>
       <c r="K942" s="20"/>
@@ -55986,7 +56010,7 @@
       <c r="E943" s="35"/>
       <c r="F943" s="19"/>
       <c r="G943" s="19"/>
-      <c r="H943" s="20"/>
+      <c r="H943" s="62"/>
       <c r="I943" s="20"/>
       <c r="J943" s="20"/>
       <c r="K943" s="20"/>
@@ -56013,7 +56037,7 @@
       <c r="E944" s="35"/>
       <c r="F944" s="19"/>
       <c r="G944" s="19"/>
-      <c r="H944" s="20"/>
+      <c r="H944" s="62"/>
       <c r="I944" s="20"/>
       <c r="J944" s="20"/>
       <c r="K944" s="20"/>
@@ -56040,7 +56064,7 @@
       <c r="E945" s="35"/>
       <c r="F945" s="19"/>
       <c r="G945" s="19"/>
-      <c r="H945" s="20"/>
+      <c r="H945" s="62"/>
       <c r="I945" s="20"/>
       <c r="J945" s="20"/>
       <c r="K945" s="20"/>
@@ -56067,7 +56091,7 @@
       <c r="E946" s="35"/>
       <c r="F946" s="19"/>
       <c r="G946" s="19"/>
-      <c r="H946" s="20"/>
+      <c r="H946" s="62"/>
       <c r="I946" s="20"/>
       <c r="J946" s="20"/>
       <c r="K946" s="20"/>
@@ -56094,7 +56118,7 @@
       <c r="E947" s="35"/>
       <c r="F947" s="19"/>
       <c r="G947" s="19"/>
-      <c r="H947" s="20"/>
+      <c r="H947" s="62"/>
       <c r="I947" s="20"/>
       <c r="J947" s="20"/>
       <c r="K947" s="20"/>
@@ -56121,7 +56145,7 @@
       <c r="E948" s="35"/>
       <c r="F948" s="19"/>
       <c r="G948" s="19"/>
-      <c r="H948" s="20"/>
+      <c r="H948" s="62"/>
       <c r="I948" s="20"/>
       <c r="J948" s="20"/>
       <c r="K948" s="20"/>
@@ -56148,7 +56172,7 @@
       <c r="E949" s="35"/>
       <c r="F949" s="19"/>
       <c r="G949" s="19"/>
-      <c r="H949" s="20"/>
+      <c r="H949" s="62"/>
       <c r="I949" s="20"/>
       <c r="J949" s="20"/>
       <c r="K949" s="20"/>
@@ -56175,7 +56199,7 @@
       <c r="E950" s="35"/>
       <c r="F950" s="19"/>
       <c r="G950" s="19"/>
-      <c r="H950" s="20"/>
+      <c r="H950" s="62"/>
       <c r="I950" s="20"/>
       <c r="J950" s="20"/>
       <c r="K950" s="20"/>
@@ -56202,7 +56226,7 @@
       <c r="E951" s="35"/>
       <c r="F951" s="19"/>
       <c r="G951" s="19"/>
-      <c r="H951" s="20"/>
+      <c r="H951" s="62"/>
       <c r="I951" s="20"/>
       <c r="J951" s="20"/>
       <c r="K951" s="20"/>
@@ -56229,7 +56253,7 @@
       <c r="E952" s="35"/>
       <c r="F952" s="19"/>
       <c r="G952" s="19"/>
-      <c r="H952" s="20"/>
+      <c r="H952" s="62"/>
       <c r="I952" s="20"/>
       <c r="J952" s="20"/>
       <c r="K952" s="20"/>
@@ -56256,7 +56280,7 @@
       <c r="E953" s="35"/>
       <c r="F953" s="19"/>
       <c r="G953" s="19"/>
-      <c r="H953" s="20"/>
+      <c r="H953" s="62"/>
       <c r="I953" s="20"/>
       <c r="J953" s="20"/>
       <c r="K953" s="20"/>
@@ -56283,7 +56307,7 @@
       <c r="E954" s="35"/>
       <c r="F954" s="19"/>
       <c r="G954" s="19"/>
-      <c r="H954" s="20"/>
+      <c r="H954" s="62"/>
       <c r="I954" s="20"/>
       <c r="J954" s="20"/>
       <c r="K954" s="20"/>
@@ -56310,7 +56334,7 @@
       <c r="E955" s="35"/>
       <c r="F955" s="19"/>
       <c r="G955" s="19"/>
-      <c r="H955" s="20"/>
+      <c r="H955" s="62"/>
       <c r="I955" s="20"/>
       <c r="J955" s="20"/>
       <c r="K955" s="20"/>
@@ -56337,7 +56361,7 @@
       <c r="E956" s="35"/>
       <c r="F956" s="19"/>
       <c r="G956" s="19"/>
-      <c r="H956" s="20"/>
+      <c r="H956" s="62"/>
       <c r="I956" s="20"/>
       <c r="J956" s="20"/>
       <c r="K956" s="20"/>
@@ -56364,7 +56388,7 @@
       <c r="E957" s="35"/>
       <c r="F957" s="19"/>
       <c r="G957" s="19"/>
-      <c r="H957" s="20"/>
+      <c r="H957" s="62"/>
       <c r="I957" s="20"/>
       <c r="J957" s="20"/>
       <c r="K957" s="20"/>
@@ -56391,7 +56415,7 @@
       <c r="E958" s="35"/>
       <c r="F958" s="19"/>
       <c r="G958" s="19"/>
-      <c r="H958" s="20"/>
+      <c r="H958" s="62"/>
       <c r="I958" s="20"/>
       <c r="J958" s="20"/>
       <c r="K958" s="20"/>
@@ -56418,7 +56442,7 @@
       <c r="E959" s="35"/>
       <c r="F959" s="19"/>
       <c r="G959" s="19"/>
-      <c r="H959" s="20"/>
+      <c r="H959" s="62"/>
       <c r="I959" s="20"/>
       <c r="J959" s="20"/>
       <c r="K959" s="20"/>
@@ -56445,7 +56469,7 @@
       <c r="E960" s="35"/>
       <c r="F960" s="19"/>
       <c r="G960" s="19"/>
-      <c r="H960" s="20"/>
+      <c r="H960" s="62"/>
       <c r="I960" s="20"/>
       <c r="J960" s="20"/>
       <c r="K960" s="20"/>
@@ -56472,7 +56496,7 @@
       <c r="E961" s="35"/>
       <c r="F961" s="19"/>
       <c r="G961" s="19"/>
-      <c r="H961" s="20"/>
+      <c r="H961" s="62"/>
       <c r="I961" s="20"/>
       <c r="J961" s="20"/>
       <c r="K961" s="20"/>
@@ -56499,7 +56523,7 @@
       <c r="E962" s="35"/>
       <c r="F962" s="19"/>
       <c r="G962" s="19"/>
-      <c r="H962" s="20"/>
+      <c r="H962" s="62"/>
       <c r="I962" s="20"/>
       <c r="J962" s="20"/>
       <c r="K962" s="20"/>
@@ -56526,7 +56550,7 @@
       <c r="E963" s="35"/>
       <c r="F963" s="19"/>
       <c r="G963" s="19"/>
-      <c r="H963" s="20"/>
+      <c r="H963" s="62"/>
       <c r="I963" s="20"/>
       <c r="J963" s="20"/>
       <c r="K963" s="20"/>
@@ -56553,7 +56577,7 @@
       <c r="E964" s="35"/>
       <c r="F964" s="19"/>
       <c r="G964" s="19"/>
-      <c r="H964" s="20"/>
+      <c r="H964" s="62"/>
       <c r="I964" s="20"/>
       <c r="J964" s="20"/>
       <c r="K964" s="20"/>
@@ -56580,7 +56604,7 @@
       <c r="E965" s="35"/>
       <c r="F965" s="19"/>
       <c r="G965" s="19"/>
-      <c r="H965" s="20"/>
+      <c r="H965" s="62"/>
       <c r="I965" s="20"/>
       <c r="J965" s="20"/>
       <c r="K965" s="20"/>
@@ -56607,7 +56631,7 @@
       <c r="E966" s="35"/>
       <c r="F966" s="19"/>
       <c r="G966" s="19"/>
-      <c r="H966" s="20"/>
+      <c r="H966" s="62"/>
       <c r="I966" s="20"/>
       <c r="J966" s="20"/>
       <c r="K966" s="20"/>
@@ -56634,7 +56658,7 @@
       <c r="E967" s="35"/>
       <c r="F967" s="19"/>
       <c r="G967" s="19"/>
-      <c r="H967" s="20"/>
+      <c r="H967" s="62"/>
       <c r="I967" s="20"/>
       <c r="J967" s="20"/>
       <c r="K967" s="20"/>
@@ -56661,7 +56685,7 @@
       <c r="E968" s="35"/>
       <c r="F968" s="19"/>
       <c r="G968" s="19"/>
-      <c r="H968" s="20"/>
+      <c r="H968" s="62"/>
       <c r="I968" s="20"/>
       <c r="J968" s="20"/>
       <c r="K968" s="20"/>
@@ -56688,7 +56712,7 @@
       <c r="E969" s="35"/>
       <c r="F969" s="19"/>
       <c r="G969" s="19"/>
-      <c r="H969" s="20"/>
+      <c r="H969" s="62"/>
       <c r="I969" s="20"/>
       <c r="J969" s="20"/>
       <c r="K969" s="20"/>
@@ -56715,7 +56739,7 @@
       <c r="E970" s="35"/>
       <c r="F970" s="19"/>
       <c r="G970" s="19"/>
-      <c r="H970" s="20"/>
+      <c r="H970" s="62"/>
       <c r="I970" s="20"/>
       <c r="J970" s="20"/>
       <c r="K970" s="20"/>
@@ -56742,7 +56766,7 @@
       <c r="E971" s="35"/>
       <c r="F971" s="19"/>
       <c r="G971" s="19"/>
-      <c r="H971" s="20"/>
+      <c r="H971" s="62"/>
       <c r="I971" s="20"/>
       <c r="J971" s="20"/>
       <c r="K971" s="20"/>
@@ -56769,7 +56793,7 @@
       <c r="E972" s="35"/>
       <c r="F972" s="19"/>
       <c r="G972" s="19"/>
-      <c r="H972" s="20"/>
+      <c r="H972" s="62"/>
       <c r="I972" s="20"/>
       <c r="J972" s="20"/>
       <c r="K972" s="20"/>
@@ -56796,7 +56820,7 @@
       <c r="E973" s="35"/>
       <c r="F973" s="19"/>
       <c r="G973" s="19"/>
-      <c r="H973" s="20"/>
+      <c r="H973" s="62"/>
       <c r="I973" s="20"/>
       <c r="J973" s="20"/>
       <c r="K973" s="20"/>
@@ -56823,7 +56847,7 @@
       <c r="E974" s="35"/>
       <c r="F974" s="19"/>
       <c r="G974" s="19"/>
-      <c r="H974" s="20"/>
+      <c r="H974" s="62"/>
       <c r="I974" s="20"/>
       <c r="J974" s="20"/>
       <c r="K974" s="20"/>
@@ -56850,7 +56874,7 @@
       <c r="E975" s="35"/>
       <c r="F975" s="19"/>
       <c r="G975" s="19"/>
-      <c r="H975" s="20"/>
+      <c r="H975" s="62"/>
       <c r="I975" s="20"/>
       <c r="J975" s="20"/>
       <c r="K975" s="20"/>
@@ -56877,7 +56901,7 @@
       <c r="E976" s="35"/>
       <c r="F976" s="19"/>
       <c r="G976" s="19"/>
-      <c r="H976" s="20"/>
+      <c r="H976" s="62"/>
       <c r="I976" s="20"/>
       <c r="J976" s="20"/>
       <c r="K976" s="20"/>
@@ -56904,7 +56928,7 @@
       <c r="E977" s="35"/>
       <c r="F977" s="19"/>
       <c r="G977" s="19"/>
-      <c r="H977" s="20"/>
+      <c r="H977" s="62"/>
       <c r="I977" s="20"/>
       <c r="J977" s="20"/>
       <c r="K977" s="20"/>
@@ -56931,7 +56955,7 @@
       <c r="E978" s="35"/>
       <c r="F978" s="19"/>
       <c r="G978" s="19"/>
-      <c r="H978" s="20"/>
+      <c r="H978" s="62"/>
       <c r="I978" s="20"/>
       <c r="J978" s="20"/>
       <c r="K978" s="20"/>
@@ -56958,7 +56982,7 @@
       <c r="E979" s="35"/>
       <c r="F979" s="19"/>
       <c r="G979" s="19"/>
-      <c r="H979" s="20"/>
+      <c r="H979" s="62"/>
       <c r="I979" s="20"/>
       <c r="J979" s="20"/>
       <c r="K979" s="20"/>
@@ -56985,7 +57009,7 @@
       <c r="E980" s="35"/>
       <c r="F980" s="19"/>
       <c r="G980" s="19"/>
-      <c r="H980" s="20"/>
+      <c r="H980" s="62"/>
       <c r="I980" s="20"/>
       <c r="J980" s="20"/>
       <c r="K980" s="20"/>
@@ -57012,7 +57036,7 @@
       <c r="E981" s="35"/>
       <c r="F981" s="19"/>
       <c r="G981" s="19"/>
-      <c r="H981" s="20"/>
+      <c r="H981" s="62"/>
       <c r="I981" s="20"/>
       <c r="J981" s="20"/>
       <c r="K981" s="20"/>
@@ -57039,7 +57063,7 @@
       <c r="E982" s="35"/>
       <c r="F982" s="19"/>
       <c r="G982" s="19"/>
-      <c r="H982" s="20"/>
+      <c r="H982" s="62"/>
       <c r="I982" s="20"/>
       <c r="J982" s="20"/>
       <c r="K982" s="20"/>
@@ -57066,7 +57090,7 @@
       <c r="E983" s="35"/>
       <c r="F983" s="19"/>
       <c r="G983" s="19"/>
-      <c r="H983" s="20"/>
+      <c r="H983" s="62"/>
       <c r="I983" s="20"/>
       <c r="J983" s="20"/>
       <c r="K983" s="20"/>
@@ -57093,7 +57117,7 @@
       <c r="E984" s="35"/>
       <c r="F984" s="19"/>
       <c r="G984" s="19"/>
-      <c r="H984" s="20"/>
+      <c r="H984" s="62"/>
       <c r="I984" s="20"/>
       <c r="J984" s="20"/>
       <c r="K984" s="20"/>
@@ -57120,7 +57144,7 @@
       <c r="E985" s="35"/>
       <c r="F985" s="19"/>
       <c r="G985" s="19"/>
-      <c r="H985" s="20"/>
+      <c r="H985" s="62"/>
       <c r="I985" s="20"/>
       <c r="J985" s="20"/>
       <c r="K985" s="20"/>
@@ -57147,7 +57171,7 @@
       <c r="E986" s="35"/>
       <c r="F986" s="19"/>
       <c r="G986" s="19"/>
-      <c r="H986" s="20"/>
+      <c r="H986" s="62"/>
       <c r="I986" s="20"/>
       <c r="J986" s="20"/>
       <c r="K986" s="20"/>
@@ -57174,7 +57198,7 @@
       <c r="E987" s="35"/>
       <c r="F987" s="19"/>
       <c r="G987" s="19"/>
-      <c r="H987" s="20"/>
+      <c r="H987" s="62"/>
       <c r="I987" s="20"/>
       <c r="J987" s="20"/>
       <c r="K987" s="20"/>
@@ -57201,7 +57225,7 @@
       <c r="E988" s="35"/>
       <c r="F988" s="19"/>
       <c r="G988" s="19"/>
-      <c r="H988" s="20"/>
+      <c r="H988" s="62"/>
       <c r="I988" s="20"/>
       <c r="J988" s="20"/>
       <c r="K988" s="20"/>
@@ -57228,7 +57252,7 @@
       <c r="E989" s="35"/>
       <c r="F989" s="19"/>
       <c r="G989" s="19"/>
-      <c r="H989" s="20"/>
+      <c r="H989" s="62"/>
       <c r="I989" s="20"/>
       <c r="J989" s="20"/>
       <c r="K989" s="20"/>
@@ -57255,7 +57279,7 @@
       <c r="E990" s="35"/>
       <c r="F990" s="19"/>
       <c r="G990" s="19"/>
-      <c r="H990" s="20"/>
+      <c r="H990" s="62"/>
       <c r="I990" s="20"/>
       <c r="J990" s="20"/>
       <c r="K990" s="20"/>
@@ -57282,7 +57306,7 @@
       <c r="E991" s="35"/>
       <c r="F991" s="19"/>
       <c r="G991" s="19"/>
-      <c r="H991" s="20"/>
+      <c r="H991" s="62"/>
       <c r="I991" s="20"/>
       <c r="J991" s="20"/>
       <c r="K991" s="20"/>
@@ -57309,7 +57333,7 @@
       <c r="E992" s="35"/>
       <c r="F992" s="19"/>
       <c r="G992" s="19"/>
-      <c r="H992" s="20"/>
+      <c r="H992" s="62"/>
       <c r="I992" s="20"/>
       <c r="J992" s="20"/>
       <c r="K992" s="20"/>
@@ -57336,7 +57360,7 @@
       <c r="E993" s="35"/>
       <c r="F993" s="19"/>
       <c r="G993" s="19"/>
-      <c r="H993" s="20"/>
+      <c r="H993" s="62"/>
       <c r="I993" s="20"/>
       <c r="J993" s="20"/>
       <c r="K993" s="20"/>
@@ -57363,7 +57387,7 @@
       <c r="E994" s="35"/>
       <c r="F994" s="19"/>
       <c r="G994" s="19"/>
-      <c r="H994" s="20"/>
+      <c r="H994" s="62"/>
       <c r="I994" s="20"/>
       <c r="J994" s="20"/>
       <c r="K994" s="20"/>
@@ -57390,7 +57414,7 @@
       <c r="E995" s="35"/>
       <c r="F995" s="19"/>
       <c r="G995" s="19"/>
-      <c r="H995" s="20"/>
+      <c r="H995" s="62"/>
       <c r="I995" s="20"/>
       <c r="J995" s="20"/>
       <c r="K995" s="20"/>
@@ -57417,7 +57441,7 @@
       <c r="E996" s="35"/>
       <c r="F996" s="19"/>
       <c r="G996" s="19"/>
-      <c r="H996" s="20"/>
+      <c r="H996" s="62"/>
       <c r="I996" s="20"/>
       <c r="J996" s="20"/>
       <c r="K996" s="20"/>
@@ -57444,7 +57468,7 @@
       <c r="E997" s="35"/>
       <c r="F997" s="19"/>
       <c r="G997" s="19"/>
-      <c r="H997" s="20"/>
+      <c r="H997" s="62"/>
       <c r="I997" s="20"/>
       <c r="J997" s="20"/>
       <c r="K997" s="20"/>
@@ -57471,7 +57495,7 @@
       <c r="E998" s="35"/>
       <c r="F998" s="19"/>
       <c r="G998" s="19"/>
-      <c r="H998" s="20"/>
+      <c r="H998" s="62"/>
       <c r="I998" s="20"/>
       <c r="J998" s="20"/>
       <c r="K998" s="20"/>

--- a/Requirments/CAR_RTM .xlsx
+++ b/Requirments/CAR_RTM .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatma\Desktop\CarPurchasing\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="310">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -1226,6 +1226,30 @@
     <t>javascript fun -&gt; edit();
 table-users(email,address)</t>
   </si>
+  <si>
+    <t>Car_Details_01</t>
+  </si>
+  <si>
+    <t>Car_Details_02</t>
+  </si>
+  <si>
+    <t>Car_Details_03</t>
+  </si>
+  <si>
+    <t>Car_Reservation_01</t>
+  </si>
+  <si>
+    <t>Car_Reservation_02 Car_Reservation_03 Car_Reservation_04</t>
+  </si>
+  <si>
+    <t>Car_MyProfile_01
+Car_MyProfile_02</t>
+  </si>
+  <si>
+    <t>Car_MyProfile_03
+Car_EditInformation_01
+Car_EditInformation_02</t>
+  </si>
 </sst>
 </file>
 
@@ -30118,8 +30142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D54" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30130,7 +30154,7 @@
     <col min="4" max="5" width="28.42578125" style="28" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" style="28" customWidth="1"/>
     <col min="7" max="8" width="36.42578125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="20" style="60" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="28" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="28" customWidth="1"/>
     <col min="12" max="12" width="10" style="28" customWidth="1"/>
@@ -30597,7 +30621,9 @@
       <c r="H12" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="52" t="s">
+        <v>304</v>
+      </c>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
@@ -31143,7 +31169,9 @@
       <c r="H25" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="I25" s="53"/>
+      <c r="I25" s="53" t="s">
+        <v>305</v>
+      </c>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
@@ -31359,7 +31387,9 @@
       <c r="H30" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="I30" s="52"/>
+      <c r="I30" s="52" t="s">
+        <v>309</v>
+      </c>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
@@ -31399,7 +31429,9 @@
       <c r="H31" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="I31" s="53"/>
+      <c r="I31" s="53" t="s">
+        <v>306</v>
+      </c>
       <c r="J31" s="41"/>
       <c r="K31" s="41"/>
       <c r="L31" s="41"/>
@@ -31437,7 +31469,9 @@
       <c r="H32" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="I32" s="52"/>
+      <c r="I32" s="52" t="s">
+        <v>307</v>
+      </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
@@ -31477,7 +31511,9 @@
       <c r="H33" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="I33" s="53"/>
+      <c r="I33" s="53" t="s">
+        <v>303</v>
+      </c>
       <c r="J33" s="41"/>
       <c r="K33" s="41"/>
       <c r="L33" s="41"/>
@@ -32181,7 +32217,9 @@
       <c r="H50" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="I50" s="56"/>
+      <c r="I50" s="56" t="s">
+        <v>308</v>
+      </c>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>

--- a/Requirments/CAR_RTM .xlsx
+++ b/Requirments/CAR_RTM .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\ITI\CAR_Project\CarPurchasing\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="325">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -1289,6 +1289,17 @@
 CAR_UserLogin_03
 CAR_UserLogin_04</t>
   </si>
+  <si>
+    <t>CAR_User_01
+CAR_User_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR_User_01
+</t>
+  </si>
+  <si>
+    <t>CAR_Admin_06</t>
+  </si>
 </sst>
 </file>
 
@@ -1820,6 +1831,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1835,15 +1855,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2249,10 +2260,10 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -30215,8 +30226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E54" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -30280,9 +30291,9 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="32"/>
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
@@ -30312,9 +30323,9 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="32"/>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
@@ -30334,20 +30345,20 @@
       <c r="A4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
       <c r="P4" s="33"/>
@@ -30436,7 +30447,7 @@
       <c r="H6" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="61" t="s">
         <v>311</v>
       </c>
       <c r="J6" s="37"/>
@@ -30740,7 +30751,7 @@
       <c r="H13" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="61" t="s">
         <v>312</v>
       </c>
       <c r="J13" s="41"/>
@@ -30784,7 +30795,7 @@
       <c r="H14" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="61" t="s">
         <v>313</v>
       </c>
       <c r="J14" s="37"/>
@@ -30828,7 +30839,7 @@
       <c r="H15" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="61" t="s">
         <v>314</v>
       </c>
       <c r="J15" s="41"/>
@@ -30872,7 +30883,7 @@
       <c r="H16" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="I16" s="67" t="s">
+      <c r="I16" s="61" t="s">
         <v>311</v>
       </c>
       <c r="J16" s="37"/>
@@ -30962,7 +30973,7 @@
       <c r="H18" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="61" t="s">
         <v>315</v>
       </c>
       <c r="J18" s="37"/>
@@ -31006,7 +31017,7 @@
       <c r="H19" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="61" t="s">
         <v>316</v>
       </c>
       <c r="J19" s="41"/>
@@ -31050,7 +31061,7 @@
       <c r="H20" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="61" t="s">
         <v>317</v>
       </c>
       <c r="J20" s="37"/>
@@ -31094,7 +31105,7 @@
       <c r="H21" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="I21" s="67" t="s">
+      <c r="I21" s="61" t="s">
         <v>318</v>
       </c>
       <c r="J21" s="41"/>
@@ -31138,7 +31149,7 @@
       <c r="H22" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="I22" s="67" t="s">
+      <c r="I22" s="61" t="s">
         <v>313</v>
       </c>
       <c r="J22" s="37"/>
@@ -31182,7 +31193,7 @@
       <c r="H23" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="I23" s="68" t="s">
+      <c r="I23" s="62" t="s">
         <v>319</v>
       </c>
       <c r="J23" s="41"/>
@@ -31650,7 +31661,7 @@
       <c r="H34" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="I34" s="67" t="s">
+      <c r="I34" s="61" t="s">
         <v>320</v>
       </c>
       <c r="J34" s="37"/>
@@ -31692,7 +31703,7 @@
       <c r="H35" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="I35" s="69" t="s">
+      <c r="I35" s="63" t="s">
         <v>321</v>
       </c>
       <c r="J35" s="41"/>
@@ -31734,7 +31745,9 @@
       <c r="H36" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="I36" s="52"/>
+      <c r="I36" s="52" t="s">
+        <v>323</v>
+      </c>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
@@ -32198,7 +32211,9 @@
       <c r="H47" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="I47" s="59"/>
+      <c r="I47" s="59" t="s">
+        <v>322</v>
+      </c>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
@@ -32240,7 +32255,9 @@
       <c r="H48" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="I48" s="56"/>
+      <c r="I48" s="56" t="s">
+        <v>324</v>
+      </c>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>

--- a/Requirments/CAR_RTM .xlsx
+++ b/Requirments/CAR_RTM .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\ITI\CAR_Project\CarPurchasing\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatma\Desktop\CarPurchasing\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="326">
   <si>
     <t>REQUIREMENTS TRACEABILITY MATRIX</t>
   </si>
@@ -1300,6 +1300,9 @@
   <si>
     <t>CAR_Admin_06</t>
   </si>
+  <si>
+    <t>Car_MyProfile_03</t>
+  </si>
 </sst>
 </file>
 
@@ -30226,8 +30229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="F50" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -32377,7 +32380,9 @@
       <c r="H51" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="I51" s="59"/>
+      <c r="I51" s="59" t="s">
+        <v>325</v>
+      </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
@@ -32419,7 +32424,9 @@
       <c r="H52" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="I52" s="56"/>
+      <c r="I52" s="56" t="s">
+        <v>325</v>
+      </c>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
@@ -32459,7 +32466,9 @@
       <c r="H53" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="I53" s="59"/>
+      <c r="I53" s="59" t="s">
+        <v>325</v>
+      </c>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
